--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yourf\Documents\Uni\Year 4\FCTT\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C165D63-9047-4B58-866B-DD77BE1763AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C563506F-EDAF-4985-AD23-497BC895B039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{79AA0B8A-E75B-4FBB-B34A-8889349EC4E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79AA0B8A-E75B-4FBB-B34A-8889349EC4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="0C" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="21">
   <si>
     <t>SOC</t>
   </si>
@@ -118,6 +118,21 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>I (A)</t>
+  </si>
+  <si>
+    <t>R0 (Ω)</t>
+  </si>
+  <si>
+    <t>R1 (Ω)</t>
+  </si>
+  <si>
+    <t>C1(Ω)</t>
+  </si>
+  <si>
+    <t>C1 (Ω)</t>
+  </si>
 </sst>
 </file>
 
@@ -125,9 +140,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +179,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -180,18 +202,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor rgb="FFAEAAAA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -251,11 +273,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -282,53 +317,54 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8196,8 +8232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5411A1-68EA-4A54-833A-164AC2F8C88F}">
   <dimension ref="B2:BV88"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8213,28 +8249,28 @@
       <c r="C2" s="2">
         <v>0.9</v>
       </c>
-      <c r="I2" s="19" t="str">
+      <c r="I2" s="17" t="str">
         <f>B2</f>
         <v>SOC</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <f t="shared" ref="J2:L11" si="0">C2</f>
         <v>0.9</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19">
         <f>C13</f>
         <v>0.8</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19">
         <f>C24</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -8249,45 +8285,35 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13" t="str">
-        <f t="shared" ref="I3:I11" si="1">B3</f>
-        <v>I</v>
-      </c>
-      <c r="J3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>R0</v>
-      </c>
-      <c r="K3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>R1</v>
-      </c>
-      <c r="L3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-      <c r="M3" s="23" t="str">
-        <f>C14</f>
-        <v>R0</v>
-      </c>
-      <c r="N3" s="23" t="str">
-        <f t="shared" ref="N3:O11" si="2">D14</f>
-        <v>R1</v>
-      </c>
-      <c r="O3" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>C1</v>
-      </c>
-      <c r="P3" s="24" t="str">
-        <f>C25</f>
-        <v>R0</v>
-      </c>
-      <c r="Q3" s="24" t="str">
-        <f t="shared" ref="Q3:R11" si="3">D25</f>
-        <v>R1</v>
-      </c>
-      <c r="R3" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>C1</v>
+      <c r="I3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -8359,44 +8385,44 @@
       <c r="E4" s="1">
         <v>1046.2501562499799</v>
       </c>
-      <c r="I4" s="14">
-        <f t="shared" si="1"/>
+      <c r="I4" s="26">
+        <f t="shared" ref="I3:I11" si="1">B4</f>
         <v>-2.5</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="27">
         <f>C4</f>
         <v>4.2400000000000097E-2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="27">
         <f t="shared" si="0"/>
         <v>1.6E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="28">
         <f t="shared" si="0"/>
         <v>1046.2501562499799</v>
       </c>
-      <c r="M4" s="15">
-        <f t="shared" ref="M4:M11" si="4">C15</f>
+      <c r="M4" s="27">
+        <f t="shared" ref="M4:M11" si="2">C15</f>
         <v>4.2399999999999903E-2</v>
       </c>
-      <c r="N4" s="15">
-        <f t="shared" si="2"/>
+      <c r="N4" s="27">
+        <f t="shared" ref="N3:O11" si="3">D15</f>
         <v>1.48000000000001E-2</v>
       </c>
-      <c r="O4" s="16">
-        <f t="shared" si="2"/>
+      <c r="O4" s="28">
+        <f t="shared" si="3"/>
         <v>643.41216216221903</v>
       </c>
-      <c r="P4" s="15">
-        <f t="shared" ref="P4:P11" si="5">C26</f>
+      <c r="P4" s="27">
+        <f t="shared" ref="P4:P11" si="4">C26</f>
         <v>4.2400000000000097E-2</v>
       </c>
-      <c r="Q4" s="15">
-        <f t="shared" si="3"/>
+      <c r="Q4" s="27">
+        <f t="shared" ref="Q3:R11" si="5">D26</f>
         <v>1.44E-2</v>
       </c>
-      <c r="R4" s="16">
-        <f t="shared" si="3"/>
+      <c r="R4" s="28">
+        <f t="shared" si="5"/>
         <v>680.38194444448402</v>
       </c>
       <c r="S4" s="1"/>
@@ -8469,44 +8495,44 @@
       <c r="E5" s="1">
         <v>640.87250562497104</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>4.2264752791068498E-2</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>1.9138755980861202E-2</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="14">
         <f t="shared" si="0"/>
         <v>640.87250562497104</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <f>C16</f>
         <v>4.2298483639265701E-2</v>
       </c>
-      <c r="N5" s="15">
-        <f t="shared" si="2"/>
-        <v>1.51636073423783E-2</v>
-      </c>
-      <c r="O5" s="16">
-        <f t="shared" si="2"/>
-        <v>482.37202631569301</v>
-      </c>
-      <c r="P5" s="15">
-        <f t="shared" si="5"/>
-        <v>4.2298483639265701E-2</v>
-      </c>
-      <c r="Q5" s="15">
+      <c r="N5" s="13">
         <f t="shared" si="3"/>
         <v>1.51636073423783E-2</v>
       </c>
-      <c r="R5" s="16">
+      <c r="O5" s="14">
         <f t="shared" si="3"/>
+        <v>482.37202631569301</v>
+      </c>
+      <c r="P5" s="13">
+        <f t="shared" si="4"/>
+        <v>4.2298483639265701E-2</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" si="5"/>
+        <v>1.51636073423783E-2</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" si="5"/>
         <v>525.79836842104601</v>
       </c>
       <c r="S5" s="1"/>
@@ -8579,44 +8605,44 @@
       <c r="E6" s="1">
         <v>1379.3333333333601</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <f t="shared" si="0"/>
         <v>1379.3333333333601</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="13">
+        <f t="shared" si="2"/>
+        <v>4.0991801639671997E-2</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="3"/>
+        <v>1.4597080583883201E-2</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="3"/>
+        <v>1333.5200753424799</v>
+      </c>
+      <c r="P6" s="13">
         <f t="shared" si="4"/>
-        <v>4.0991801639671997E-2</v>
-      </c>
-      <c r="N6" s="15">
-        <f t="shared" si="2"/>
-        <v>1.4597080583883201E-2</v>
-      </c>
-      <c r="O6" s="16">
-        <f t="shared" si="2"/>
-        <v>1333.5200753424799</v>
-      </c>
-      <c r="P6" s="15">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="Q6" s="13">
         <f t="shared" si="5"/>
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="Q6" s="15">
-        <f t="shared" si="3"/>
         <v>1.41999999999999E-2</v>
       </c>
-      <c r="R6" s="16">
-        <f t="shared" si="3"/>
+      <c r="R6" s="14">
+        <f t="shared" si="5"/>
         <v>1575.5283450704501</v>
       </c>
     </row>
@@ -8633,44 +8659,44 @@
       <c r="E7" s="1">
         <v>946.40544680845596</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>4.1533546325878599E-2</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <f t="shared" si="0"/>
         <v>1.8769968051118399E-2</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <f t="shared" si="0"/>
         <v>946.40544680845596</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
+        <f t="shared" si="2"/>
+        <v>4.1134185303514197E-2</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="3"/>
+        <v>1.7571884984025701E-2</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="3"/>
+        <v>1009.51022136355</v>
+      </c>
+      <c r="P7" s="13">
         <f t="shared" si="4"/>
-        <v>4.1134185303514197E-2</v>
-      </c>
-      <c r="N7" s="15">
-        <f t="shared" si="2"/>
-        <v>1.7571884984025701E-2</v>
-      </c>
-      <c r="O7" s="16">
-        <f t="shared" si="2"/>
-        <v>1009.51022136355</v>
-      </c>
-      <c r="P7" s="15">
+        <v>4.0335463258785897E-2</v>
+      </c>
+      <c r="Q7" s="13">
         <f t="shared" si="5"/>
-        <v>4.0335463258785897E-2</v>
-      </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="3"/>
         <v>1.55750798722045E-2</v>
       </c>
-      <c r="R7" s="16">
-        <f t="shared" si="3"/>
+      <c r="R7" s="14">
+        <f t="shared" si="5"/>
         <v>758.51938461540101</v>
       </c>
     </row>
@@ -8687,44 +8713,44 @@
       <c r="E8" s="1">
         <v>1717.14863567831</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>3.74962503749625E-2</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <f t="shared" si="0"/>
         <v>1.2898710128987001E-2</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <f t="shared" si="0"/>
         <v>1717.14863567831</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="13">
+        <f t="shared" si="2"/>
+        <v>3.7796220377962202E-2</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="3"/>
+        <v>1.20987901209879E-2</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="3"/>
+        <v>1789.26961154945</v>
+      </c>
+      <c r="P8" s="13">
         <f t="shared" si="4"/>
-        <v>3.7796220377962202E-2</v>
-      </c>
-      <c r="N8" s="15">
-        <f t="shared" si="2"/>
-        <v>1.20987901209879E-2</v>
-      </c>
-      <c r="O8" s="16">
-        <f t="shared" si="2"/>
-        <v>1789.26961154945</v>
-      </c>
-      <c r="P8" s="15">
+        <v>3.7596240375962299E-2</v>
+      </c>
+      <c r="Q8" s="13">
         <f t="shared" si="5"/>
-        <v>3.7596240375962299E-2</v>
-      </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="3"/>
         <v>1.13988601139886E-2</v>
       </c>
-      <c r="R8" s="16">
-        <f t="shared" si="3"/>
+      <c r="R8" s="14">
+        <f t="shared" si="5"/>
         <v>1650.6036403507501</v>
       </c>
     </row>
@@ -8741,44 +8767,44 @@
       <c r="E9" s="1">
         <v>963.00376282052105</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>3.99700224831376E-2</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>1.9485385960529601E-2</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <f t="shared" si="0"/>
         <v>963.00376282052105</v>
       </c>
-      <c r="M9" s="15">
-        <f t="shared" si="4"/>
+      <c r="M9" s="13">
+        <f t="shared" si="2"/>
         <v>3.9710289710289601E-2</v>
       </c>
-      <c r="N9" s="15">
-        <f t="shared" si="2"/>
+      <c r="N9" s="13">
+        <f t="shared" si="3"/>
         <v>1.7232767232767201E-2</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="14">
         <f>E20</f>
         <v>839.30237695656194</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="13">
+        <f t="shared" si="4"/>
+        <v>3.9220584561578703E-2</v>
+      </c>
+      <c r="Q9" s="13">
         <f t="shared" si="5"/>
-        <v>3.9220584561578703E-2</v>
-      </c>
-      <c r="Q9" s="15">
-        <f t="shared" si="3"/>
         <v>1.64876342742943E-2</v>
       </c>
-      <c r="R9" s="16">
-        <f t="shared" si="3"/>
+      <c r="R9" s="14">
+        <f t="shared" si="5"/>
         <v>912.16846212114399</v>
       </c>
     </row>
@@ -8795,44 +8821,44 @@
       <c r="E10" s="1">
         <v>1936.5221606334801</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>3.2648367581620902E-2</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <f t="shared" si="0"/>
         <v>1.10494475276236E-2</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="14">
         <f t="shared" si="0"/>
         <v>1936.5221606334801</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="13">
+        <f t="shared" si="2"/>
+        <v>3.3098345082745798E-2</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0299485025748701E-2</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="3"/>
+        <v>2053.3067864199102</v>
+      </c>
+      <c r="P10" s="13">
         <f t="shared" si="4"/>
-        <v>3.3098345082745798E-2</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="2"/>
-        <v>1.0299485025748701E-2</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" si="2"/>
-        <v>2053.3067864199102</v>
-      </c>
-      <c r="P10" s="15">
+        <v>3.3196680331966801E-2</v>
+      </c>
+      <c r="Q10" s="13">
         <f t="shared" si="5"/>
-        <v>3.3196680331966801E-2</v>
-      </c>
-      <c r="Q10" s="15">
-        <f t="shared" si="3"/>
         <v>1.00989901009898E-2</v>
       </c>
-      <c r="R10" s="16">
-        <f t="shared" si="3"/>
+      <c r="R10" s="14">
+        <f t="shared" si="5"/>
         <v>2160.0179603960701</v>
       </c>
     </row>
@@ -8849,44 +8875,44 @@
       <c r="E11" s="1">
         <v>552.36988624997502</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>3.8461538461538401E-2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>2.1978021978022001E-2</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f t="shared" si="0"/>
         <v>552.36988624997502</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
+        <f t="shared" si="2"/>
+        <v>3.7962037962037697E-2</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="3"/>
+        <v>1.9980019980020101E-2</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="3"/>
+        <v>581.28082512501703</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="4"/>
-        <v>3.7962037962037697E-2</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="2"/>
-        <v>1.9980019980020101E-2</v>
-      </c>
-      <c r="O11" s="16">
-        <f t="shared" si="2"/>
-        <v>581.28082512501703</v>
-      </c>
-      <c r="P11" s="15">
+        <v>3.7462537462537401E-2</v>
+      </c>
+      <c r="Q11" s="13">
         <f t="shared" si="5"/>
-        <v>3.7462537462537401E-2</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="3"/>
         <v>1.8731268731268701E-2</v>
       </c>
-      <c r="R11" s="16">
-        <f t="shared" si="3"/>
+      <c r="R11" s="14">
+        <f t="shared" si="5"/>
         <v>596.06226679999304</v>
       </c>
     </row>
@@ -8898,28 +8924,28 @@
         <f>C2-0.1</f>
         <v>0.8</v>
       </c>
-      <c r="I13" s="19" t="str">
+      <c r="I13" s="17" t="str">
         <f>B35</f>
         <v>SOC</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <f>C35</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="18">
         <f>C46</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21">
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18">
         <f>C57</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -8934,45 +8960,35 @@
       <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="13" t="str">
-        <f t="shared" ref="I14:I22" si="6">B36</f>
-        <v>I</v>
-      </c>
-      <c r="J14" s="13" t="str">
-        <f t="shared" ref="J14:J22" si="7">C36</f>
-        <v>R0</v>
-      </c>
-      <c r="K14" s="13" t="str">
-        <f t="shared" ref="K14:K22" si="8">D36</f>
-        <v>R1</v>
-      </c>
-      <c r="L14" s="13" t="str">
-        <f t="shared" ref="L14:L22" si="9">E36</f>
-        <v>C1</v>
-      </c>
-      <c r="M14" s="13" t="str">
-        <f>C47</f>
-        <v>R0</v>
-      </c>
-      <c r="N14" s="13" t="str">
-        <f t="shared" ref="N14:O22" si="10">D47</f>
-        <v>R1</v>
-      </c>
-      <c r="O14" s="13" t="str">
-        <f t="shared" si="10"/>
-        <v>C1</v>
-      </c>
-      <c r="P14" s="22" t="str">
-        <f>C58</f>
-        <v>R0</v>
-      </c>
-      <c r="Q14" s="22" t="str">
-        <f t="shared" ref="Q14:R22" si="11">D58</f>
-        <v>R1</v>
-      </c>
-      <c r="R14" s="22" t="str">
-        <f t="shared" si="11"/>
-        <v>C1</v>
+      <c r="I14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.3">
@@ -8988,44 +9004,44 @@
       <c r="E15" s="1">
         <v>643.41216216221903</v>
       </c>
-      <c r="I15" s="14">
-        <f t="shared" si="6"/>
+      <c r="I15" s="12">
+        <f t="shared" ref="I14:I22" si="6">B37</f>
         <v>-2.5</v>
       </c>
-      <c r="J15" s="15">
-        <f t="shared" si="7"/>
+      <c r="J15" s="13">
+        <f t="shared" ref="J14:J22" si="7">C37</f>
         <v>4.3599999999999903E-2</v>
       </c>
-      <c r="K15" s="15">
-        <f t="shared" si="8"/>
+      <c r="K15" s="13">
+        <f t="shared" ref="K14:K22" si="8">D37</f>
         <v>1.2000000000000101E-2</v>
       </c>
-      <c r="L15" s="16">
-        <f t="shared" si="9"/>
+      <c r="L15" s="14">
+        <f t="shared" ref="L14:L22" si="9">E37</f>
         <v>678.20833333340499</v>
       </c>
-      <c r="M15" s="15">
-        <f t="shared" ref="M15:M22" si="12">C48</f>
+      <c r="M15" s="13">
+        <f t="shared" ref="M15:M22" si="10">C48</f>
         <v>4.2782886845261901E-2</v>
       </c>
-      <c r="N15" s="15">
-        <f t="shared" si="10"/>
+      <c r="N15" s="13">
+        <f t="shared" ref="N14:O22" si="11">D48</f>
         <v>1.11955217912834E-2</v>
       </c>
-      <c r="O15" s="16">
-        <f t="shared" si="10"/>
+      <c r="O15" s="14">
+        <f t="shared" si="11"/>
         <v>914.60676785711303</v>
       </c>
-      <c r="P15" s="17">
-        <f t="shared" ref="P15:P22" si="13">C59</f>
+      <c r="P15" s="15">
+        <f t="shared" ref="P15:P22" si="12">C59</f>
         <v>4.4000000000000102E-2</v>
       </c>
-      <c r="Q15" s="17">
-        <f t="shared" si="11"/>
+      <c r="Q15" s="15">
+        <f t="shared" ref="Q14:R22" si="13">D59</f>
         <v>1.12E-2</v>
       </c>
-      <c r="R15" s="18">
-        <f t="shared" si="11"/>
+      <c r="R15" s="16">
+        <f t="shared" si="13"/>
         <v>673.30357142866706</v>
       </c>
     </row>
@@ -9042,44 +9058,44 @@
       <c r="E16" s="1">
         <v>482.37202631569301</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="12">
         <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <f t="shared" si="7"/>
         <v>4.3096568236233201E-2</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="13">
         <f t="shared" si="8"/>
         <v>1.5961691939345501E-2</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="14">
         <f t="shared" si="9"/>
         <v>497.44115662497001</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="13">
+        <f t="shared" si="10"/>
+        <v>4.3062200956938003E-2</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="11"/>
+        <v>1.27591706539075E-2</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="11"/>
+        <v>587.69493750011804</v>
+      </c>
+      <c r="P16" s="15">
         <f t="shared" si="12"/>
-        <v>4.3062200956938003E-2</v>
-      </c>
-      <c r="N16" s="15">
-        <f t="shared" si="10"/>
-        <v>1.27591706539075E-2</v>
-      </c>
-      <c r="O16" s="16">
-        <f t="shared" si="10"/>
-        <v>587.69493750011804</v>
-      </c>
-      <c r="P16" s="17">
+        <v>4.3096568236232903E-2</v>
+      </c>
+      <c r="Q16" s="15">
         <f t="shared" si="13"/>
-        <v>4.3096568236232903E-2</v>
-      </c>
-      <c r="Q16" s="17">
-        <f t="shared" si="11"/>
         <v>1.3567438148444E-2</v>
       </c>
-      <c r="R16" s="18">
-        <f t="shared" si="11"/>
+      <c r="R16" s="16">
+        <f t="shared" si="13"/>
         <v>646.03205882347299</v>
       </c>
     </row>
@@ -9096,44 +9112,44 @@
       <c r="E17" s="1">
         <v>1333.5200753424799</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <f t="shared" si="7"/>
         <v>4.2191561687662402E-2</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <f t="shared" si="8"/>
         <v>1.0997800439911999E-2</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="14">
         <f t="shared" si="9"/>
         <v>867.49164545446604</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
+        <f t="shared" si="10"/>
+        <v>4.1599999999999901E-2</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="11"/>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="11"/>
+        <v>1339.6120689654199</v>
+      </c>
+      <c r="P17" s="15">
         <f t="shared" si="12"/>
-        <v>4.1599999999999901E-2</v>
-      </c>
-      <c r="N17" s="15">
-        <f t="shared" si="10"/>
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="O17" s="16">
-        <f t="shared" si="10"/>
-        <v>1339.6120689654199</v>
-      </c>
-      <c r="P17" s="17">
+        <v>4.2991401719656097E-2</v>
+      </c>
+      <c r="Q17" s="15">
         <f t="shared" si="13"/>
-        <v>4.2991401719656097E-2</v>
-      </c>
-      <c r="Q17" s="17">
-        <f t="shared" si="11"/>
         <v>1.1997600479904001E-2</v>
       </c>
-      <c r="R17" s="18">
-        <f t="shared" si="11"/>
+      <c r="R17" s="16">
+        <f t="shared" si="13"/>
         <v>1107.67982500021</v>
       </c>
     </row>
@@ -9150,44 +9166,44 @@
       <c r="E18" s="1">
         <v>1009.51022136355</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <f t="shared" si="7"/>
         <v>4.1932907348242801E-2</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="13">
         <f t="shared" si="8"/>
         <v>1.7571884984025499E-2</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="14">
         <f t="shared" si="9"/>
         <v>917.03309090896198</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="13">
+        <f t="shared" si="10"/>
+        <v>4.1533546325878599E-2</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="11"/>
+        <v>1.35782747603834E-2</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="11"/>
+        <v>733.89294117647501</v>
+      </c>
+      <c r="P18" s="15">
         <f t="shared" si="12"/>
-        <v>4.1533546325878599E-2</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="10"/>
-        <v>1.35782747603834E-2</v>
-      </c>
-      <c r="O18" s="16">
-        <f t="shared" si="10"/>
-        <v>733.89294117647501</v>
-      </c>
-      <c r="P18" s="17">
+        <v>4.2332268370606899E-2</v>
+      </c>
+      <c r="Q18" s="15">
         <f t="shared" si="13"/>
-        <v>4.2332268370606899E-2</v>
-      </c>
-      <c r="Q18" s="17">
-        <f t="shared" si="11"/>
         <v>1.39776357827476E-2</v>
       </c>
-      <c r="R18" s="18">
-        <f t="shared" si="11"/>
+      <c r="R18" s="16">
+        <f t="shared" si="13"/>
         <v>832.83039999996902</v>
       </c>
     </row>
@@ -9204,44 +9220,44 @@
       <c r="E19" s="1">
         <v>1789.26961154945</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="12">
         <f t="shared" si="6"/>
         <v>-10</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <f t="shared" si="7"/>
         <v>3.8896110388961E-2</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="13">
         <f t="shared" si="8"/>
         <v>1.08989101089891E-2</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="14">
         <f t="shared" si="9"/>
         <v>2045.20449999991</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="13">
+        <f t="shared" si="10"/>
+        <v>3.8696130386961299E-2</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="11"/>
+        <v>1.11988801119888E-2</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="11"/>
+        <v>1689.7225267856099</v>
+      </c>
+      <c r="P19" s="15">
         <f t="shared" si="12"/>
-        <v>3.8696130386961299E-2</v>
-      </c>
-      <c r="N19" s="15">
-        <f t="shared" si="10"/>
-        <v>1.11988801119888E-2</v>
-      </c>
-      <c r="O19" s="16">
-        <f t="shared" si="10"/>
-        <v>1689.7225267856099</v>
-      </c>
-      <c r="P19" s="17">
+        <v>3.9696030396960201E-2</v>
+      </c>
+      <c r="Q19" s="15">
         <f t="shared" si="13"/>
-        <v>3.9696030396960201E-2</v>
-      </c>
-      <c r="Q19" s="17">
-        <f t="shared" si="11"/>
         <v>1.22987701229877E-2</v>
       </c>
-      <c r="R19" s="18">
-        <f t="shared" si="11"/>
+      <c r="R19" s="16">
+        <f t="shared" si="13"/>
         <v>1474.9848821139201</v>
       </c>
     </row>
@@ -9258,44 +9274,44 @@
       <c r="E20" s="1">
         <v>839.30237695656194</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="12">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <f t="shared" si="7"/>
         <v>4.0219835123657198E-2</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="13">
         <f t="shared" si="8"/>
         <v>1.79865101174119E-2</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="14">
         <f t="shared" si="9"/>
         <v>947.37666666671396</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="13">
+        <f t="shared" si="10"/>
+        <v>3.9720209842618003E-2</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="11"/>
+        <v>1.4988758431176599E-2</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="11"/>
+        <v>876.59028333328001</v>
+      </c>
+      <c r="P20" s="15">
         <f t="shared" si="12"/>
-        <v>3.9720209842618003E-2</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" si="10"/>
-        <v>1.4988758431176599E-2</v>
-      </c>
-      <c r="O20" s="16">
-        <f t="shared" si="10"/>
-        <v>876.59028333328001</v>
-      </c>
-      <c r="P20" s="17">
+        <v>4.0459540459540498E-2</v>
+      </c>
+      <c r="Q20" s="15">
         <f t="shared" si="13"/>
-        <v>4.0459540459540498E-2</v>
-      </c>
-      <c r="Q20" s="17">
-        <f t="shared" si="11"/>
         <v>1.4985014985015E-2</v>
       </c>
-      <c r="R20" s="18">
-        <f t="shared" si="11"/>
+      <c r="R20" s="16">
+        <f t="shared" si="13"/>
         <v>1035.4010333334199</v>
       </c>
     </row>
@@ -9312,44 +9328,44 @@
       <c r="E21" s="1">
         <v>2053.3067864199102</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="12">
         <f t="shared" si="6"/>
         <v>-20</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <f t="shared" si="7"/>
         <v>3.41982900854957E-2</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="13">
         <f t="shared" si="8"/>
         <v>1.0199490025498701E-2</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="14">
         <f t="shared" si="9"/>
         <v>2053.8281764706098</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="13">
+        <f t="shared" si="10"/>
+        <v>3.4448277586120603E-2</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="11"/>
+        <v>1.09994500274986E-2</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="11"/>
+        <v>1911.27737727248</v>
+      </c>
+      <c r="P21" s="15">
         <f t="shared" si="12"/>
-        <v>3.4448277586120603E-2</v>
-      </c>
-      <c r="N21" s="15">
-        <f t="shared" si="10"/>
-        <v>1.09994500274986E-2</v>
-      </c>
-      <c r="O21" s="16">
-        <f t="shared" si="10"/>
-        <v>1911.27737727248</v>
-      </c>
-      <c r="P21" s="17">
+        <v>3.5248237588120498E-2</v>
+      </c>
+      <c r="Q21" s="15">
         <f t="shared" si="13"/>
-        <v>3.5248237588120498E-2</v>
-      </c>
-      <c r="Q21" s="17">
-        <f t="shared" si="11"/>
         <v>1.24493775311234E-2</v>
       </c>
-      <c r="R21" s="18">
-        <f t="shared" si="11"/>
+      <c r="R21" s="16">
+        <f t="shared" si="13"/>
         <v>1540.1573253014201</v>
       </c>
     </row>
@@ -9366,44 +9382,44 @@
       <c r="E22" s="1">
         <v>581.28082512501703</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="12">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="13">
         <f t="shared" si="7"/>
         <v>3.7962037962038002E-2</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="13">
         <f t="shared" si="8"/>
         <v>2.0229770229770301E-2</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="14">
         <f t="shared" si="9"/>
         <v>587.74765432095603</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="13">
+        <f t="shared" si="10"/>
+        <v>3.77217087184612E-2</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="11"/>
+        <v>1.8236322757931502E-2</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="11"/>
+        <v>680.72934246578995</v>
+      </c>
+      <c r="P22" s="15">
         <f t="shared" si="12"/>
-        <v>3.77217087184612E-2</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="10"/>
-        <v>1.8236322757931502E-2</v>
-      </c>
-      <c r="O22" s="16">
-        <f t="shared" si="10"/>
-        <v>680.72934246578995</v>
-      </c>
-      <c r="P22" s="17">
+        <v>3.8471146640019903E-2</v>
+      </c>
+      <c r="Q22" s="15">
         <f t="shared" si="13"/>
-        <v>3.8471146640019903E-2</v>
-      </c>
-      <c r="Q22" s="17">
-        <f t="shared" si="11"/>
         <v>1.7237072195853201E-2</v>
       </c>
-      <c r="R22" s="18">
-        <f t="shared" si="11"/>
+      <c r="R22" s="16">
+        <f t="shared" si="13"/>
         <v>640.45099275355801</v>
       </c>
     </row>
@@ -9415,22 +9431,22 @@
         <f>C13-0.1</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="I24" s="19" t="str">
+      <c r="I24" s="17" t="str">
         <f>B68</f>
         <v>SOC</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="19">
         <f>C68</f>
         <v>0.30000000000000016</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21">
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="18">
         <f>C79</f>
         <v>0.20000000000000015</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -9445,33 +9461,26 @@
       <c r="E25" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="13" t="str">
-        <f t="shared" ref="I25:I32" si="14">B69</f>
-        <v>I</v>
-      </c>
-      <c r="J25" s="13" t="str">
-        <f t="shared" ref="J25:J33" si="15">C69</f>
-        <v>R0</v>
-      </c>
-      <c r="K25" s="13" t="str">
-        <f t="shared" ref="K25:K33" si="16">D69</f>
-        <v>R1</v>
-      </c>
-      <c r="L25" s="13" t="str">
-        <f t="shared" ref="L25:L33" si="17">E69</f>
-        <v>C1</v>
-      </c>
-      <c r="M25" s="13" t="str">
-        <f>C80</f>
-        <v>R0</v>
-      </c>
-      <c r="N25" s="13" t="str">
-        <f t="shared" ref="N25:O33" si="18">D80</f>
-        <v>R1</v>
-      </c>
-      <c r="O25" s="13" t="str">
-        <f t="shared" si="18"/>
-        <v>C1</v>
+      <c r="I25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -9487,32 +9496,32 @@
       <c r="E26" s="1">
         <v>680.38194444448402</v>
       </c>
-      <c r="I26" s="14">
-        <f t="shared" si="14"/>
+      <c r="I26" s="12">
+        <f t="shared" ref="I25:I32" si="14">B70</f>
         <v>-2.5</v>
       </c>
-      <c r="J26" s="15">
-        <f t="shared" si="15"/>
+      <c r="J26" s="13">
+        <f t="shared" ref="J25:J33" si="15">C70</f>
         <v>4.7199999999999902E-2</v>
       </c>
-      <c r="K26" s="15">
-        <f t="shared" si="16"/>
+      <c r="K26" s="13">
+        <f t="shared" ref="K25:K33" si="16">D70</f>
         <v>1.6400000000000099E-2</v>
       </c>
-      <c r="L26" s="16">
-        <f t="shared" si="17"/>
+      <c r="L26" s="14">
+        <f t="shared" ref="L25:L33" si="17">E70</f>
         <v>572.560975609715</v>
       </c>
-      <c r="M26" s="15">
-        <f t="shared" ref="M26:M33" si="19">C81</f>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26:M33" si="18">C81</f>
         <v>0.05</v>
       </c>
-      <c r="N26" s="15">
-        <f t="shared" si="18"/>
+      <c r="N26" s="13">
+        <f t="shared" ref="N25:O33" si="19">D81</f>
         <v>2.9200000000000101E-2</v>
       </c>
-      <c r="O26" s="16">
-        <f t="shared" si="18"/>
+      <c r="O26" s="14">
+        <f t="shared" si="19"/>
         <v>434.55479452074201</v>
       </c>
     </row>
@@ -9529,32 +9538,32 @@
       <c r="E27" s="1">
         <v>525.79836842104601</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="12">
         <f t="shared" si="14"/>
         <v>1.25</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="13">
         <f t="shared" si="15"/>
         <v>4.6288906624101997E-2</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="13">
         <f t="shared" si="16"/>
         <v>1.6759776536313099E-2</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="14">
         <f t="shared" si="17"/>
         <v>528.94499999986897</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="13">
+        <f t="shared" si="18"/>
+        <v>4.8683160415003902E-2</v>
+      </c>
+      <c r="N27" s="13">
         <f t="shared" si="19"/>
-        <v>4.8683160415003902E-2</v>
-      </c>
-      <c r="N27" s="15">
-        <f t="shared" si="18"/>
         <v>2.1548284118116601E-2</v>
       </c>
-      <c r="O27" s="16">
-        <f t="shared" si="18"/>
+      <c r="O27" s="14">
+        <f t="shared" si="19"/>
         <v>277.98037037061198</v>
       </c>
     </row>
@@ -9571,32 +9580,32 @@
       <c r="E28" s="1">
         <v>1575.5283450704501</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="12">
         <f>B72</f>
         <v>-5</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="13">
         <f t="shared" si="15"/>
         <v>4.5790841831633601E-2</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="13">
         <f t="shared" si="16"/>
         <v>1.7996400719856E-2</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="14">
         <f t="shared" si="17"/>
         <v>1004.28414999991</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="13">
+        <f t="shared" si="18"/>
+        <v>4.7190561887622398E-2</v>
+      </c>
+      <c r="N28" s="13">
         <f t="shared" si="19"/>
-        <v>4.7190561887622398E-2</v>
-      </c>
-      <c r="N28" s="15">
-        <f t="shared" si="18"/>
         <v>2.8594281143771199E-2</v>
       </c>
-      <c r="O28" s="16">
-        <f t="shared" si="18"/>
+      <c r="O28" s="14">
+        <f t="shared" si="19"/>
         <v>658.295968531418</v>
       </c>
     </row>
@@ -9613,32 +9622,32 @@
       <c r="E29" s="1">
         <v>758.51938461540101</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="12">
         <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="13">
         <f t="shared" si="15"/>
         <v>4.5127795527156699E-2</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="13">
         <f t="shared" si="16"/>
         <v>1.6373801916932801E-2</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="14">
         <f t="shared" si="17"/>
         <v>642.21492682935002</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="13">
+        <f t="shared" si="18"/>
+        <v>4.6725239616613401E-2</v>
+      </c>
+      <c r="N29" s="13">
         <f t="shared" si="19"/>
-        <v>4.6725239616613401E-2</v>
-      </c>
-      <c r="N29" s="15">
-        <f t="shared" si="18"/>
         <v>2.15654952076678E-2</v>
       </c>
-      <c r="O29" s="16">
-        <f t="shared" si="18"/>
+      <c r="O29" s="14">
+        <f t="shared" si="19"/>
         <v>703.206666666366</v>
       </c>
     </row>
@@ -9655,32 +9664,32 @@
       <c r="E30" s="1">
         <v>1650.6036403507501</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="12">
         <f t="shared" si="14"/>
         <v>-10</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="13">
         <f t="shared" si="15"/>
         <v>4.1695830416958297E-2</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="13">
         <f t="shared" si="16"/>
         <v>1.7698230176982299E-2</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="14">
         <f t="shared" si="17"/>
         <v>1192.1248502824801</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="13">
+        <f t="shared" si="18"/>
+        <v>4.2399999999999903E-2</v>
+      </c>
+      <c r="N30" s="13">
         <f t="shared" si="19"/>
-        <v>4.2399999999999903E-2</v>
-      </c>
-      <c r="N30" s="15">
-        <f t="shared" si="18"/>
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="O30" s="16">
-        <f t="shared" si="18"/>
+      <c r="O30" s="14">
+        <f t="shared" si="19"/>
         <v>796.85920577631498</v>
       </c>
     </row>
@@ -9697,32 +9706,32 @@
       <c r="E31" s="1">
         <v>912.16846212114399</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="12">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="13">
         <f t="shared" si="15"/>
         <v>4.3217586809892503E-2</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="13">
         <f t="shared" si="16"/>
         <v>1.6987259555333499E-2</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="14">
         <f t="shared" si="17"/>
         <v>841.68961764677704</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="13">
+        <f t="shared" si="18"/>
+        <v>4.3706293706293697E-2</v>
+      </c>
+      <c r="N31" s="13">
         <f t="shared" si="19"/>
-        <v>4.3706293706293697E-2</v>
-      </c>
-      <c r="N31" s="15">
-        <f t="shared" si="18"/>
         <v>1.9230769230769201E-2</v>
       </c>
-      <c r="O31" s="16">
-        <f t="shared" si="18"/>
+      <c r="O31" s="14">
+        <f t="shared" si="19"/>
         <v>700.18000000019697</v>
       </c>
     </row>
@@ -9739,32 +9748,32 @@
       <c r="E32" s="1">
         <v>2160.0179603960701</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="12">
         <f t="shared" si="14"/>
         <v>-20</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="13">
         <f t="shared" si="15"/>
         <v>3.2748362581870798E-2</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="13">
         <f t="shared" si="16"/>
         <v>2.2398880055997099E-2</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="14">
         <f t="shared" si="17"/>
         <v>80657.838493861302</v>
       </c>
-      <c r="M32" s="15" t="str">
+      <c r="M32" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N32" s="13" t="str">
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="N32" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O32" s="16" t="str">
-        <f t="shared" si="18"/>
+      <c r="O32" s="14" t="str">
+        <f t="shared" si="19"/>
         <v>-</v>
       </c>
     </row>
@@ -9781,32 +9790,32 @@
       <c r="E33" s="1">
         <v>596.06226679999304</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="12">
         <f>B77</f>
         <v>4</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="13">
         <f t="shared" si="15"/>
         <v>4.27072927072926E-2</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="13">
         <f t="shared" si="16"/>
         <v>1.9480519480519501E-2</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="14">
         <f t="shared" si="17"/>
         <v>601.34433333342599</v>
       </c>
-      <c r="M33" s="15" t="str">
+      <c r="M33" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N33" s="13" t="str">
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="N33" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O33" s="16" t="str">
-        <f t="shared" si="18"/>
+      <c r="O33" s="14" t="str">
+        <f t="shared" si="19"/>
         <v>-</v>
       </c>
     </row>
@@ -10499,7 +10508,7 @@
   <dimension ref="B2:BU88"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:R33"/>
+      <selection activeCell="I25" sqref="I25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10511,28 +10520,28 @@
       <c r="C2" s="2">
         <v>0.9</v>
       </c>
-      <c r="I2" s="19" t="str">
+      <c r="I2" s="17" t="str">
         <f>B2</f>
         <v>SOC</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <f t="shared" ref="J2:L11" si="0">C2</f>
         <v>0.9</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19">
         <f>C13</f>
         <v>0.8</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19">
         <f>C24</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -10603,45 +10612,35 @@
         <v>4</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="13" t="str">
-        <f t="shared" ref="I3:I11" si="1">B3</f>
-        <v>I</v>
-      </c>
-      <c r="J3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>R0</v>
-      </c>
-      <c r="K3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>R1</v>
-      </c>
-      <c r="L3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-      <c r="M3" s="23" t="str">
-        <f>C14</f>
-        <v>R0</v>
-      </c>
-      <c r="N3" s="23" t="str">
-        <f t="shared" ref="N3:O11" si="2">D14</f>
-        <v>R1</v>
-      </c>
-      <c r="O3" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>C1</v>
-      </c>
-      <c r="P3" s="24" t="str">
-        <f>C25</f>
-        <v>R0</v>
-      </c>
-      <c r="Q3" s="24" t="str">
-        <f t="shared" ref="Q3:R11" si="3">D25</f>
-        <v>R1</v>
-      </c>
-      <c r="R3" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>C1</v>
+      <c r="I3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -10713,49 +10712,46 @@
         <v>826.87500000001</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="14">
-        <f t="shared" si="1"/>
+      <c r="I4" s="12">
+        <f t="shared" ref="I3:I11" si="1">B4</f>
         <v>-2.5</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <f>C4</f>
         <v>2.3999999999999799E-2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <f t="shared" si="0"/>
         <v>8.0000000000001806E-3</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <f t="shared" si="0"/>
         <v>826.87500000001</v>
       </c>
-      <c r="M4" s="15">
-        <f t="shared" ref="M4:M11" si="4">C15</f>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M11" si="2">C15</f>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="N4" s="15">
-        <f t="shared" si="2"/>
+      <c r="N4" s="13">
+        <f t="shared" ref="N3:O11" si="3">D15</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O4" s="16">
-        <f t="shared" si="2"/>
+      <c r="O4" s="14">
+        <f t="shared" si="3"/>
         <v>405.12499999999699</v>
       </c>
-      <c r="P4" s="15">
-        <f t="shared" ref="P4:P11" si="5">C26</f>
+      <c r="P4" s="13">
+        <f t="shared" ref="P4:P11" si="4">C26</f>
         <v>2.0000000000000101E-2</v>
       </c>
-      <c r="Q4" s="15">
-        <f t="shared" si="3"/>
+      <c r="Q4" s="13">
+        <f t="shared" ref="Q3:R11" si="5">D26</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R4" s="16">
-        <f t="shared" si="3"/>
+      <c r="R4" s="14">
+        <f t="shared" si="5"/>
         <v>370.562500000005</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -10823,49 +10819,46 @@
         <v>464.31250000001501</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>1.6000000000000299E-2</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>7.9999999999998302E-3</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="14">
         <f t="shared" si="0"/>
         <v>464.31250000001501</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <f>C16</f>
         <v>1.6000000000000299E-2</v>
       </c>
-      <c r="N5" s="15">
-        <f t="shared" si="2"/>
-        <v>7.9999999999998302E-3</v>
-      </c>
-      <c r="O5" s="16">
-        <f t="shared" si="2"/>
-        <v>342.37499999995401</v>
-      </c>
-      <c r="P5" s="15">
-        <f t="shared" si="5"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="Q5" s="15">
+      <c r="N5" s="13">
         <f t="shared" si="3"/>
         <v>7.9999999999998302E-3</v>
       </c>
-      <c r="R5" s="16">
+      <c r="O5" s="14">
         <f t="shared" si="3"/>
+        <v>342.37499999995401</v>
+      </c>
+      <c r="P5" s="13">
+        <f t="shared" si="4"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" si="5"/>
+        <v>7.9999999999998302E-3</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" si="5"/>
         <v>392.500000000162</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -10930,49 +10923,46 @@
       <c r="E6" s="1">
         <v>589.43750000003001</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <f t="shared" si="0"/>
         <v>589.43750000003001</v>
       </c>
-      <c r="M6" s="15">
-        <f t="shared" si="4"/>
+      <c r="M6" s="13">
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="N6" s="15">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O6" s="16">
-        <f t="shared" si="2"/>
-        <v>533.18749999993895</v>
-      </c>
-      <c r="P6" s="15">
-        <f t="shared" si="5"/>
-        <v>1.7999999999999901E-2</v>
-      </c>
-      <c r="Q6" s="15">
+      <c r="N6" s="13">
         <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R6" s="16">
+      <c r="O6" s="14">
         <f t="shared" si="3"/>
+        <v>533.18749999993895</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999901E-2</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="5"/>
         <v>592.37500000017405</v>
       </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -10988,49 +10978,46 @@
         <v>626.81250000004104</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>2.0000000000000202E-2</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <f t="shared" si="0"/>
         <v>7.9999999999998302E-3</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <f t="shared" si="0"/>
         <v>626.81250000004104</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000202E-2</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="3"/>
+        <v>7.9999999999998302E-3</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="3"/>
+        <v>504.87500000009402</v>
+      </c>
+      <c r="P7" s="13">
         <f t="shared" si="4"/>
-        <v>2.0000000000000202E-2</v>
-      </c>
-      <c r="N7" s="15">
-        <f t="shared" si="2"/>
-        <v>7.9999999999998302E-3</v>
-      </c>
-      <c r="O7" s="16">
-        <f t="shared" si="2"/>
-        <v>504.87500000009402</v>
-      </c>
-      <c r="P7" s="15">
+        <v>1.99999999999999E-2</v>
+      </c>
+      <c r="Q7" s="13">
         <f t="shared" si="5"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R7" s="16">
-        <f t="shared" si="3"/>
+      <c r="R7" s="14">
+        <f t="shared" si="5"/>
         <v>576.87499999997203</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B8">
@@ -11046,49 +11033,46 @@
         <v>1376.93749999994</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <f t="shared" si="0"/>
         <v>7.9999999999999603E-3</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <f t="shared" si="0"/>
         <v>1376.93749999994</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="13">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999802E-3</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="3"/>
+        <v>1244.92857142858</v>
+      </c>
+      <c r="P8" s="13">
         <f t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="N8" s="15">
-        <f t="shared" si="2"/>
-        <v>6.9999999999999802E-3</v>
-      </c>
-      <c r="O8" s="16">
-        <f t="shared" si="2"/>
-        <v>1244.92857142858</v>
-      </c>
-      <c r="P8" s="15">
+        <v>1.8999999999999899E-2</v>
+      </c>
+      <c r="Q8" s="13">
         <f t="shared" si="5"/>
-        <v>1.8999999999999899E-2</v>
-      </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="3"/>
         <v>7.0000000000000201E-3</v>
       </c>
-      <c r="R8" s="16">
-        <f t="shared" si="3"/>
+      <c r="R8" s="14">
+        <f t="shared" si="5"/>
         <v>1280.85714285718</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -11104,49 +11088,46 @@
         <v>803.90024999996797</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <f t="shared" si="0"/>
         <v>803.90024999996797</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="13">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="O9" s="14">
+        <f>E20</f>
+        <v>683.89999999999304</v>
+      </c>
+      <c r="P9" s="13">
         <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="N9" s="15">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="13">
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="O9" s="16">
-        <f>E20</f>
-        <v>683.89999999999304</v>
-      </c>
-      <c r="P9" s="15">
+      <c r="R9" s="14">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="Q9" s="15">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="R9" s="16">
-        <f t="shared" si="3"/>
         <v>748.899999999957</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -11162,49 +11143,46 @@
         <v>2028.6666666666799</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>1.8999999999999899E-2</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <f t="shared" si="0"/>
         <v>7.4999999999999902E-3</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="14">
         <f t="shared" si="0"/>
         <v>2028.6666666666799</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="13">
+        <f t="shared" si="2"/>
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="3"/>
+        <v>6.4999999999999902E-3</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="3"/>
+        <v>1932.84615384618</v>
+      </c>
+      <c r="P10" s="13">
         <f t="shared" si="4"/>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="N10" s="15">
-        <f t="shared" si="2"/>
-        <v>6.4999999999999902E-3</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" si="2"/>
-        <v>1932.84615384618</v>
-      </c>
-      <c r="P10" s="15">
+      <c r="Q10" s="13">
         <f t="shared" si="5"/>
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="Q10" s="15">
-        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="R10" s="16">
-        <f t="shared" si="3"/>
+      <c r="R10" s="14">
+        <f t="shared" si="5"/>
         <v>1694.16666666681</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -11220,55 +11198,49 @@
         <v>1067.1600000000001</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>1.24999999999999E-2</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f t="shared" si="0"/>
         <v>1067.1600000000001</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
+        <f t="shared" si="2"/>
+        <v>2.2499999999999899E-2</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="3"/>
+        <v>971.60000000003402</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="4"/>
-        <v>2.2499999999999899E-2</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="O11" s="16">
-        <f t="shared" si="2"/>
-        <v>971.60000000003402</v>
-      </c>
-      <c r="P11" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="Q11" s="13">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="3"/>
         <v>1.24999999999999E-2</v>
       </c>
-      <c r="R11" s="16">
-        <f t="shared" si="3"/>
+      <c r="R11" s="14">
+        <f t="shared" si="5"/>
         <v>893.20000000007303</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="2:73" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -11279,31 +11251,28 @@
         <v>0.8</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="19" t="str">
+      <c r="I13" s="17" t="str">
         <f>B35</f>
         <v>SOC</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <f>C35</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="18">
         <f>C46</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21">
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18">
         <f>C57</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -11319,49 +11288,36 @@
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="13" t="str">
-        <f t="shared" ref="I14:L22" si="6">B36</f>
-        <v>I</v>
-      </c>
-      <c r="J14" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>R0</v>
-      </c>
-      <c r="K14" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>R1</v>
-      </c>
-      <c r="L14" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>C1</v>
-      </c>
-      <c r="M14" s="13" t="str">
-        <f>C47</f>
-        <v>R0</v>
-      </c>
-      <c r="N14" s="13" t="str">
-        <f t="shared" ref="N14:O22" si="7">D47</f>
-        <v>R1</v>
-      </c>
-      <c r="O14" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>C1</v>
-      </c>
-      <c r="P14" s="22" t="str">
-        <f>C58</f>
-        <v>R0</v>
-      </c>
-      <c r="Q14" s="22" t="str">
-        <f t="shared" ref="Q14:R22" si="8">D58</f>
-        <v>R1</v>
-      </c>
-      <c r="R14" s="22" t="str">
-        <f t="shared" si="8"/>
-        <v>C1</v>
-      </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="I14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B15">
@@ -11376,49 +11332,46 @@
       <c r="E15" s="1">
         <v>405.12499999999699</v>
       </c>
-      <c r="I15" s="14">
-        <f t="shared" si="6"/>
+      <c r="I15" s="12">
+        <f t="shared" ref="I14:L22" si="6">B37</f>
         <v>-2.5</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <f t="shared" si="6"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="13">
         <f t="shared" si="6"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="14">
         <f t="shared" si="6"/>
         <v>211.24999999983601</v>
       </c>
-      <c r="M15" s="15">
-        <f t="shared" ref="M15:M22" si="9">C48</f>
+      <c r="M15" s="13">
+        <f t="shared" ref="M15:M22" si="7">C48</f>
         <v>2.0000000000000101E-2</v>
       </c>
-      <c r="N15" s="15">
-        <f t="shared" si="7"/>
+      <c r="N15" s="13">
+        <f t="shared" ref="N14:O22" si="8">D48</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O15" s="16">
-        <f t="shared" si="7"/>
+      <c r="O15" s="14">
+        <f t="shared" si="8"/>
         <v>767.49999999992599</v>
       </c>
-      <c r="P15" s="17">
-        <f t="shared" ref="P15:P22" si="10">C59</f>
+      <c r="P15" s="15">
+        <f t="shared" ref="P15:P22" si="9">C59</f>
         <v>2.0000000000000101E-2</v>
       </c>
-      <c r="Q15" s="17">
-        <f t="shared" si="8"/>
+      <c r="Q15" s="15">
+        <f t="shared" ref="Q14:R22" si="10">D59</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R15" s="18">
-        <f t="shared" si="8"/>
+      <c r="R15" s="16">
+        <f t="shared" si="10"/>
         <v>511.18750000023198</v>
       </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B16">
@@ -11433,51 +11386,48 @@
       <c r="E16" s="1">
         <v>342.37499999995401</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="12">
         <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <f t="shared" si="6"/>
         <v>2.3999999999999799E-2</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="13">
         <f t="shared" si="6"/>
         <v>8.0000000000001806E-3</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="14">
         <f t="shared" si="6"/>
         <v>248.62499999971399</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="13">
+        <f t="shared" si="7"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="8"/>
+        <v>8.0000000000001806E-3</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="8"/>
+        <v>329.999999999919</v>
+      </c>
+      <c r="P16" s="15">
         <f t="shared" si="9"/>
         <v>1.6E-2</v>
       </c>
-      <c r="N16" s="15">
-        <f t="shared" si="7"/>
+      <c r="Q16" s="15">
+        <f t="shared" si="10"/>
         <v>8.0000000000001806E-3</v>
       </c>
-      <c r="O16" s="16">
-        <f t="shared" si="7"/>
-        <v>329.999999999919</v>
-      </c>
-      <c r="P16" s="17">
+      <c r="R16" s="16">
         <f t="shared" si="10"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="Q16" s="17">
-        <f t="shared" si="8"/>
-        <v>8.0000000000001806E-3</v>
-      </c>
-      <c r="R16" s="18">
-        <f t="shared" si="8"/>
         <v>423.62500000034601</v>
       </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>-5</v>
       </c>
@@ -11490,51 +11440,48 @@
       <c r="E17" s="1">
         <v>533.18749999993895</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <f t="shared" si="6"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <f t="shared" si="6"/>
         <v>6.0000000000000504E-3</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="14">
         <f t="shared" si="6"/>
         <v>635.83333333310895</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="8"/>
+        <v>5.9999999999999602E-3</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="8"/>
+        <v>631.74999999986301</v>
+      </c>
+      <c r="P17" s="15">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="N17" s="15">
-        <f t="shared" si="7"/>
+      <c r="Q17" s="15">
+        <f t="shared" si="10"/>
         <v>5.9999999999999602E-3</v>
       </c>
-      <c r="O17" s="16">
-        <f t="shared" si="7"/>
-        <v>631.74999999986301</v>
-      </c>
-      <c r="P17" s="17">
+      <c r="R17" s="16">
         <f t="shared" si="10"/>
-        <v>0.02</v>
-      </c>
-      <c r="Q17" s="17">
-        <f t="shared" si="8"/>
-        <v>5.9999999999999602E-3</v>
-      </c>
-      <c r="R17" s="18">
-        <f t="shared" si="8"/>
         <v>498.16666666690202</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2.5</v>
       </c>
@@ -11547,284 +11494,264 @@
       <c r="E18" s="1">
         <v>504.87500000009402</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <f t="shared" si="6"/>
         <v>2.0000000000000101E-2</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="13">
         <f t="shared" si="6"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="14">
         <f t="shared" si="6"/>
         <v>1045.43749999993</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="13">
+        <f t="shared" si="7"/>
+        <v>1.99999999999999E-2</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="8"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="8"/>
+        <v>398.68750000005002</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="9"/>
+        <v>2.0000000000000101E-2</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="10"/>
+        <v>564.312499999686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>-10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.9999999999999802E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1244.92857142858</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="6"/>
+        <v>5.9999999999999602E-3</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="6"/>
+        <v>1310.9166666666499</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" si="7"/>
+        <v>1.99999999999999E-2</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="8"/>
+        <v>5.0000000000000201E-3</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="8"/>
+        <v>1052.8999999994901</v>
+      </c>
+      <c r="P19" s="15">
         <f t="shared" si="9"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="N18" s="15">
-        <f t="shared" si="7"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O18" s="16">
-        <f t="shared" si="7"/>
-        <v>398.68750000005002</v>
-      </c>
-      <c r="P18" s="17">
+      <c r="Q19" s="15">
         <f t="shared" si="10"/>
-        <v>2.0000000000000101E-2</v>
-      </c>
-      <c r="Q18" s="17">
-        <f t="shared" si="8"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="R18" s="18">
-        <f t="shared" si="8"/>
-        <v>564.312499999686</v>
-      </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>-10</v>
-      </c>
-      <c r="C19" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R19" s="16">
+        <f t="shared" si="10"/>
+        <v>1719.1666666664401</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
         <v>0.02</v>
       </c>
-      <c r="D19" s="1">
-        <v>6.9999999999999802E-3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1244.92857142858</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="D20" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="1">
+        <v>683.89999999999304</v>
+      </c>
+      <c r="I20" s="12">
         <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="J19" s="15">
+        <v>4</v>
+      </c>
+      <c r="J20" s="13">
         <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K20" s="13">
         <f t="shared" si="6"/>
-        <v>5.9999999999999602E-3</v>
-      </c>
-      <c r="L19" s="16">
+        <v>7.4999999999999503E-3</v>
+      </c>
+      <c r="L20" s="14">
         <f t="shared" si="6"/>
-        <v>1310.9166666666499</v>
-      </c>
-      <c r="M19" s="15">
+        <v>701.93333333300404</v>
+      </c>
+      <c r="M20" s="13">
+        <f t="shared" si="7"/>
+        <v>1.7499999999999901E-2</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="8"/>
+        <v>794.05000000005998</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="10"/>
+        <v>774.00000000015905</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>-20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6.4999999999999902E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1932.84615384618</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="6"/>
+        <v>-20</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="6"/>
+        <v>1.8999999999999899E-2</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" si="6"/>
+        <v>5.4999999999999901E-3</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="6"/>
+        <v>1611.8181818184701</v>
+      </c>
+      <c r="M21" s="13">
+        <f t="shared" si="7"/>
+        <v>1.95E-2</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="8"/>
+        <v>5.4999999999999901E-3</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="8"/>
+        <v>1457.3636363632099</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" si="9"/>
+        <v>1.95E-2</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R21" s="16">
+        <f t="shared" si="10"/>
+        <v>2218.9166666666902</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.2499999999999899E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="1">
+        <v>971.60000000003402</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="6"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="6"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="6"/>
+        <v>1522.8000000002701</v>
+      </c>
+      <c r="M22" s="13">
+        <f t="shared" si="7"/>
+        <v>1.99999999999999E-2</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000101E-2</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="8"/>
+        <v>1251.4500000000901</v>
+      </c>
+      <c r="P22" s="15">
         <f t="shared" si="9"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="N19" s="15">
-        <f t="shared" si="7"/>
-        <v>5.0000000000000201E-3</v>
-      </c>
-      <c r="O19" s="16">
-        <f t="shared" si="7"/>
-        <v>1052.8999999994901</v>
-      </c>
-      <c r="P19" s="17">
+      <c r="Q22" s="15">
         <f t="shared" si="10"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="Q19" s="17">
-        <f t="shared" si="8"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="R19" s="18">
-        <f t="shared" si="8"/>
-        <v>1719.1666666664401</v>
-      </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D20" s="1">
         <v>0.01</v>
       </c>
-      <c r="E20" s="1">
-        <v>683.89999999999304</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="6"/>
-        <v>7.4999999999999503E-3</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="6"/>
-        <v>701.93333333300404</v>
-      </c>
-      <c r="M20" s="15">
-        <f t="shared" si="9"/>
-        <v>1.7499999999999901E-2</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" si="7"/>
-        <v>0.01</v>
-      </c>
-      <c r="O20" s="16">
-        <f t="shared" si="7"/>
-        <v>794.05000000005998</v>
-      </c>
-      <c r="P20" s="17">
+      <c r="R22" s="16">
         <f t="shared" si="10"/>
-        <v>0.02</v>
-      </c>
-      <c r="Q20" s="17">
-        <f t="shared" si="8"/>
-        <v>0.01</v>
-      </c>
-      <c r="R20" s="18">
-        <f t="shared" si="8"/>
-        <v>774.00000000015905</v>
-      </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>-20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6.4999999999999902E-3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1932.84615384618</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" si="6"/>
-        <v>-20</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="6"/>
-        <v>1.8999999999999899E-2</v>
-      </c>
-      <c r="K21" s="15">
-        <f t="shared" si="6"/>
-        <v>5.4999999999999901E-3</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" si="6"/>
-        <v>1611.8181818184701</v>
-      </c>
-      <c r="M21" s="15">
-        <f t="shared" si="9"/>
-        <v>1.95E-2</v>
-      </c>
-      <c r="N21" s="15">
-        <f t="shared" si="7"/>
-        <v>5.4999999999999901E-3</v>
-      </c>
-      <c r="O21" s="16">
-        <f t="shared" si="7"/>
-        <v>1457.3636363632099</v>
-      </c>
-      <c r="P21" s="17">
-        <f t="shared" si="10"/>
-        <v>1.95E-2</v>
-      </c>
-      <c r="Q21" s="17">
-        <f t="shared" si="8"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="R21" s="18">
-        <f t="shared" si="8"/>
-        <v>2218.9166666666902</v>
-      </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2.2499999999999899E-2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E22" s="1">
-        <v>971.60000000003402</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="6"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="6"/>
-        <v>1522.8000000002701</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="9"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="7"/>
-        <v>1.0000000000000101E-2</v>
-      </c>
-      <c r="O22" s="16">
-        <f t="shared" si="7"/>
-        <v>1251.4500000000901</v>
-      </c>
-      <c r="P22" s="17">
-        <f t="shared" si="10"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="Q22" s="17">
-        <f t="shared" si="8"/>
-        <v>0.01</v>
-      </c>
-      <c r="R22" s="18">
-        <f t="shared" si="8"/>
         <v>518.94999999967604</v>
       </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -11832,27 +11759,24 @@
         <f>C13-0.1</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="I24" s="19" t="str">
+      <c r="I24" s="17" t="str">
         <f>B68</f>
         <v>SOC</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="19">
         <f>C68</f>
         <v>0.30000000000000016</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21">
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="18">
         <f>C79</f>
         <v>0.20000000000000015</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -11865,39 +11789,29 @@
       <c r="E25" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="13" t="str">
-        <f t="shared" ref="I25:L33" si="11">B69</f>
-        <v>I</v>
-      </c>
-      <c r="J25" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>R0</v>
-      </c>
-      <c r="K25" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>R1</v>
-      </c>
-      <c r="L25" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>C1</v>
-      </c>
-      <c r="M25" s="13" t="str">
-        <f>C80</f>
-        <v>R0</v>
-      </c>
-      <c r="N25" s="13" t="str">
-        <f t="shared" ref="N25:O33" si="12">D80</f>
-        <v>R1</v>
-      </c>
-      <c r="O25" s="13" t="str">
-        <f t="shared" si="12"/>
-        <v>C1</v>
-      </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="I25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>-2.5</v>
       </c>
@@ -11910,39 +11824,36 @@
       <c r="E26" s="1">
         <v>370.562500000005</v>
       </c>
-      <c r="I26" s="14">
-        <f t="shared" si="11"/>
+      <c r="I26" s="12">
+        <f t="shared" ref="I25:L33" si="11">B70</f>
         <v>-2.5</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="13">
         <f t="shared" si="11"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="13">
         <f t="shared" si="11"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="14">
         <f t="shared" si="11"/>
         <v>414.31250000005002</v>
       </c>
-      <c r="M26" s="15">
-        <f t="shared" ref="M26:M33" si="13">C81</f>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26:M33" si="12">C81</f>
         <v>2.4E-2</v>
       </c>
-      <c r="N26" s="15">
-        <f t="shared" si="12"/>
+      <c r="N26" s="13">
+        <f t="shared" ref="N25:O33" si="13">D81</f>
         <v>3.9999999999999099E-3</v>
       </c>
-      <c r="O26" s="16">
-        <f t="shared" si="12"/>
+      <c r="O26" s="14">
+        <f t="shared" si="13"/>
         <v>235.00000000058699</v>
       </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1.25</v>
       </c>
@@ -11955,39 +11866,36 @@
       <c r="E27" s="1">
         <v>392.500000000162</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="12">
         <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="13">
         <f t="shared" si="11"/>
         <v>1.6E-2</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="13">
         <f t="shared" si="11"/>
         <v>7.9999999999998302E-3</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="14">
         <f t="shared" si="11"/>
         <v>533.12499999993804</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="13">
+        <f t="shared" si="12"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="N27" s="13">
         <f t="shared" si="13"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="N27" s="15">
-        <f t="shared" si="12"/>
         <v>7.9999999999998302E-3</v>
       </c>
-      <c r="O27" s="16">
-        <f t="shared" si="12"/>
+      <c r="O27" s="14">
+        <f t="shared" si="13"/>
         <v>389.37500000066302</v>
       </c>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>-5</v>
       </c>
@@ -12000,39 +11908,36 @@
       <c r="E28" s="1">
         <v>592.37500000017405</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="12">
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="13">
         <f t="shared" si="11"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="13">
         <f t="shared" si="11"/>
         <v>6.0000000000000504E-3</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="14">
         <f t="shared" si="11"/>
         <v>552.41666666672904</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="13">
+        <f t="shared" si="12"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N28" s="13">
         <f t="shared" si="13"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="N28" s="15">
-        <f t="shared" si="12"/>
         <v>5.9999999999999602E-3</v>
       </c>
-      <c r="O28" s="16">
-        <f t="shared" si="12"/>
+      <c r="O28" s="14">
+        <f t="shared" si="13"/>
         <v>914.99999999966599</v>
       </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>2.5</v>
       </c>
@@ -12045,39 +11950,36 @@
       <c r="E29" s="1">
         <v>576.87499999997203</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="12">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="13">
         <f t="shared" si="11"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="13">
         <f t="shared" si="11"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="14">
         <f t="shared" si="11"/>
         <v>807.99999999999204</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="13">
+        <f t="shared" si="12"/>
+        <v>1.99999999999999E-2</v>
+      </c>
+      <c r="N29" s="13">
         <f t="shared" si="13"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="N29" s="15">
-        <f t="shared" si="12"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O29" s="16">
-        <f t="shared" si="12"/>
+      <c r="O29" s="14">
+        <f t="shared" si="13"/>
         <v>608.18749999998397</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>-10</v>
       </c>
@@ -12090,39 +11992,36 @@
       <c r="E30" s="1">
         <v>1280.85714285718</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="12">
         <f t="shared" si="11"/>
         <v>-10</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="13">
         <f t="shared" si="11"/>
         <v>2.0999999999999901E-2</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="13">
         <f t="shared" si="11"/>
         <v>4.9999999999999802E-3</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="14">
         <f t="shared" si="11"/>
         <v>1047.89999999921</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="13">
+        <f t="shared" si="12"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N30" s="13">
         <f t="shared" si="13"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="N30" s="15">
-        <f t="shared" si="12"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O30" s="16">
-        <f t="shared" si="12"/>
+      <c r="O30" s="14">
+        <f t="shared" si="13"/>
         <v>964.91666666649098</v>
       </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>4</v>
       </c>
@@ -12135,36 +12034,36 @@
       <c r="E31" s="1">
         <v>748.899999999957</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="12">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="13">
         <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="13">
         <f t="shared" si="11"/>
         <v>7.5000000000000596E-3</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="14">
         <f t="shared" si="11"/>
         <v>668.66666666658296</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="13">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="N31" s="13">
         <f t="shared" si="13"/>
-        <v>0.02</v>
-      </c>
-      <c r="N31" s="15">
-        <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
-      <c r="O31" s="16">
-        <f t="shared" si="12"/>
+      <c r="O31" s="14">
+        <f t="shared" si="13"/>
         <v>984.00000000037699</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>-20</v>
       </c>
@@ -12177,32 +12076,32 @@
       <c r="E32" s="1">
         <v>1694.16666666681</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="12">
         <f t="shared" si="11"/>
         <v>-20</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="13">
         <f t="shared" si="11"/>
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="13">
         <f t="shared" si="11"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="14">
         <f t="shared" si="11"/>
         <v>1631.66666666681</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="13">
+        <f t="shared" si="12"/>
+        <v>2.2499999999999899E-2</v>
+      </c>
+      <c r="N32" s="13">
         <f t="shared" si="13"/>
-        <v>2.2499999999999899E-2</v>
-      </c>
-      <c r="N32" s="15">
-        <f t="shared" si="12"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="O32" s="16">
-        <f t="shared" si="12"/>
+      <c r="O32" s="14">
+        <f t="shared" si="13"/>
         <v>1145.0714285716101</v>
       </c>
     </row>
@@ -12219,32 +12118,32 @@
       <c r="E33" s="1">
         <v>893.20000000007303</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="12">
         <f>B77</f>
         <v>4</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="13">
         <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="13">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="14">
         <f t="shared" si="11"/>
         <v>1146.4500000001799</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="13">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="N33" s="13">
         <f t="shared" si="13"/>
-        <v>0.02</v>
-      </c>
-      <c r="N33" s="15">
-        <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
-      <c r="O33" s="16">
-        <f t="shared" si="12"/>
+      <c r="O33" s="14">
+        <f t="shared" si="13"/>
         <v>966.40000000042903</v>
       </c>
     </row>
@@ -12944,7 +12843,7 @@
   <dimension ref="B2:R88"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:R33"/>
+      <selection activeCell="I25" sqref="I25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12958,28 +12857,28 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="I2" s="19" t="str">
+      <c r="I2" s="17" t="str">
         <f>B2</f>
         <v>SOC</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="20">
         <f t="shared" ref="J2:L11" si="0">C2</f>
         <v>0.9</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="28">
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="20">
         <f>C13</f>
         <v>0.8</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="28">
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="20">
         <f>C24</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -12994,45 +12893,35 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13" t="str">
-        <f t="shared" ref="I3:I11" si="1">B3</f>
-        <v>I</v>
-      </c>
-      <c r="J3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>R0</v>
-      </c>
-      <c r="K3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>R1</v>
-      </c>
-      <c r="L3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
-      </c>
-      <c r="M3" s="23" t="str">
-        <f>C14</f>
-        <v>R0</v>
-      </c>
-      <c r="N3" s="23" t="str">
-        <f t="shared" ref="N3:O11" si="2">D14</f>
-        <v>R1</v>
-      </c>
-      <c r="O3" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>C1</v>
-      </c>
-      <c r="P3" s="24" t="str">
-        <f>C25</f>
-        <v>R0</v>
-      </c>
-      <c r="Q3" s="24" t="str">
-        <f t="shared" ref="Q3:R11" si="3">D25</f>
-        <v>R1</v>
-      </c>
-      <c r="R3" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>C1</v>
+      <c r="I3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
@@ -13048,44 +12937,44 @@
       <c r="E4" s="1">
         <v>998.24958333325196</v>
       </c>
-      <c r="I4" s="14">
-        <f t="shared" si="1"/>
+      <c r="I4" s="12">
+        <f t="shared" ref="I3:I11" si="1">B4</f>
         <v>-2.5</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <f>C4</f>
         <v>1.55999999999998E-2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <f t="shared" si="0"/>
         <v>6.0000000000002196E-3</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <f t="shared" si="0"/>
         <v>998.24958333325196</v>
       </c>
-      <c r="M4" s="15">
-        <f t="shared" ref="M4:M11" si="4">C15</f>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M11" si="2">C15</f>
         <v>1.55999999999998E-2</v>
       </c>
-      <c r="N4" s="15">
-        <f t="shared" si="2"/>
+      <c r="N4" s="13">
+        <f t="shared" ref="N3:O11" si="3">D15</f>
         <v>7.20000000000009E-3</v>
       </c>
-      <c r="O4" s="16">
-        <f t="shared" si="2"/>
+      <c r="O4" s="14">
+        <f t="shared" si="3"/>
         <v>1305.27812499999</v>
       </c>
-      <c r="P4" s="15">
-        <f t="shared" ref="P4:P11" si="5">C26</f>
+      <c r="P4" s="13">
+        <f t="shared" ref="P4:P11" si="4">C26</f>
         <v>1.5199999999999899E-2</v>
       </c>
-      <c r="Q4" s="15">
-        <f t="shared" si="3"/>
+      <c r="Q4" s="13">
+        <f t="shared" ref="Q3:R11" si="5">D26</f>
         <v>6.8000000000001297E-3</v>
       </c>
-      <c r="R4" s="16">
-        <f t="shared" si="3"/>
+      <c r="R4" s="14">
+        <f t="shared" si="5"/>
         <v>871.029779411704</v>
       </c>
     </row>
@@ -13102,44 +12991,44 @@
       <c r="E5" s="1">
         <v>837.35170749988094</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>1.51636073423783E-2</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>7.1827613727057701E-3</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="14">
         <f t="shared" si="0"/>
         <v>837.35170749988094</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <f>C16</f>
         <v>1.51636073423783E-2</v>
       </c>
-      <c r="N5" s="15">
-        <f t="shared" si="2"/>
+      <c r="N5" s="13">
+        <f t="shared" si="3"/>
         <v>7.9808459696726099E-3</v>
       </c>
-      <c r="O5" s="16">
-        <f t="shared" si="2"/>
+      <c r="O5" s="14">
+        <f t="shared" si="3"/>
         <v>1207.8920000001799</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="13">
+        <f t="shared" si="4"/>
+        <v>1.51636073423783E-2</v>
+      </c>
+      <c r="Q5" s="13">
         <f t="shared" si="5"/>
-        <v>1.51636073423783E-2</v>
-      </c>
-      <c r="Q5" s="15">
-        <f t="shared" si="3"/>
         <v>6.3846767757382303E-3</v>
       </c>
-      <c r="R5" s="16">
-        <f t="shared" si="3"/>
+      <c r="R5" s="14">
+        <f t="shared" si="5"/>
         <v>750.23335843750306</v>
       </c>
     </row>
@@ -13156,44 +13045,44 @@
       <c r="E6" s="1">
         <v>2331.5204705881802</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>1.53938424630146E-2</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <f t="shared" si="0"/>
         <v>6.7972810875651102E-3</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <f t="shared" si="0"/>
         <v>2331.5204705881802</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5196960607878399E-2</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="3"/>
+        <v>7.19856028794241E-3</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="3"/>
+        <v>1405.1420833333</v>
+      </c>
+      <c r="P6" s="13">
         <f t="shared" si="4"/>
         <v>1.5196960607878399E-2</v>
       </c>
-      <c r="N6" s="15">
-        <f t="shared" si="2"/>
-        <v>7.19856028794241E-3</v>
-      </c>
-      <c r="O6" s="16">
-        <f t="shared" si="2"/>
-        <v>1405.1420833333</v>
-      </c>
-      <c r="P6" s="15">
+      <c r="Q6" s="13">
         <f t="shared" si="5"/>
-        <v>1.5196960607878399E-2</v>
-      </c>
-      <c r="Q6" s="15">
-        <f t="shared" si="3"/>
         <v>6.7986402719456499E-3</v>
       </c>
-      <c r="R6" s="16">
-        <f t="shared" si="3"/>
+      <c r="R6" s="14">
+        <f t="shared" si="5"/>
         <v>1318.57285301455</v>
       </c>
     </row>
@@ -13210,44 +13099,44 @@
       <c r="E7" s="1">
         <v>1781.0685126316</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>1.51757188498403E-2</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <f t="shared" si="0"/>
         <v>7.58785942492017E-3</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <f t="shared" si="0"/>
         <v>1781.0685126316</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
+        <f t="shared" si="2"/>
+        <v>1.4776357827476E-2</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="3"/>
+        <v>7.18849840255618E-3</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="3"/>
+        <v>1316.61711111106</v>
+      </c>
+      <c r="P7" s="13">
         <f t="shared" si="4"/>
         <v>1.4776357827476E-2</v>
       </c>
-      <c r="N7" s="15">
-        <f t="shared" si="2"/>
-        <v>7.18849840255618E-3</v>
-      </c>
-      <c r="O7" s="16">
-        <f t="shared" si="2"/>
-        <v>1316.61711111106</v>
-      </c>
-      <c r="P7" s="15">
+      <c r="Q7" s="13">
         <f t="shared" si="5"/>
-        <v>1.4776357827476E-2</v>
-      </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="3"/>
         <v>5.5910543130991298E-3</v>
       </c>
-      <c r="R7" s="16">
-        <f t="shared" si="3"/>
+      <c r="R7" s="14">
+        <f t="shared" si="5"/>
         <v>695.84326714293297</v>
       </c>
     </row>
@@ -13264,44 +13153,44 @@
       <c r="E8" s="1">
         <v>2548.7937000383899</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>1.5198480151984699E-2</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <f t="shared" si="0"/>
         <v>6.4993500649935297E-3</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <f t="shared" si="0"/>
         <v>2548.7937000383899</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="13">
+        <f t="shared" si="2"/>
+        <v>1.4998500149984899E-2</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="3"/>
+        <v>6.6993300669933101E-3</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="3"/>
+        <v>2059.6835597016002</v>
+      </c>
+      <c r="P8" s="13">
         <f t="shared" si="4"/>
-        <v>1.4998500149984899E-2</v>
-      </c>
-      <c r="N8" s="15">
-        <f t="shared" si="2"/>
-        <v>6.6993300669933101E-3</v>
-      </c>
-      <c r="O8" s="16">
-        <f t="shared" si="2"/>
-        <v>2059.6835597016002</v>
-      </c>
-      <c r="P8" s="15">
+        <v>1.4998500149985E-2</v>
+      </c>
+      <c r="Q8" s="13">
         <f t="shared" si="5"/>
-        <v>1.4998500149985E-2</v>
-      </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="3"/>
         <v>6.4993500649934898E-3</v>
       </c>
-      <c r="R8" s="16">
-        <f t="shared" si="3"/>
+      <c r="R8" s="14">
+        <f t="shared" si="5"/>
         <v>2884.6730538461002</v>
       </c>
     </row>
@@ -13318,44 +13207,44 @@
       <c r="E9" s="1">
         <v>1352.46186206893</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>1.52385710716962E-2</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>7.2445665750686698E-3</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <f t="shared" si="0"/>
         <v>1352.46186206893</v>
       </c>
-      <c r="M9" s="15">
-        <f t="shared" si="4"/>
+      <c r="M9" s="13">
+        <f t="shared" si="2"/>
         <v>1.49887584311767E-2</v>
       </c>
-      <c r="N9" s="15">
-        <f t="shared" si="2"/>
+      <c r="N9" s="13">
+        <f t="shared" si="3"/>
         <v>7.4943792155883603E-3</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="14">
         <f>E20</f>
         <v>2420.5473833332398</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="13">
+        <f t="shared" si="4"/>
+        <v>1.4988758431176599E-2</v>
+      </c>
+      <c r="Q9" s="13">
         <f t="shared" si="5"/>
-        <v>1.4988758431176599E-2</v>
-      </c>
-      <c r="Q9" s="15">
-        <f t="shared" si="3"/>
         <v>6.2453160129903396E-3</v>
       </c>
-      <c r="R9" s="16">
-        <f t="shared" si="3"/>
+      <c r="R9" s="14">
+        <f t="shared" si="5"/>
         <v>1143.1767399998701</v>
       </c>
     </row>
@@ -13372,44 +13261,44 @@
       <c r="E10" s="1">
         <v>2741.8306330646001</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>1.4899255037248101E-2</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <f t="shared" si="0"/>
         <v>6.1996900154992502E-3</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="14">
         <f t="shared" si="0"/>
         <v>2741.8306330646001</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="13">
+        <f t="shared" si="2"/>
+        <v>1.4848515148485101E-2</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="3"/>
+        <v>5.7494250574942601E-3</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="3"/>
+        <v>3134.9217216957099</v>
+      </c>
+      <c r="P10" s="13">
         <f t="shared" si="4"/>
-        <v>1.4848515148485101E-2</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="2"/>
-        <v>5.7494250574942601E-3</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" si="2"/>
-        <v>3134.9217216957099</v>
-      </c>
-      <c r="P10" s="15">
+        <v>1.4849257537123101E-2</v>
+      </c>
+      <c r="Q10" s="13">
         <f t="shared" si="5"/>
-        <v>1.4849257537123101E-2</v>
-      </c>
-      <c r="Q10" s="15">
-        <f t="shared" si="3"/>
         <v>5.3497325133743398E-3</v>
       </c>
-      <c r="R10" s="16">
-        <f t="shared" si="3"/>
+      <c r="R10" s="14">
+        <f t="shared" si="5"/>
         <v>3826.9207757244399</v>
       </c>
     </row>
@@ -13426,44 +13315,44 @@
       <c r="E11" s="1">
         <v>1312.0986666665699</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>1.5234765234765199E-2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>8.2417582417583304E-3</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f t="shared" si="0"/>
         <v>1312.0986666665699</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
+        <f t="shared" si="2"/>
+        <v>1.6487634274294199E-2</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="3"/>
+        <v>6.2453160129903396E-3</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="3"/>
+        <v>1879.72873999992</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="4"/>
-        <v>1.6487634274294199E-2</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="2"/>
-        <v>6.2453160129903396E-3</v>
-      </c>
-      <c r="O11" s="16">
-        <f t="shared" si="2"/>
-        <v>1879.72873999992</v>
-      </c>
-      <c r="P11" s="15">
+        <v>1.49850149850148E-2</v>
+      </c>
+      <c r="Q11" s="13">
         <f t="shared" si="5"/>
-        <v>1.49850149850148E-2</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="3"/>
         <v>7.7422577422577698E-3</v>
       </c>
-      <c r="R11" s="16">
-        <f t="shared" si="3"/>
+      <c r="R11" s="14">
+        <f t="shared" si="5"/>
         <v>1409.7309032256601</v>
       </c>
     </row>
@@ -13483,28 +13372,28 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="I13" s="19" t="str">
+      <c r="I13" s="17" t="str">
         <f>B35</f>
         <v>SOC</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="20">
         <f>C35</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="25">
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23">
         <f>C46</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="25">
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23">
         <f>C57</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="27"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -13519,45 +13408,35 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="13" t="str">
-        <f t="shared" ref="I14:L22" si="6">B36</f>
-        <v>I</v>
-      </c>
-      <c r="J14" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>R0</v>
-      </c>
-      <c r="K14" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>R1</v>
-      </c>
-      <c r="L14" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>C1</v>
-      </c>
-      <c r="M14" s="13" t="str">
-        <f>C47</f>
-        <v>R0</v>
-      </c>
-      <c r="N14" s="13" t="str">
-        <f t="shared" ref="N14:O22" si="7">D47</f>
-        <v>R1</v>
-      </c>
-      <c r="O14" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>C1</v>
-      </c>
-      <c r="P14" s="22" t="str">
-        <f>C58</f>
-        <v>R0</v>
-      </c>
-      <c r="Q14" s="22" t="str">
-        <f t="shared" ref="Q14:R22" si="8">D58</f>
-        <v>R1</v>
-      </c>
-      <c r="R14" s="22" t="str">
-        <f t="shared" si="8"/>
-        <v>C1</v>
+      <c r="I14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
@@ -13573,44 +13452,44 @@
       <c r="E15" s="1">
         <v>1305.27812499999</v>
       </c>
-      <c r="I15" s="14">
-        <f t="shared" si="6"/>
+      <c r="I15" s="12">
+        <f t="shared" ref="I14:L22" si="6">B37</f>
         <v>-2.5</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <f t="shared" si="6"/>
         <v>1.5199999999999899E-2</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="13">
         <f t="shared" si="6"/>
         <v>5.6000000000000901E-3</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="14">
         <f t="shared" si="6"/>
         <v>703.66071428581097</v>
       </c>
-      <c r="M15" s="15">
-        <f t="shared" ref="M15:M22" si="9">C48</f>
+      <c r="M15" s="13">
+        <f t="shared" ref="M15:M22" si="7">C48</f>
         <v>1.47999999999999E-2</v>
       </c>
-      <c r="N15" s="15">
-        <f t="shared" si="7"/>
+      <c r="N15" s="13">
+        <f t="shared" ref="N14:O22" si="8">D48</f>
         <v>4.0000000000000903E-3</v>
       </c>
-      <c r="O15" s="16">
-        <f t="shared" si="7"/>
+      <c r="O15" s="14">
+        <f t="shared" si="8"/>
         <v>722.87499999945896</v>
       </c>
-      <c r="P15" s="17">
-        <f t="shared" ref="P15:P22" si="10">C59</f>
+      <c r="P15" s="15">
+        <f t="shared" ref="P15:P22" si="9">C59</f>
         <v>1.51939224310275E-2</v>
       </c>
-      <c r="Q15" s="17">
-        <f t="shared" si="8"/>
+      <c r="Q15" s="15">
+        <f t="shared" ref="Q14:R22" si="10">D59</f>
         <v>3.5985605757698201E-3</v>
       </c>
-      <c r="R15" s="18">
-        <f t="shared" si="8"/>
+      <c r="R15" s="16">
+        <f t="shared" si="10"/>
         <v>851.31261111012395</v>
       </c>
     </row>
@@ -13627,44 +13506,44 @@
       <c r="E16" s="1">
         <v>1207.8920000001799</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="12">
         <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <f t="shared" si="6"/>
         <v>1.51636073423783E-2</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="13">
         <f t="shared" si="6"/>
         <v>5.5865921787710401E-3</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="14">
         <f t="shared" si="6"/>
         <v>615.84950000009803</v>
       </c>
-      <c r="M16" s="15">
-        <f t="shared" si="9"/>
+      <c r="M16" s="13">
+        <f t="shared" si="7"/>
         <v>1.5163607342378E-2</v>
       </c>
-      <c r="N16" s="15">
-        <f t="shared" si="7"/>
-        <v>4.7885075818038499E-3</v>
-      </c>
-      <c r="O16" s="16">
-        <f t="shared" si="7"/>
-        <v>619.19083333334004</v>
-      </c>
-      <c r="P16" s="17">
-        <f t="shared" si="10"/>
-        <v>1.51636073423783E-2</v>
-      </c>
-      <c r="Q16" s="17">
+      <c r="N16" s="13">
         <f t="shared" si="8"/>
         <v>4.7885075818038499E-3</v>
       </c>
-      <c r="R16" s="18">
+      <c r="O16" s="14">
         <f t="shared" si="8"/>
+        <v>619.19083333334004</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" si="9"/>
+        <v>1.51636073423783E-2</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="10"/>
+        <v>4.7885075818038499E-3</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" si="10"/>
         <v>802.02441666630796</v>
       </c>
     </row>
@@ -13681,44 +13560,44 @@
       <c r="E17" s="1">
         <v>1405.1420833333</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <f t="shared" si="6"/>
         <v>1.5196960607878399E-2</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <f t="shared" si="6"/>
         <v>6.1987602479504304E-3</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="14">
         <f t="shared" si="6"/>
         <v>1689.61204838709</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
+        <f t="shared" si="7"/>
+        <v>1.4997000599879899E-2</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="8"/>
+        <v>4.9990001999600702E-3</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="8"/>
+        <v>2078.6156399998899</v>
+      </c>
+      <c r="P17" s="15">
         <f t="shared" si="9"/>
         <v>1.4997000599879899E-2</v>
       </c>
-      <c r="N17" s="15">
-        <f t="shared" si="7"/>
-        <v>4.9990001999600702E-3</v>
-      </c>
-      <c r="O17" s="16">
-        <f t="shared" si="7"/>
-        <v>2078.6156399998899</v>
-      </c>
-      <c r="P17" s="17">
+      <c r="Q17" s="15">
         <f t="shared" si="10"/>
-        <v>1.4997000599879899E-2</v>
-      </c>
-      <c r="Q17" s="17">
-        <f t="shared" si="8"/>
         <v>4.1991601679664701E-3</v>
       </c>
-      <c r="R17" s="18">
-        <f t="shared" si="8"/>
+      <c r="R17" s="16">
+        <f t="shared" si="10"/>
         <v>1247.6304285717399</v>
       </c>
     </row>
@@ -13735,44 +13614,44 @@
       <c r="E18" s="1">
         <v>1316.61711111106</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <f t="shared" si="6"/>
         <v>1.4776357827476E-2</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="13">
         <f t="shared" si="6"/>
         <v>6.7891373801918301E-3</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="14">
         <f t="shared" si="6"/>
         <v>1276.2298823527599</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="13">
+        <f t="shared" si="7"/>
+        <v>1.4776357827476E-2</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="8"/>
+        <v>5.9904153354633097E-3</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="8"/>
+        <v>1212.6037333337899</v>
+      </c>
+      <c r="P18" s="15">
         <f t="shared" si="9"/>
         <v>1.4776357827476E-2</v>
       </c>
-      <c r="N18" s="15">
-        <f t="shared" si="7"/>
+      <c r="Q18" s="15">
+        <f t="shared" si="10"/>
         <v>5.9904153354633097E-3</v>
       </c>
-      <c r="O18" s="16">
-        <f t="shared" si="7"/>
-        <v>1212.6037333337899</v>
-      </c>
-      <c r="P18" s="17">
+      <c r="R18" s="16">
         <f t="shared" si="10"/>
-        <v>1.4776357827476E-2</v>
-      </c>
-      <c r="Q18" s="17">
-        <f t="shared" si="8"/>
-        <v>5.9904153354633097E-3</v>
-      </c>
-      <c r="R18" s="18">
-        <f t="shared" si="8"/>
         <v>1454.7405333336301</v>
       </c>
     </row>
@@ -13789,44 +13668,44 @@
       <c r="E19" s="1">
         <v>2059.6835597016002</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="12">
         <f t="shared" si="6"/>
         <v>-10</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <f t="shared" si="6"/>
         <v>1.4998500149984899E-2</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="13">
         <f t="shared" si="6"/>
         <v>5.2994700529947298E-3</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="14">
         <f t="shared" si="6"/>
         <v>2621.0163207079399</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="13">
+        <f t="shared" si="7"/>
+        <v>1.4998500149984899E-2</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="8"/>
+        <v>4.6995300469953099E-3</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="8"/>
+        <v>1748.0471276595899</v>
+      </c>
+      <c r="P19" s="15">
         <f t="shared" si="9"/>
-        <v>1.4998500149984899E-2</v>
-      </c>
-      <c r="N19" s="15">
-        <f t="shared" si="7"/>
-        <v>4.6995300469953099E-3</v>
-      </c>
-      <c r="O19" s="16">
-        <f t="shared" si="7"/>
-        <v>1748.0471276595899</v>
-      </c>
-      <c r="P19" s="17">
+        <v>1.50969806038792E-2</v>
+      </c>
+      <c r="Q19" s="15">
         <f t="shared" si="10"/>
-        <v>1.50969806038792E-2</v>
-      </c>
-      <c r="Q19" s="17">
-        <f t="shared" si="8"/>
         <v>4.6990601879624196E-3</v>
       </c>
-      <c r="R19" s="18">
-        <f t="shared" si="8"/>
+      <c r="R19" s="16">
+        <f t="shared" si="10"/>
         <v>2170.1147872336901</v>
       </c>
     </row>
@@ -13843,44 +13722,44 @@
       <c r="E20" s="1">
         <v>2420.5473833332398</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="12">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <f t="shared" si="6"/>
         <v>1.4738945790656899E-2</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="13">
         <f t="shared" si="6"/>
         <v>6.2453160129903396E-3</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="14">
         <f t="shared" si="6"/>
         <v>1010.99768000032</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="13">
+        <f t="shared" si="7"/>
+        <v>1.4985014985014899E-2</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="8"/>
+        <v>5.4945054945055496E-3</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="8"/>
+        <v>935.38900000019601</v>
+      </c>
+      <c r="P20" s="15">
         <f t="shared" si="9"/>
-        <v>1.4985014985014899E-2</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" si="7"/>
-        <v>5.4945054945055496E-3</v>
-      </c>
-      <c r="O20" s="16">
-        <f t="shared" si="7"/>
-        <v>935.38900000019601</v>
-      </c>
-      <c r="P20" s="17">
+        <v>1.4738945790657E-2</v>
+      </c>
+      <c r="Q20" s="15">
         <f t="shared" si="10"/>
-        <v>1.4738945790657E-2</v>
-      </c>
-      <c r="Q20" s="17">
-        <f t="shared" si="8"/>
         <v>5.74569073195106E-3</v>
       </c>
-      <c r="R20" s="18">
-        <f t="shared" si="8"/>
+      <c r="R20" s="16">
+        <f t="shared" si="10"/>
         <v>1081.7672391307799</v>
       </c>
     </row>
@@ -13897,44 +13776,44 @@
       <c r="E21" s="1">
         <v>3134.9217216957099</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="12">
         <f t="shared" si="6"/>
         <v>-20</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <f t="shared" si="6"/>
         <v>1.4799260036998101E-2</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="13">
         <f t="shared" si="6"/>
         <v>4.6497675116244103E-3</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="14">
         <f t="shared" si="6"/>
         <v>3040.9041881452199</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="13">
+        <f t="shared" si="7"/>
+        <v>1.4899255037248101E-2</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="8"/>
+        <v>4.7497625118744103E-3</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="8"/>
+        <v>2882.0388315793798</v>
+      </c>
+      <c r="P21" s="15">
         <f t="shared" si="9"/>
-        <v>1.4899255037248101E-2</v>
-      </c>
-      <c r="N21" s="15">
-        <f t="shared" si="7"/>
-        <v>4.7497625118744103E-3</v>
-      </c>
-      <c r="O21" s="16">
-        <f t="shared" si="7"/>
-        <v>2882.0388315793798</v>
-      </c>
-      <c r="P21" s="17">
+        <v>1.5099245037748101E-2</v>
+      </c>
+      <c r="Q21" s="15">
         <f t="shared" si="10"/>
-        <v>1.5099245037748101E-2</v>
-      </c>
-      <c r="Q21" s="17">
-        <f t="shared" si="8"/>
         <v>4.5997700114994199E-3</v>
       </c>
-      <c r="R21" s="18">
-        <f t="shared" si="8"/>
+      <c r="R21" s="16">
+        <f t="shared" si="10"/>
         <v>2878.5134836956199</v>
       </c>
     </row>
@@ -13951,44 +13830,44 @@
       <c r="E22" s="1">
         <v>1879.72873999992</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="12">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="13">
         <f t="shared" si="6"/>
         <v>1.8735948038970801E-2</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="13">
         <f t="shared" si="6"/>
         <v>3.4973769672744901E-3</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="14">
         <f t="shared" si="6"/>
         <v>2484.5763214287199</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="13">
+        <f t="shared" si="7"/>
+        <v>1.4988758431176599E-2</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="8"/>
+        <v>6.9947539345490903E-3</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="8"/>
+        <v>1131.41935714295</v>
+      </c>
+      <c r="P22" s="15">
         <f t="shared" si="9"/>
-        <v>1.4988758431176599E-2</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="7"/>
-        <v>6.9947539345490903E-3</v>
-      </c>
-      <c r="O22" s="16">
-        <f t="shared" si="7"/>
-        <v>1131.41935714295</v>
-      </c>
-      <c r="P22" s="17">
+        <v>1.4735264735264601E-2</v>
+      </c>
+      <c r="Q22" s="15">
         <f t="shared" si="10"/>
-        <v>1.4735264735264601E-2</v>
-      </c>
-      <c r="Q22" s="17">
-        <f t="shared" si="8"/>
         <v>7.2427572427573297E-3</v>
       </c>
-      <c r="R22" s="18">
-        <f t="shared" si="8"/>
+      <c r="R22" s="16">
+        <f t="shared" si="10"/>
         <v>1327.46406896545</v>
       </c>
     </row>
@@ -14008,22 +13887,22 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="I24" s="19" t="str">
+      <c r="I24" s="17" t="str">
         <f>B68</f>
         <v>SOC</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="20">
         <f>C68</f>
         <v>0.30000000000000016</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="25">
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23">
         <f>C79</f>
         <v>0.20000000000000015</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -14038,33 +13917,26 @@
       <c r="E25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="13" t="str">
-        <f t="shared" ref="I25:L33" si="11">B69</f>
-        <v>I</v>
-      </c>
-      <c r="J25" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>R0</v>
-      </c>
-      <c r="K25" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>R1</v>
-      </c>
-      <c r="L25" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>C1</v>
-      </c>
-      <c r="M25" s="13" t="str">
-        <f>C80</f>
-        <v>R0</v>
-      </c>
-      <c r="N25" s="13" t="str">
-        <f t="shared" ref="N25:O33" si="12">D80</f>
-        <v>R1</v>
-      </c>
-      <c r="O25" s="13" t="str">
-        <f t="shared" si="12"/>
-        <v>C1</v>
+      <c r="I25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -14080,32 +13952,32 @@
       <c r="E26" s="1">
         <v>871.029779411704</v>
       </c>
-      <c r="I26" s="14">
-        <f t="shared" si="11"/>
+      <c r="I26" s="12">
+        <f t="shared" ref="I25:L33" si="11">B70</f>
         <v>-2.5</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="13">
         <f t="shared" si="11"/>
         <v>1.51939224310275E-2</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="13">
         <f t="shared" si="11"/>
         <v>3.5985605757698201E-3</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="14">
         <f t="shared" si="11"/>
         <v>858.53772222270698</v>
       </c>
-      <c r="M26" s="15">
-        <f t="shared" ref="M26:M33" si="13">C81</f>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26:M33" si="12">C81</f>
         <v>1.6E-2</v>
       </c>
-      <c r="N26" s="15">
-        <f t="shared" si="12"/>
+      <c r="N26" s="13">
+        <f t="shared" ref="N25:O33" si="13">D81</f>
         <v>4.0000000000000903E-3</v>
       </c>
-      <c r="O26" s="16">
-        <f t="shared" si="12"/>
+      <c r="O26" s="14">
+        <f t="shared" si="13"/>
         <v>904.00000000042905</v>
       </c>
     </row>
@@ -14122,32 +13994,32 @@
       <c r="E27" s="1">
         <v>750.23335843750306</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="12">
         <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="13">
         <f t="shared" si="11"/>
         <v>1.5163607342378E-2</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="13">
         <f t="shared" si="11"/>
         <v>4.7885075818038499E-3</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="14">
         <f t="shared" si="11"/>
         <v>739.27000000015403</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="13">
+        <f t="shared" si="12"/>
+        <v>1.5961691939345501E-2</v>
+      </c>
+      <c r="N27" s="13">
         <f t="shared" si="13"/>
-        <v>1.5961691939345501E-2</v>
-      </c>
-      <c r="N27" s="15">
-        <f t="shared" si="12"/>
         <v>5.5865921787710401E-3</v>
       </c>
-      <c r="O27" s="16">
-        <f t="shared" si="12"/>
+      <c r="O27" s="14">
+        <f t="shared" si="13"/>
         <v>937.87049999927603</v>
       </c>
     </row>
@@ -14164,32 +14036,32 @@
       <c r="E28" s="1">
         <v>1318.57285301455</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="12">
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="13">
         <f t="shared" si="11"/>
         <v>1.5196960607878399E-2</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="13">
         <f t="shared" si="11"/>
         <v>4.7990401919616099E-3</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="14">
         <f t="shared" si="11"/>
         <v>2284.9360624996698</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="13">
+        <f t="shared" si="12"/>
+        <v>1.5796840631873602E-2</v>
+      </c>
+      <c r="N28" s="13">
         <f t="shared" si="13"/>
-        <v>1.5796840631873602E-2</v>
-      </c>
-      <c r="N28" s="15">
-        <f t="shared" si="12"/>
         <v>4.5990801839632302E-3</v>
       </c>
-      <c r="O28" s="16">
-        <f t="shared" si="12"/>
+      <c r="O28" s="14">
+        <f t="shared" si="13"/>
         <v>1465.29300000029</v>
       </c>
     </row>
@@ -14206,32 +14078,32 @@
       <c r="E29" s="1">
         <v>695.84326714293297</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="12">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="13">
         <f t="shared" si="11"/>
         <v>1.51757188498403E-2</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="13">
         <f t="shared" si="11"/>
         <v>4.7923322683706103E-3</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="14">
         <f t="shared" si="11"/>
         <v>832.37133333362306</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="13">
+        <f t="shared" si="12"/>
+        <v>1.55750798722045E-2</v>
+      </c>
+      <c r="N29" s="13">
         <f t="shared" si="13"/>
-        <v>1.55750798722045E-2</v>
-      </c>
-      <c r="N29" s="15">
-        <f t="shared" si="12"/>
         <v>5.5910543130991298E-3</v>
       </c>
-      <c r="O29" s="16">
-        <f t="shared" si="12"/>
+      <c r="O29" s="14">
+        <f t="shared" si="13"/>
         <v>838.66114285685705</v>
       </c>
     </row>
@@ -14248,32 +14120,32 @@
       <c r="E30" s="1">
         <v>2884.6730538461002</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="12">
         <f t="shared" si="11"/>
         <v>-10</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="13">
         <f t="shared" si="11"/>
         <v>1.53984601539846E-2</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="13">
         <f t="shared" si="11"/>
         <v>4.3995600439956E-3</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="14">
         <f t="shared" si="11"/>
         <v>1789.4971136379199</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="13">
+        <f t="shared" si="12"/>
+        <v>1.5898410158984098E-2</v>
+      </c>
+      <c r="N30" s="13">
         <f t="shared" si="13"/>
-        <v>1.5898410158984098E-2</v>
-      </c>
-      <c r="N30" s="15">
-        <f t="shared" si="12"/>
         <v>4.3995600439956E-3</v>
       </c>
-      <c r="O30" s="16">
-        <f t="shared" si="12"/>
+      <c r="O30" s="14">
+        <f t="shared" si="13"/>
         <v>1827.4554545456499</v>
       </c>
     </row>
@@ -14290,32 +14162,32 @@
       <c r="E31" s="1">
         <v>1143.1767399998701</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="12">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="13">
         <f t="shared" si="11"/>
         <v>1.52385710716962E-2</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="13">
         <f t="shared" si="11"/>
         <v>6.7449412940295099E-3</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="14">
         <f t="shared" si="11"/>
         <v>1740.4154444435601</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="13">
+        <f t="shared" si="12"/>
+        <v>1.5488383712215901E-2</v>
+      </c>
+      <c r="N31" s="13">
         <f t="shared" si="13"/>
-        <v>1.5488383712215901E-2</v>
-      </c>
-      <c r="N31" s="15">
-        <f t="shared" si="12"/>
         <v>5.9955033724706499E-3</v>
       </c>
-      <c r="O31" s="16">
-        <f t="shared" si="12"/>
+      <c r="O31" s="14">
+        <f t="shared" si="13"/>
         <v>1003.0850833338</v>
       </c>
     </row>
@@ -14332,32 +14204,32 @@
       <c r="E32" s="1">
         <v>3826.9207757244399</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="12">
         <f t="shared" si="11"/>
         <v>-20</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="13">
         <f t="shared" si="11"/>
         <v>1.5399230038498E-2</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="13">
         <f t="shared" si="11"/>
         <v>4.6497675116244103E-3</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="14">
         <f t="shared" si="11"/>
         <v>2643.1429032259898</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="13">
+        <f t="shared" si="12"/>
+        <v>1.61483851614838E-2</v>
+      </c>
+      <c r="N32" s="13">
         <f t="shared" si="13"/>
-        <v>1.61483851614838E-2</v>
-      </c>
-      <c r="N32" s="15">
-        <f t="shared" si="12"/>
         <v>4.5995400459954002E-3</v>
       </c>
-      <c r="O32" s="16">
-        <f t="shared" si="12"/>
+      <c r="O32" s="14">
+        <f t="shared" si="13"/>
         <v>2014.44055434811</v>
       </c>
     </row>
@@ -14374,32 +14246,32 @@
       <c r="E33" s="1">
         <v>1409.7309032256601</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="12">
         <f>B77</f>
         <v>4</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="13">
         <f t="shared" si="11"/>
         <v>1.52385710716962E-2</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="13">
         <f t="shared" si="11"/>
         <v>7.2445665750687799E-3</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="14">
         <f t="shared" si="11"/>
         <v>1113.24810344858</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="13">
+        <f t="shared" si="12"/>
+        <v>1.7237072195853E-2</v>
+      </c>
+      <c r="N33" s="13">
         <f t="shared" si="13"/>
-        <v>1.7237072195853E-2</v>
-      </c>
-      <c r="N33" s="15">
-        <f t="shared" si="12"/>
         <v>6.2453160129903396E-3</v>
       </c>
-      <c r="O33" s="16">
-        <f t="shared" si="12"/>
+      <c r="O33" s="14">
+        <f t="shared" si="13"/>
         <v>1835.6957399990999</v>
       </c>
     </row>
@@ -15137,7 +15009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3E9983-F331-43B8-AFD7-F870051FBDBB}">
   <dimension ref="B2:Y170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -17019,7 +16891,7 @@
         <v>2.7670987682043489E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75:D138" si="6">ABS(C75-$C$4)</f>
+        <f t="shared" ref="D75:D90" si="6">ABS(C75-$C$4)</f>
         <v>1.2591176171992794E-2</v>
       </c>
       <c r="R75">
@@ -17518,15 +17390,15 @@
         <v>325.64999999999998</v>
       </c>
       <c r="S93">
-        <f t="shared" ref="S93:S156" si="8">$S$22*EXP(-$S$17/$S$16*(1/R93-1/$R$22))</f>
+        <f t="shared" ref="S93:S108" si="8">$S$22*EXP(-$S$17/$S$16*(1/R93-1/$R$22))</f>
         <v>6.4127688105810373E-3</v>
       </c>
       <c r="T93">
-        <f t="shared" ref="T93:T156" si="9">$V$22*EXP(-$S$17/$S$16*(1/R93-1/$U$22))</f>
+        <f t="shared" ref="T93:T108" si="9">$V$22*EXP(-$S$17/$S$16*(1/R93-1/$U$22))</f>
         <v>6.4127688105810373E-3</v>
       </c>
       <c r="U93">
-        <f t="shared" ref="U93:U156" si="10">$Y$22*EXP(-$S$17/$S$16*(1/R93-1/$X$22))</f>
+        <f t="shared" ref="U93:U108" si="10">$Y$22*EXP(-$S$17/$S$16*(1/R93-1/$X$22))</f>
         <v>6.4127688105811813E-3</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yourf\Documents\Uni\Year 4\FCTT\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5683B909-BF8D-4C06-86D7-5330D4EB0233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0397008B-6826-4E2C-8CB2-F61A719BA4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{79AA0B8A-E75B-4FBB-B34A-8889349EC4E4}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="22">
   <si>
     <t>SOC</t>
   </si>
@@ -367,6 +367,30 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,30 +420,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10095,7 +10095,7 @@
   <dimension ref="B2:BV96"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="K5" sqref="K5:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10115,24 +10115,24 @@
         <f>B2</f>
         <v>SOC</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="37">
         <f>C2</f>
         <v>0.9</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37">
         <f>C14</f>
         <v>0.8</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37">
         <f>C26</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
     </row>
     <row r="3" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -10237,42 +10237,42 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="44">
+      <c r="K4" s="33">
         <v>-0.5</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="29">
         <f t="shared" ref="L4" si="0">C4</f>
         <v>0.04</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="29">
         <f t="shared" ref="M4" si="1">D4</f>
         <v>0.114</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="30">
         <f t="shared" ref="N4" si="2">E4</f>
         <v>5875.2017390350402</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="29">
         <f t="shared" ref="O4" si="3">C16</f>
         <v>4.21686746987949E-2</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="29">
         <f t="shared" ref="P4" si="4">D16</f>
         <v>0.104417670682731</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="30">
         <f t="shared" ref="Q4" si="5">E16</f>
         <v>6687.30680769229</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="29">
         <f t="shared" ref="R4" si="6">C28</f>
         <v>4.1999999999999801E-2</v>
       </c>
-      <c r="S4" s="40">
+      <c r="S4" s="29">
         <f t="shared" ref="S4" si="7">D28</f>
         <v>0.12999999999999901</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="30">
         <f t="shared" ref="T4" si="8">E28</f>
         <v>5311.7115192307701</v>
       </c>
@@ -10340,39 +10340,39 @@
         <f t="shared" ref="K5:N12" si="9">B5</f>
         <v>-2.5</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="31">
         <f t="shared" si="9"/>
         <v>4.2433947157726297E-2</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="31">
         <f t="shared" si="9"/>
         <v>1.76140912730182E-2</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="32">
         <f t="shared" si="9"/>
         <v>2777.52052272729</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="31">
         <f t="shared" ref="O5:Q12" si="10">C17</f>
         <v>4.2416966786714597E-2</v>
       </c>
-      <c r="P5" s="42">
+      <c r="P5" s="31">
         <f t="shared" si="10"/>
         <v>1.8407362945178099E-2</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="32">
         <f t="shared" si="10"/>
         <v>3343.6349727716902</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="31">
         <f t="shared" ref="R5:T12" si="11">C29</f>
         <v>4.2416966786714798E-2</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="31">
         <f t="shared" si="11"/>
         <v>1.8007202881152401E-2</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="32">
         <f t="shared" si="11"/>
         <v>3292.98783333337</v>
       </c>
@@ -10440,39 +10440,39 @@
         <f t="shared" si="9"/>
         <v>1.25</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="29">
         <f t="shared" si="9"/>
         <v>4.1566746602718203E-2</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="29">
         <f t="shared" si="9"/>
         <v>2.2382094324540001E-2</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="30">
         <f t="shared" si="9"/>
         <v>1790.4267321428999</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="29">
         <f t="shared" si="10"/>
         <v>4.23661071143085E-2</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="29">
         <f t="shared" si="10"/>
         <v>2.0783373301358699E-2</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="30">
         <f t="shared" si="10"/>
         <v>1985.89020663464</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="29">
         <f t="shared" si="11"/>
         <v>4.23661071143085E-2</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="29">
         <f t="shared" si="11"/>
         <v>2.0783373301358699E-2</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="30">
         <f t="shared" si="11"/>
         <v>3043.2018461538501</v>
       </c>
@@ -10540,39 +10540,39 @@
         <f t="shared" si="9"/>
         <v>-5</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="29">
         <f t="shared" si="9"/>
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="29">
         <f t="shared" si="9"/>
         <v>1.6199999999999899E-2</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="30">
         <f t="shared" si="9"/>
         <v>3678.9197530864399</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="29">
         <f t="shared" si="10"/>
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="29">
         <f t="shared" si="10"/>
         <v>1.6199999999999899E-2</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="30">
         <f t="shared" si="10"/>
         <v>3620.2777777777301</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="29">
         <f t="shared" si="11"/>
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="29">
         <f t="shared" si="11"/>
         <v>1.6E-2</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="30">
         <f t="shared" si="11"/>
         <v>4360.7814062499901</v>
       </c>
@@ -10597,39 +10597,39 @@
         <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="29">
         <f t="shared" si="9"/>
         <v>4.1583366653338699E-2</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="29">
         <f t="shared" si="9"/>
         <v>2.0791683326669499E-2</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="30">
         <f t="shared" si="9"/>
         <v>2363.8298894711302</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="29">
         <f t="shared" si="10"/>
         <v>4.1150619256891598E-2</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="29">
         <f t="shared" si="10"/>
         <v>1.9976028765481501E-2</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="30">
         <f t="shared" si="10"/>
         <v>3584.19600514993</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="29">
         <f t="shared" si="11"/>
         <v>4.03838464614154E-2</v>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="29">
         <f t="shared" si="11"/>
         <v>1.8792483006797301E-2</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="30">
         <f t="shared" si="11"/>
         <v>2826.8218989893699</v>
       </c>
@@ -10654,39 +10654,39 @@
         <f t="shared" si="9"/>
         <v>-10</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="29">
         <f t="shared" si="9"/>
         <v>3.7503750375037503E-2</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="29">
         <f t="shared" si="9"/>
         <v>1.4001400140013999E-2</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="30">
         <f t="shared" si="9"/>
         <v>4724.4560785713802</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="29">
         <f t="shared" si="10"/>
         <v>3.78E-2</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="29">
         <f t="shared" si="10"/>
         <v>1.35999999999999E-2</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="30">
         <f t="shared" si="10"/>
         <v>4860.1470588235297</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="29">
         <f t="shared" si="11"/>
         <v>3.76075215043008E-2</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="29">
         <f t="shared" si="11"/>
         <v>1.3002600520103999E-2</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="30">
         <f t="shared" si="11"/>
         <v>5296.8634923076397</v>
       </c>
@@ -10711,39 +10711,39 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="29">
         <f t="shared" si="9"/>
         <v>3.9980009995002501E-2</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="29">
         <f t="shared" si="9"/>
         <v>2.1489255372313901E-2</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="30">
         <f t="shared" si="9"/>
         <v>2826.9011162790398</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="29">
         <f t="shared" si="10"/>
         <v>3.9730134932533599E-2</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="29">
         <f t="shared" si="10"/>
         <v>1.9990004997501101E-2</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="30">
         <f t="shared" si="10"/>
         <v>3127.6881875625099</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="29">
         <f t="shared" si="11"/>
         <v>3.9240189952511703E-2</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="29">
         <f t="shared" si="11"/>
         <v>1.8995251187203199E-2</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="30">
         <f t="shared" si="11"/>
         <v>3536.27858552624</v>
       </c>
@@ -10768,39 +10768,39 @@
         <f t="shared" si="9"/>
         <v>-20</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="29">
         <f t="shared" si="9"/>
         <v>3.2649999999999901E-2</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="29">
         <f t="shared" si="9"/>
         <v>1.2049999999999899E-2</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="30">
         <f t="shared" si="9"/>
         <v>5962.4479253112004</v>
       </c>
-      <c r="O11" s="40">
+      <c r="O11" s="29">
         <f t="shared" si="10"/>
         <v>3.3101655082754103E-2</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="29">
         <f t="shared" si="10"/>
         <v>1.1350567528376401E-2</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="30">
         <f t="shared" si="10"/>
         <v>6257.2201629956899</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="29">
         <f t="shared" si="11"/>
         <v>3.3201660083004098E-2</v>
       </c>
-      <c r="S11" s="40">
+      <c r="S11" s="29">
         <f t="shared" si="11"/>
         <v>1.09005450272513E-2</v>
       </c>
-      <c r="T11" s="41">
+      <c r="T11" s="30">
         <f t="shared" si="11"/>
         <v>6673.74909402509</v>
       </c>
@@ -10825,39 +10825,39 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="29">
         <f t="shared" si="9"/>
         <v>3.8480759620189799E-2</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="29">
         <f t="shared" si="9"/>
         <v>2.6986506746626601E-2</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="30">
         <f t="shared" si="9"/>
         <v>2737.40505555554</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="29">
         <f t="shared" si="10"/>
         <v>3.7990502374406203E-2</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="29">
         <f t="shared" si="10"/>
         <v>2.49937515621096E-2</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="30">
         <f t="shared" si="10"/>
         <v>2554.5385750249402</v>
       </c>
-      <c r="R12" s="40">
+      <c r="R12" s="29">
         <f t="shared" si="11"/>
         <v>3.74906273431641E-2</v>
       </c>
-      <c r="S12" s="40">
+      <c r="S12" s="29">
         <f t="shared" si="11"/>
         <v>2.3494126468382798E-2</v>
       </c>
-      <c r="T12" s="41">
+      <c r="T12" s="30">
         <f t="shared" si="11"/>
         <v>2722.9359893883302</v>
       </c>
@@ -10877,24 +10877,24 @@
         <f>B38</f>
         <v>SOC</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="37">
         <f>C38</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="28">
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="36">
         <f>C50</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28">
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36">
         <f>C62</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
     </row>
     <row r="15" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -10956,42 +10956,42 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="8"/>
-      <c r="K16" s="39">
+      <c r="K16" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="29">
         <f t="shared" ref="L16" si="12">C40</f>
         <v>4.2084168336673097E-2</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="29">
         <f t="shared" ref="M16" si="13">D40</f>
         <v>8.0160320641282604E-2</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="30">
         <f t="shared" ref="N16" si="14">E40</f>
         <v>8651.7119000000002</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="29">
         <f t="shared" ref="O16" si="15">C52</f>
         <v>4.4088176352704997E-2</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="29">
         <f t="shared" ref="P16" si="16">D52</f>
         <v>6.4128256513026102E-2</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="30">
         <f t="shared" ref="Q16" si="17">E52</f>
         <v>9461.8664297656105</v>
       </c>
-      <c r="R16" s="40">
+      <c r="R16" s="29">
         <f t="shared" ref="R16" si="18">C64</f>
         <v>4.4176706827308801E-2</v>
       </c>
-      <c r="S16" s="40">
+      <c r="S16" s="29">
         <f t="shared" ref="S16" si="19">D64</f>
         <v>8.2329317269076094E-2</v>
       </c>
-      <c r="T16" s="41">
+      <c r="T16" s="30">
         <f t="shared" ref="T16" si="20">E64</f>
         <v>8056.3464146341503</v>
       </c>
@@ -11016,39 +11016,39 @@
         <f t="shared" ref="K17:N24" si="21">B41</f>
         <v>-2.5</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="29">
         <f t="shared" si="21"/>
         <v>4.3599999999999903E-2</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="29">
         <f t="shared" si="21"/>
         <v>1.2000000000000101E-2</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="30">
         <f t="shared" si="21"/>
         <v>678.20833333340499</v>
       </c>
-      <c r="O17" s="40">
+      <c r="O17" s="29">
         <f t="shared" ref="O17:Q24" si="22">C53</f>
         <v>4.3617446978791503E-2</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="29">
         <f t="shared" si="22"/>
         <v>1.48059223689475E-2</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="30">
         <f t="shared" si="22"/>
         <v>4339.31087837823</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="29">
         <f t="shared" ref="R17:T24" si="23">C65</f>
         <v>4.2834267413931197E-2</v>
       </c>
-      <c r="S17" s="40">
+      <c r="S17" s="29">
         <f t="shared" si="23"/>
         <v>1.32105684547637E-2</v>
       </c>
-      <c r="T17" s="41">
+      <c r="T17" s="30">
         <f t="shared" si="23"/>
         <v>3650.33496969711</v>
       </c>
@@ -11073,39 +11073,39 @@
         <f t="shared" si="21"/>
         <v>1.25</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="29">
         <f t="shared" si="21"/>
         <v>4.3096568236233201E-2</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="29">
         <f t="shared" si="21"/>
         <v>1.5961691939345501E-2</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="30">
         <f t="shared" si="21"/>
         <v>497.44115662497001</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="29">
         <f t="shared" si="22"/>
         <v>4.31309904153356E-2</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="29">
         <f t="shared" si="22"/>
         <v>1.9968051118210699E-2</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="30">
         <f t="shared" si="22"/>
         <v>2243.4839651999901</v>
       </c>
-      <c r="R18" s="40">
+      <c r="R18" s="29">
         <f t="shared" si="23"/>
         <v>4.3165467625899401E-2</v>
       </c>
-      <c r="S18" s="40">
+      <c r="S18" s="29">
         <f t="shared" si="23"/>
         <v>1.6786570743405199E-2</v>
       </c>
-      <c r="T18" s="41">
+      <c r="T18" s="30">
         <f t="shared" si="23"/>
         <v>2288.9427857143401</v>
       </c>
@@ -11130,39 +11130,39 @@
         <f t="shared" si="21"/>
         <v>-5</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="29">
         <f t="shared" si="21"/>
         <v>4.2191561687662402E-2</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M19" s="29">
         <f t="shared" si="21"/>
         <v>1.0997800439911999E-2</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="30">
         <f t="shared" si="21"/>
         <v>867.49164545446604</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="29">
         <f t="shared" si="22"/>
         <v>4.2208441688337602E-2</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="29">
         <f t="shared" si="22"/>
         <v>1.3002600520103999E-2</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="30">
         <f t="shared" si="22"/>
         <v>4491.2936769614198</v>
       </c>
-      <c r="R19" s="40">
+      <c r="R19" s="29">
         <f t="shared" si="23"/>
         <v>4.1608321664332801E-2</v>
       </c>
-      <c r="S19" s="40">
+      <c r="S19" s="29">
         <f t="shared" si="23"/>
         <v>1.28025605121024E-2</v>
       </c>
-      <c r="T19" s="41">
+      <c r="T19" s="30">
         <f t="shared" si="23"/>
         <v>4370.0437851564702</v>
       </c>
@@ -11187,39 +11187,39 @@
         <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="29">
         <f t="shared" si="21"/>
         <v>4.1932907348242801E-2</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="29">
         <f t="shared" si="21"/>
         <v>1.7571884984025499E-2</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="30">
         <f t="shared" si="21"/>
         <v>917.03309090896198</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="29">
         <f t="shared" si="22"/>
         <v>4.19496604075109E-2</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="29">
         <f t="shared" si="22"/>
         <v>1.9176987614862102E-2</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="30">
         <f t="shared" si="22"/>
         <v>2133.9378645833599</v>
       </c>
-      <c r="R20" s="40">
+      <c r="R20" s="29">
         <f t="shared" si="23"/>
         <v>4.1583366653338699E-2</v>
       </c>
-      <c r="S20" s="40">
+      <c r="S20" s="29">
         <f t="shared" si="23"/>
         <v>1.6793282686925301E-2</v>
       </c>
-      <c r="T20" s="41">
+      <c r="T20" s="30">
         <f t="shared" si="23"/>
         <v>3373.2832976191999</v>
       </c>
@@ -11244,39 +11244,39 @@
         <f t="shared" si="21"/>
         <v>-10</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="29">
         <f t="shared" si="21"/>
         <v>3.8896110388961E-2</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="29">
         <f t="shared" si="21"/>
         <v>1.08989101089891E-2</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="30">
         <f t="shared" si="21"/>
         <v>2045.20449999991</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="29">
         <f t="shared" si="22"/>
         <v>3.88999999999999E-2</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="29">
         <f t="shared" si="22"/>
         <v>1.14E-2</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="30">
         <f t="shared" si="22"/>
         <v>4738.9035087721704</v>
       </c>
-      <c r="R21" s="40">
+      <c r="R21" s="29">
         <f t="shared" si="23"/>
         <v>3.8699999999999901E-2</v>
       </c>
-      <c r="S21" s="40">
+      <c r="S21" s="29">
         <f t="shared" si="23"/>
         <v>1.2099999999999901E-2</v>
       </c>
-      <c r="T21" s="41">
+      <c r="T21" s="30">
         <f t="shared" si="23"/>
         <v>5849.00826446259</v>
       </c>
@@ -11301,39 +11301,39 @@
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="29">
         <f t="shared" si="21"/>
         <v>4.0219835123657198E-2</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="29">
         <f t="shared" si="21"/>
         <v>1.79865101174119E-2</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="30">
         <f t="shared" si="21"/>
         <v>947.37666666671396</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="29">
         <f t="shared" si="22"/>
         <v>4.0229885057471201E-2</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="29">
         <f t="shared" si="22"/>
         <v>1.9740129935032401E-2</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="30">
         <f t="shared" si="22"/>
         <v>2517.5872784811199</v>
       </c>
-      <c r="R22" s="40">
+      <c r="R22" s="29">
         <f t="shared" si="23"/>
         <v>3.9740064983754098E-2</v>
       </c>
-      <c r="S22" s="40">
+      <c r="S22" s="29">
         <f t="shared" si="23"/>
         <v>1.7495626093476501E-2</v>
       </c>
-      <c r="T22" s="41">
+      <c r="T22" s="30">
         <f t="shared" si="23"/>
         <v>3410.70960714289</v>
       </c>
@@ -11355,39 +11355,39 @@
         <f t="shared" si="21"/>
         <v>-20</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="29">
         <f t="shared" si="21"/>
         <v>3.41982900854957E-2</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="29">
         <f t="shared" si="21"/>
         <v>1.0199490025498701E-2</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="30">
         <f t="shared" si="21"/>
         <v>2053.8281764706098</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="29">
         <f t="shared" si="22"/>
         <v>3.4201710085504197E-2</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="29">
         <f t="shared" si="22"/>
         <v>1.0650532526626301E-2</v>
       </c>
-      <c r="Q23" s="41">
+      <c r="Q23" s="30">
         <f t="shared" si="22"/>
         <v>6314.0504788731896</v>
       </c>
-      <c r="R23" s="40">
+      <c r="R23" s="29">
         <f t="shared" si="23"/>
         <v>3.4451722586129302E-2</v>
       </c>
-      <c r="S23" s="40">
+      <c r="S23" s="29">
         <f t="shared" si="23"/>
         <v>1.1600580029001399E-2</v>
       </c>
-      <c r="T23" s="41">
+      <c r="T23" s="30">
         <f t="shared" si="23"/>
         <v>6083.5751163793302</v>
       </c>
@@ -11412,39 +11412,39 @@
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="29">
         <f t="shared" si="21"/>
         <v>3.7962037962038002E-2</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="29">
         <f t="shared" si="21"/>
         <v>2.0229770229770301E-2</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="30">
         <f t="shared" si="21"/>
         <v>587.74765432095603</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="29">
         <f t="shared" si="22"/>
         <v>3.7990502374406397E-2</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="29">
         <f t="shared" si="22"/>
         <v>2.4743814046488399E-2</v>
       </c>
-      <c r="Q24" s="41">
+      <c r="Q24" s="30">
         <f t="shared" si="22"/>
         <v>2678.38670204545</v>
       </c>
-      <c r="R24" s="40">
+      <c r="R24" s="29">
         <f t="shared" si="23"/>
         <v>3.7740564858785297E-2</v>
       </c>
-      <c r="S24" s="40">
+      <c r="S24" s="29">
         <f t="shared" si="23"/>
         <v>2.1994501374656202E-2</v>
       </c>
-      <c r="T24" s="41">
+      <c r="T24" s="30">
         <f t="shared" si="23"/>
         <v>2593.7391818183</v>
       </c>
@@ -11469,18 +11469,18 @@
         <f>B74</f>
         <v>SOC</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="37">
         <f>C74</f>
         <v>0.30000000000000016</v>
       </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="28">
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="36">
         <f>C86</f>
         <v>0.20000000000000015</v>
       </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
@@ -11533,30 +11533,30 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="8"/>
-      <c r="K28" s="39">
+      <c r="K28" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="29">
         <f t="shared" ref="L28" si="24">C76</f>
         <v>4.8096192384769497E-2</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="29">
         <f t="shared" ref="M28" si="25">D76</f>
         <v>0.108216432865731</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="30">
         <f t="shared" ref="N28" si="26">E76</f>
         <v>6004.3930740741298</v>
       </c>
-      <c r="O28" s="40">
+      <c r="O28" s="29">
         <f t="shared" ref="O28" si="27">C88</f>
         <v>5.2104208416833199E-2</v>
       </c>
-      <c r="P28" s="40">
+      <c r="P28" s="29">
         <f t="shared" ref="P28" si="28">D88</f>
         <v>0.10420841683366699</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="30">
         <f t="shared" ref="Q28" si="29">E88</f>
         <v>6081.7880096154004</v>
       </c>
@@ -11581,27 +11581,27 @@
         <f t="shared" ref="K29:N36" si="30">B77</f>
         <v>-2.5</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="29">
         <f t="shared" si="30"/>
         <v>4.7218887555021898E-2</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="29">
         <f t="shared" si="30"/>
         <v>1.8407362945178099E-2</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="30">
         <f t="shared" si="30"/>
         <v>2398.3880869565601</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O29" s="29">
         <f t="shared" ref="O29:Q36" si="31">C89</f>
         <v>5.00400320256204E-2</v>
       </c>
-      <c r="P29" s="40">
+      <c r="P29" s="29">
         <f t="shared" si="31"/>
         <v>3.1224979983987301E-2</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="30">
         <f t="shared" si="31"/>
         <v>1658.0474999999601</v>
       </c>
@@ -11626,27 +11626,27 @@
         <f t="shared" si="30"/>
         <v>1.25</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="29">
         <f t="shared" si="30"/>
         <v>4.6325878594248998E-2</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="29">
         <f t="shared" si="30"/>
         <v>1.9968051118211101E-2</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="30">
         <f t="shared" si="30"/>
         <v>1648.7838400001001</v>
       </c>
-      <c r="O30" s="40">
+      <c r="O30" s="29">
         <f t="shared" si="31"/>
         <v>4.8760991207034303E-2</v>
       </c>
-      <c r="P30" s="40">
+      <c r="P30" s="29">
         <f t="shared" si="31"/>
         <v>2.7178257394084498E-2</v>
       </c>
-      <c r="Q30" s="41">
+      <c r="Q30" s="30">
         <f t="shared" si="31"/>
         <v>1664.8786323530001</v>
       </c>
@@ -11671,27 +11671,27 @@
         <f t="shared" si="30"/>
         <v>-5</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="29">
         <f t="shared" si="30"/>
         <v>4.5809161832366399E-2</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="29">
         <f t="shared" si="30"/>
         <v>1.88037607521504E-2</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="30">
         <f t="shared" si="30"/>
         <v>2472.8298031915601</v>
       </c>
-      <c r="O31" s="40">
+      <c r="O31" s="29">
         <f t="shared" si="31"/>
         <v>4.7209441888377598E-2</v>
       </c>
-      <c r="P31" s="40">
+      <c r="P31" s="29">
         <f t="shared" si="31"/>
         <v>2.9805961192238401E-2</v>
       </c>
-      <c r="Q31" s="41">
+      <c r="Q31" s="30">
         <f t="shared" si="31"/>
         <v>2156.3974932886899</v>
       </c>
@@ -11716,27 +11716,27 @@
         <f t="shared" si="30"/>
         <v>2.5</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="29">
         <f t="shared" si="30"/>
         <v>4.5163868904876198E-2</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="29">
         <f t="shared" si="30"/>
         <v>1.9184652278177301E-2</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="30">
         <f t="shared" si="30"/>
         <v>2277.7843125003201</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O32" s="29">
         <f t="shared" si="31"/>
         <v>4.6781287485005901E-2</v>
       </c>
-      <c r="P32" s="40">
+      <c r="P32" s="29">
         <f t="shared" si="31"/>
         <v>2.35905637744902E-2</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="30">
         <f t="shared" si="31"/>
         <v>2584.6351355931301</v>
       </c>
@@ -11758,27 +11758,27 @@
         <f t="shared" si="30"/>
         <v>-10</v>
       </c>
-      <c r="L33" s="40">
+      <c r="L33" s="29">
         <f t="shared" si="30"/>
         <v>4.17083416683336E-2</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="29">
         <f t="shared" si="30"/>
         <v>1.8403680736147201E-2</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="30">
         <f t="shared" si="30"/>
         <v>3237.04267934775</v>
       </c>
-      <c r="O33" s="40">
+      <c r="O33" s="29">
         <f t="shared" si="31"/>
         <v>4.2404240424042297E-2</v>
       </c>
-      <c r="P33" s="40">
+      <c r="P33" s="29">
         <f t="shared" si="31"/>
         <v>2.8502850285028501E-2</v>
       </c>
-      <c r="Q33" s="41">
+      <c r="Q33" s="30">
         <f t="shared" si="31"/>
         <v>2166.3798315791801</v>
       </c>
@@ -11803,27 +11803,27 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="29">
         <f t="shared" si="30"/>
         <v>4.3239190202449297E-2</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="29">
         <f t="shared" si="30"/>
         <v>1.9495126218445302E-2</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="30">
         <f t="shared" si="30"/>
         <v>3536.67882051265</v>
       </c>
-      <c r="O34" s="40">
+      <c r="O34" s="29">
         <f t="shared" si="31"/>
         <v>4.3739065233691601E-2</v>
       </c>
-      <c r="P34" s="40">
+      <c r="P34" s="29">
         <f t="shared" si="31"/>
         <v>2.1744563859035101E-2</v>
       </c>
-      <c r="Q34" s="41">
+      <c r="Q34" s="30">
         <f t="shared" si="31"/>
         <v>2919.0284252876099</v>
       </c>
@@ -11848,27 +11848,27 @@
         <f t="shared" si="30"/>
         <v>-20</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="29">
         <f t="shared" si="30"/>
         <v>3.2749999999999897E-2</v>
       </c>
-      <c r="M35" s="40">
+      <c r="M35" s="29">
         <f t="shared" si="30"/>
         <v>2.24E-2</v>
       </c>
-      <c r="N35" s="41">
+      <c r="N35" s="30">
         <f t="shared" si="30"/>
         <v>80653.783482142797</v>
       </c>
-      <c r="O35" s="40" t="str">
+      <c r="O35" s="29" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
       </c>
-      <c r="P35" s="40" t="str">
+      <c r="P35" s="29" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
       </c>
-      <c r="Q35" s="41" t="str">
+      <c r="Q35" s="30" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
       </c>
@@ -11893,27 +11893,27 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="29">
         <f t="shared" si="30"/>
         <v>4.2739315171207097E-2</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="29">
         <f t="shared" si="30"/>
         <v>2.4493876530867299E-2</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N36" s="30">
         <f t="shared" si="30"/>
         <v>2893.4987040816</v>
       </c>
-      <c r="O36" s="40" t="str">
+      <c r="O36" s="29" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
       </c>
-      <c r="P36" s="40" t="str">
+      <c r="P36" s="29" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
       </c>
-      <c r="Q36" s="41" t="str">
+      <c r="Q36" s="30" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
       </c>
@@ -12814,24 +12814,24 @@
         <f>B2</f>
         <v>SOC</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="37">
         <f t="shared" ref="J2:L11" si="0">C2</f>
         <v>0.9</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37">
         <f>C13</f>
         <v>0.8</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37">
         <f>C24</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -13489,24 +13489,24 @@
         <f>B35</f>
         <v>SOC</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="37">
         <f>C35</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="28">
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="36">
         <f>C46</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28">
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36">
         <f>C57</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -13996,18 +13996,18 @@
         <f>B68</f>
         <v>SOC</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="37">
         <f>C68</f>
         <v>0.30000000000000016</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="28">
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="36">
         <f>C79</f>
         <v>0.20000000000000015</v>
       </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -15086,37 +15086,37 @@
         <f>B2</f>
         <v>SOC</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="37">
         <f>C2</f>
         <v>0.9</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37">
         <f>C14</f>
         <v>0.8</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37">
         <f>C26</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="24"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
@@ -15269,42 +15269,42 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="39">
+      <c r="K4" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="29">
         <f t="shared" ref="L4" si="0">C4</f>
         <v>1.9999999999999501E-2</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="29">
         <f t="shared" ref="M4" si="1">D4</f>
         <v>4.0000000000000903E-2</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="30">
         <f t="shared" ref="N4" si="2">E4</f>
         <v>613.075031249988</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="29">
         <f t="shared" ref="O4" si="3">C16</f>
         <v>2.0040080160321098E-2</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="29">
         <f t="shared" ref="P4" si="4">D16</f>
         <v>4.0080160320641302E-2</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="30">
         <f t="shared" ref="Q4" si="5">E16</f>
         <v>1759.5613249999999</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="29">
         <f t="shared" ref="R4" si="6">C28</f>
         <v>2.0080321285140999E-2</v>
       </c>
-      <c r="S4" s="40">
+      <c r="S4" s="29">
         <f t="shared" ref="S4" si="7">D28</f>
         <v>6.0240963855421201E-2</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="30">
         <f t="shared" ref="T4" si="8">E28</f>
         <v>1170.69009999999</v>
       </c>
@@ -15382,39 +15382,39 @@
         <f t="shared" ref="K5:N12" si="9">B5</f>
         <v>-2.5</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="29">
         <f t="shared" si="9"/>
         <v>2.3999999999999799E-2</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="29">
         <f t="shared" si="9"/>
         <v>8.0000000000001806E-3</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="30">
         <f t="shared" si="9"/>
         <v>802.93749999996601</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="29">
         <f t="shared" ref="O5:Q12" si="10">C17</f>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="29">
         <f t="shared" si="10"/>
         <v>1.2000000000000101E-2</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="30">
         <f t="shared" si="10"/>
         <v>1941.5416666665601</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="29">
         <f t="shared" ref="R5:T12" si="11">C29</f>
         <v>2.0000000000000101E-2</v>
       </c>
-      <c r="S5" s="40">
+      <c r="S5" s="29">
         <f t="shared" si="11"/>
         <v>1.19999999999999E-2</v>
       </c>
-      <c r="T5" s="41">
+      <c r="T5" s="30">
         <f t="shared" si="11"/>
         <v>1735.2502083332899</v>
       </c>
@@ -15491,39 +15491,39 @@
         <f t="shared" si="9"/>
         <v>1.25</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="29">
         <f t="shared" si="9"/>
         <v>1.6000000000000299E-2</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="29">
         <f t="shared" si="9"/>
         <v>1.5999999999999601E-2</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="30">
         <f t="shared" si="9"/>
         <v>560.81250000000898</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="29">
         <f t="shared" si="10"/>
         <v>1.6000000000000299E-2</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="29">
         <f t="shared" si="10"/>
         <v>1.5999999999999601E-2</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="30">
         <f t="shared" si="10"/>
         <v>471.75000000005201</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="29">
         <f t="shared" si="11"/>
         <v>1.6E-2</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="29">
         <f t="shared" si="11"/>
         <v>1.6E-2</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="30">
         <f t="shared" si="11"/>
         <v>763.93749999999602</v>
       </c>
@@ -15598,39 +15598,39 @@
         <f t="shared" si="9"/>
         <v>-5</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="29">
         <f t="shared" si="9"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="29">
         <f t="shared" si="9"/>
         <v>1.0000000000000101E-2</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="30">
         <f t="shared" si="9"/>
         <v>1429.8999999999701</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="29">
         <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="29">
         <f t="shared" si="10"/>
         <v>9.9999999999999603E-3</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="30">
         <f t="shared" si="10"/>
         <v>1067.3499999999001</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="29">
         <f t="shared" si="11"/>
         <v>1.7999999999999901E-2</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="29">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="30">
         <f t="shared" si="11"/>
         <v>1119.7999999998401</v>
       </c>
@@ -15666,39 +15666,39 @@
         <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="29">
         <f t="shared" si="9"/>
         <v>2.0000000000000202E-2</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="29">
         <f t="shared" si="9"/>
         <v>1.19999999999997E-2</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="30">
         <f t="shared" si="9"/>
         <v>1493.62520833334</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="29">
         <f t="shared" si="10"/>
         <v>2.0000000000000202E-2</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="29">
         <f t="shared" si="10"/>
         <v>1.19999999999997E-2</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="30">
         <f t="shared" si="10"/>
         <v>1391.50000000005</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="29">
         <f t="shared" si="11"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="29">
         <f t="shared" si="11"/>
         <v>1.2000000000000101E-2</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="30">
         <f t="shared" si="11"/>
         <v>2385.2916666666201</v>
       </c>
@@ -15734,39 +15734,39 @@
         <f t="shared" si="9"/>
         <v>-10</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="29">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="29">
         <f t="shared" si="9"/>
         <v>9.0000000000000201E-3</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="30">
         <f t="shared" si="9"/>
         <v>4274.7777777777501</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="29">
         <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="29">
         <f t="shared" si="10"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="30">
         <f t="shared" si="10"/>
         <v>1943.5624999998599</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="29">
         <f t="shared" si="11"/>
         <v>1.8999999999999899E-2</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="29">
         <f t="shared" si="11"/>
         <v>9.0000000000000201E-3</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="30">
         <f t="shared" si="11"/>
         <v>4769.3330555555403</v>
       </c>
@@ -15802,39 +15802,39 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="29">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="29">
         <f t="shared" si="9"/>
         <v>1.24999999999999E-2</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="30">
         <f t="shared" si="9"/>
         <v>2911.8000000000102</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="29">
         <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="29">
         <f t="shared" si="10"/>
         <v>1.24999999999999E-2</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="30">
         <f t="shared" si="10"/>
         <v>2459.8399999999701</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="29">
         <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="29">
         <f t="shared" si="11"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="30">
         <f t="shared" si="11"/>
         <v>5529.7997999998597</v>
       </c>
@@ -15870,39 +15870,39 @@
         <f t="shared" si="9"/>
         <v>-20</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="29">
         <f t="shared" si="9"/>
         <v>1.8999999999999899E-2</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="29">
         <f t="shared" si="9"/>
         <v>7.9999999999999793E-3</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="30">
         <f t="shared" si="9"/>
         <v>3318.56249999999</v>
       </c>
-      <c r="O11" s="40">
+      <c r="O11" s="29">
         <f t="shared" si="10"/>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="29">
         <f t="shared" si="10"/>
         <v>7.4999999999999902E-3</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="30">
         <f t="shared" si="10"/>
         <v>4646.3333333333103</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="29">
         <f t="shared" si="11"/>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="S11" s="40">
+      <c r="S11" s="29">
         <f t="shared" si="11"/>
         <v>7.4999999999999902E-3</v>
       </c>
-      <c r="T11" s="41">
+      <c r="T11" s="30">
         <f t="shared" si="11"/>
         <v>9463.0666666666602</v>
       </c>
@@ -15938,39 +15938,39 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="29">
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="29">
         <f t="shared" si="9"/>
         <v>1.24999999999999E-2</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="30">
         <f t="shared" si="9"/>
         <v>795.83999999995501</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="29">
         <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="29">
         <f t="shared" si="10"/>
         <v>1.4999999999999901E-2</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="30">
         <f t="shared" si="10"/>
         <v>3998.23333333336</v>
       </c>
-      <c r="R12" s="40">
+      <c r="R12" s="29">
         <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
-      <c r="S12" s="40">
+      <c r="S12" s="29">
         <f t="shared" si="11"/>
         <v>1.24999999999999E-2</v>
       </c>
-      <c r="T12" s="41">
+      <c r="T12" s="30">
         <f t="shared" si="11"/>
         <v>865.840000000028</v>
       </c>
@@ -16004,34 +16004,34 @@
         <f>B38</f>
         <v>SOC</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="37">
         <f>C38</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="28">
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="36">
         <f>C50</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28">
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36">
         <f>C62</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
       <c r="Y14" s="24"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
     </row>
     <row r="15" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -16105,42 +16105,42 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="8"/>
-      <c r="K16" s="39">
+      <c r="K16" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="29">
         <f t="shared" ref="L16" si="12">C40</f>
         <v>2.0040080160321098E-2</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="29">
         <f t="shared" ref="M16" si="13">D40</f>
         <v>8.0160320641282604E-2</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="30">
         <f t="shared" ref="N16" si="14">E40</f>
         <v>5249.1494124999799</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="29">
         <f t="shared" ref="O16" si="15">C52</f>
         <v>2.00400801603202E-2</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="29">
         <f t="shared" ref="P16" si="16">D52</f>
         <v>2.0040080160321098E-2</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="30">
         <f t="shared" ref="Q16" si="17">E52</f>
         <v>624.92265000013299</v>
       </c>
-      <c r="R16" s="40">
+      <c r="R16" s="29">
         <f t="shared" ref="R16" si="18">C64</f>
         <v>2.0040080160321098E-2</v>
       </c>
-      <c r="S16" s="40">
+      <c r="S16" s="29">
         <f t="shared" ref="S16" si="19">D64</f>
         <v>4.0080160320641302E-2</v>
       </c>
-      <c r="T16" s="41">
+      <c r="T16" s="30">
         <f t="shared" ref="T16" si="20">E64</f>
         <v>711.64884999993399</v>
       </c>
@@ -16176,39 +16176,39 @@
         <f t="shared" ref="K17:N24" si="21">B41</f>
         <v>-2.5</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="29">
         <f t="shared" si="21"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="29">
         <f t="shared" si="21"/>
         <v>1.2000000000000101E-2</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="30">
         <f t="shared" si="21"/>
         <v>1320.7083333333201</v>
       </c>
-      <c r="O17" s="40">
+      <c r="O17" s="29">
         <f t="shared" ref="O17:Q24" si="22">C53</f>
         <v>2.0000000000000101E-2</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="29">
         <f t="shared" si="22"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="30">
         <f t="shared" si="22"/>
         <v>671.68750000018804</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="29">
         <f t="shared" ref="R17:T24" si="23">C65</f>
         <v>2.0000000000000101E-2</v>
       </c>
-      <c r="S17" s="40">
+      <c r="S17" s="29">
         <f t="shared" si="23"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T17" s="41">
+      <c r="T17" s="30">
         <f t="shared" si="23"/>
         <v>459.12499999985698</v>
       </c>
@@ -16244,39 +16244,39 @@
         <f t="shared" si="21"/>
         <v>1.25</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="29">
         <f t="shared" si="21"/>
         <v>2.3999999999999799E-2</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="29">
         <f t="shared" si="21"/>
         <v>8.0000000000001806E-3</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="30">
         <f t="shared" si="21"/>
         <v>205.93718749978001</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="29">
         <f t="shared" si="22"/>
         <v>1.6E-2</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="29">
         <f t="shared" si="22"/>
         <v>1.6E-2</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="30">
         <f t="shared" si="22"/>
         <v>671.78124999986596</v>
       </c>
-      <c r="R18" s="40">
+      <c r="R18" s="29">
         <f t="shared" si="23"/>
         <v>1.6E-2</v>
       </c>
-      <c r="S18" s="40">
+      <c r="S18" s="29">
         <f t="shared" si="23"/>
         <v>1.6E-2</v>
       </c>
-      <c r="T18" s="41">
+      <c r="T18" s="30">
         <f t="shared" si="23"/>
         <v>1835.78125000008</v>
       </c>
@@ -16312,39 +16312,39 @@
         <f t="shared" si="21"/>
         <v>-5</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="29">
         <f t="shared" si="21"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M19" s="29">
         <f t="shared" si="21"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="30">
         <f t="shared" si="21"/>
         <v>1496.7500000002401</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="29">
         <f t="shared" si="22"/>
         <v>0.02</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="29">
         <f t="shared" si="22"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="30">
         <f t="shared" si="22"/>
         <v>2459.18750000009</v>
       </c>
-      <c r="R19" s="40">
+      <c r="R19" s="29">
         <f t="shared" si="23"/>
         <v>0.02</v>
       </c>
-      <c r="S19" s="40">
+      <c r="S19" s="29">
         <f t="shared" si="23"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T19" s="41">
+      <c r="T19" s="30">
         <f t="shared" si="23"/>
         <v>1696.5624999997899</v>
       </c>
@@ -16370,39 +16370,39 @@
         <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="29">
         <f t="shared" si="21"/>
         <v>1.6E-2</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="29">
         <f t="shared" si="21"/>
         <v>1.2000000000000101E-2</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="30">
         <f t="shared" si="21"/>
         <v>539.41666666680999</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="29">
         <f t="shared" si="22"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="29">
         <f t="shared" si="22"/>
         <v>1.19999999999999E-2</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="30">
         <f t="shared" si="22"/>
         <v>1929.0000000001</v>
       </c>
-      <c r="R20" s="40">
+      <c r="R20" s="29">
         <f t="shared" si="23"/>
         <v>2.0000000000000101E-2</v>
       </c>
-      <c r="S20" s="40">
+      <c r="S20" s="29">
         <f t="shared" si="23"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T20" s="41">
+      <c r="T20" s="30">
         <f t="shared" si="23"/>
         <v>415.37500000003899</v>
       </c>
@@ -16428,39 +16428,39 @@
         <f t="shared" si="21"/>
         <v>-10</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="29">
         <f t="shared" si="21"/>
         <v>0.02</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="29">
         <f t="shared" si="21"/>
         <v>6.9999999999999802E-3</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="30">
         <f t="shared" si="21"/>
         <v>3367.64285714266</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="29">
         <f t="shared" si="22"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="29">
         <f t="shared" si="22"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="30">
         <f t="shared" si="22"/>
         <v>1878.8333333334999</v>
       </c>
-      <c r="R21" s="40">
+      <c r="R21" s="29">
         <f t="shared" si="23"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="S21" s="40">
+      <c r="S21" s="29">
         <f t="shared" si="23"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="T21" s="41">
+      <c r="T21" s="30">
         <f t="shared" si="23"/>
         <v>1653.75000000009</v>
       </c>
@@ -16486,39 +16486,39 @@
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="29">
         <f t="shared" si="21"/>
         <v>0.02</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="29">
         <f t="shared" si="21"/>
         <v>0.01</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="30">
         <f t="shared" si="21"/>
         <v>1217.30024999996</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="29">
         <f t="shared" si="22"/>
         <v>1.7499999999999901E-2</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="29">
         <f t="shared" si="22"/>
         <v>1.24999999999999E-2</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="30">
         <f t="shared" si="22"/>
         <v>4377.91999999988</v>
       </c>
-      <c r="R22" s="40">
+      <c r="R22" s="29">
         <f t="shared" si="23"/>
         <v>0.02</v>
       </c>
-      <c r="S22" s="40">
+      <c r="S22" s="29">
         <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
-      <c r="T22" s="41">
+      <c r="T22" s="30">
         <f t="shared" si="23"/>
         <v>764.84999999993204</v>
       </c>
@@ -16541,39 +16541,39 @@
         <f t="shared" si="21"/>
         <v>-20</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="29">
         <f t="shared" si="21"/>
         <v>1.8999999999999899E-2</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="29">
         <f t="shared" si="21"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="30">
         <f t="shared" si="21"/>
         <v>3166.4166666663</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="29">
         <f t="shared" si="22"/>
         <v>1.95E-2</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="29">
         <f t="shared" si="22"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="Q23" s="41">
+      <c r="Q23" s="30">
         <f t="shared" si="22"/>
         <v>2383.1666666665001</v>
       </c>
-      <c r="R23" s="40">
+      <c r="R23" s="29">
         <f t="shared" si="23"/>
         <v>1.95E-2</v>
       </c>
-      <c r="S23" s="40">
+      <c r="S23" s="29">
         <f t="shared" si="23"/>
         <v>6.4999999999999902E-3</v>
       </c>
-      <c r="T23" s="41">
+      <c r="T23" s="30">
         <f t="shared" si="23"/>
         <v>5257.3076923077797</v>
       </c>
@@ -16599,39 +16599,39 @@
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="29">
         <f t="shared" si="21"/>
         <v>0.02</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="29">
         <f t="shared" si="21"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="30">
         <f t="shared" si="21"/>
         <v>1483.79979999997</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="29">
         <f t="shared" si="22"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="29">
         <f t="shared" si="22"/>
         <v>1.24999999999999E-2</v>
       </c>
-      <c r="Q24" s="41">
+      <c r="Q24" s="30">
         <f t="shared" si="22"/>
         <v>761.83999999979505</v>
       </c>
-      <c r="R24" s="40">
+      <c r="R24" s="29">
         <f t="shared" si="23"/>
         <v>1.7499999999999901E-2</v>
       </c>
-      <c r="S24" s="40">
+      <c r="S24" s="29">
         <f t="shared" si="23"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="T24" s="41">
+      <c r="T24" s="30">
         <f t="shared" si="23"/>
         <v>1041.7999999999199</v>
       </c>
@@ -16658,24 +16658,24 @@
         <f>B74</f>
         <v>SOC</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="37">
         <f>C74</f>
         <v>0.30000000000000016</v>
       </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="28">
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="36">
         <f>C86</f>
         <v>0.20000000000000015</v>
       </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
@@ -16730,30 +16730,30 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="8"/>
-      <c r="K28" s="39">
+      <c r="K28" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="29">
         <f t="shared" ref="L28" si="24">C76</f>
         <v>2.00400801603202E-2</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="29">
         <f t="shared" ref="M28" si="25">D76</f>
         <v>4.0080160320641302E-2</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="30">
         <f t="shared" ref="N28" si="26">E76</f>
         <v>1304.21135000002</v>
       </c>
-      <c r="O28" s="40">
+      <c r="O28" s="29">
         <f t="shared" ref="O28" si="27">C88</f>
         <v>2.0040080160321098E-2</v>
       </c>
-      <c r="P28" s="40">
+      <c r="P28" s="29">
         <f t="shared" ref="P28" si="28">D88</f>
         <v>4.0080160320641302E-2</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="30">
         <f t="shared" ref="Q28" si="29">E88</f>
         <v>1740.83635000002</v>
       </c>
@@ -16779,27 +16779,27 @@
         <f t="shared" ref="K29:N36" si="30">B77</f>
         <v>-2.5</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="29">
         <f t="shared" si="30"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="29">
         <f t="shared" si="30"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="30">
         <f t="shared" si="30"/>
         <v>365.43749999964302</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O29" s="29">
         <f t="shared" ref="O29:Q36" si="31">C89</f>
         <v>2.4E-2</v>
       </c>
-      <c r="P29" s="40">
+      <c r="P29" s="29">
         <f t="shared" si="31"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="30">
         <f t="shared" si="31"/>
         <v>1315.3750000001201</v>
       </c>
@@ -16825,27 +16825,27 @@
         <f t="shared" si="30"/>
         <v>1.25</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="29">
         <f t="shared" si="30"/>
         <v>1.6E-2</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="29">
         <f t="shared" si="30"/>
         <v>7.9999999999998302E-3</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="30">
         <f t="shared" si="30"/>
         <v>87.187499999346997</v>
       </c>
-      <c r="O30" s="40">
+      <c r="O30" s="29">
         <f t="shared" si="31"/>
         <v>1.6E-2</v>
       </c>
-      <c r="P30" s="40">
+      <c r="P30" s="29">
         <f t="shared" si="31"/>
         <v>1.5999999999999601E-2</v>
       </c>
-      <c r="Q30" s="41">
+      <c r="Q30" s="30">
         <f t="shared" si="31"/>
         <v>688.93750000008004</v>
       </c>
@@ -16871,27 +16871,27 @@
         <f t="shared" si="30"/>
         <v>-5</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="29">
         <f t="shared" si="30"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="29">
         <f t="shared" si="30"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="30">
         <f t="shared" si="30"/>
         <v>1793.4999999997599</v>
       </c>
-      <c r="O31" s="40">
+      <c r="O31" s="29">
         <f t="shared" si="31"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P31" s="40">
+      <c r="P31" s="29">
         <f t="shared" si="31"/>
         <v>5.9999999999999602E-3</v>
       </c>
-      <c r="Q31" s="41">
+      <c r="Q31" s="30">
         <f t="shared" si="31"/>
         <v>807.99999999969396</v>
       </c>
@@ -16917,27 +16917,27 @@
         <f t="shared" si="30"/>
         <v>2.5</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="29">
         <f t="shared" si="30"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="29">
         <f t="shared" si="30"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="30">
         <f t="shared" si="30"/>
         <v>609.06249999970805</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O32" s="29">
         <f t="shared" si="31"/>
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="P32" s="40">
+      <c r="P32" s="29">
         <f t="shared" si="31"/>
         <v>1.19999999999999E-2</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="30">
         <f t="shared" si="31"/>
         <v>2776.9583333332298</v>
       </c>
@@ -16960,27 +16960,27 @@
         <f t="shared" si="30"/>
         <v>-10</v>
       </c>
-      <c r="L33" s="40">
+      <c r="L33" s="29">
         <f t="shared" si="30"/>
         <v>2.0999999999999901E-2</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="29">
         <f t="shared" si="30"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="30">
         <f t="shared" si="30"/>
         <v>2041.33333333326</v>
       </c>
-      <c r="O33" s="40">
+      <c r="O33" s="29">
         <f t="shared" si="31"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="P33" s="40">
+      <c r="P33" s="29">
         <f t="shared" si="31"/>
         <v>6.9999999999999802E-3</v>
       </c>
-      <c r="Q33" s="41">
+      <c r="Q33" s="30">
         <f t="shared" si="31"/>
         <v>1953.2857142850301</v>
       </c>
@@ -17006,27 +17006,27 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="29">
         <f t="shared" si="30"/>
         <v>0.02</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="29">
         <f t="shared" si="30"/>
         <v>0.01</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="30">
         <f t="shared" si="30"/>
         <v>1194.79999999966</v>
       </c>
-      <c r="O34" s="40">
+      <c r="O34" s="29">
         <f t="shared" si="31"/>
         <v>0.02</v>
       </c>
-      <c r="P34" s="40">
+      <c r="P34" s="29">
         <f t="shared" si="31"/>
         <v>0.01</v>
       </c>
-      <c r="Q34" s="41">
+      <c r="Q34" s="30">
         <f t="shared" si="31"/>
         <v>839.79999999937604</v>
       </c>
@@ -17052,27 +17052,27 @@
         <f t="shared" si="30"/>
         <v>-20</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="29">
         <f t="shared" si="30"/>
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="M35" s="40">
+      <c r="M35" s="29">
         <f t="shared" si="30"/>
         <v>6.4999999999999902E-3</v>
       </c>
-      <c r="N35" s="41">
+      <c r="N35" s="30">
         <f t="shared" si="30"/>
         <v>2922.8461538452598</v>
       </c>
-      <c r="O35" s="40">
+      <c r="O35" s="29">
         <f t="shared" si="31"/>
         <v>2.2499999999999899E-2</v>
       </c>
-      <c r="P35" s="40">
+      <c r="P35" s="29">
         <f t="shared" si="31"/>
         <v>7.5000000000000197E-3</v>
       </c>
-      <c r="Q35" s="41">
+      <c r="Q35" s="30">
         <f t="shared" si="31"/>
         <v>1979.8</v>
       </c>
@@ -17098,27 +17098,27 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="29">
         <f t="shared" si="30"/>
         <v>0.02</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="29">
         <f t="shared" si="30"/>
         <v>1.24999999999999E-2</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N36" s="30">
         <f t="shared" si="30"/>
         <v>2693.8400000001998</v>
       </c>
-      <c r="O36" s="40">
+      <c r="O36" s="29">
         <f t="shared" si="31"/>
         <v>0.02</v>
       </c>
-      <c r="P36" s="40">
+      <c r="P36" s="29">
         <f t="shared" si="31"/>
         <v>1.24999999999999E-2</v>
       </c>
-      <c r="Q36" s="41">
+      <c r="Q36" s="30">
         <f t="shared" si="31"/>
         <v>1691.7999999999299</v>
       </c>
@@ -18145,15 +18145,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBFC152-2FA3-4EE3-9E9C-4502F7226515}">
-  <dimension ref="B2:BU106"/>
+  <dimension ref="B2:BR106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -18164,37 +18164,37 @@
         <f>B2</f>
         <v>SOC</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="37">
         <f>C2</f>
         <v>0.9</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
         <f>C14</f>
         <v>0.8</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37">
         <f>C26</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
+      <c r="Q2" s="37"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
@@ -18231,11 +18231,8 @@
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-    </row>
-    <row r="3" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -18252,16 +18249,16 @@
         <v>16</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="O3" s="20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P3" s="20" t="s">
         <v>18</v>
@@ -18269,18 +18266,12 @@
       <c r="Q3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
@@ -18288,9 +18279,9 @@
       <c r="AC3" s="25"/>
       <c r="AD3" s="25"/>
       <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -18327,11 +18318,8 @@
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-    </row>
-    <row r="4" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>-0.5</v>
       </c>
@@ -18339,60 +18327,47 @@
         <v>1.9540297174958102E-2</v>
       </c>
       <c r="D4" s="21">
-        <v>4.0000000000000903E-2</v>
+        <v>4.0459702825042299E-2</v>
       </c>
       <c r="E4" s="8">
-        <v>613.075031249988</v>
-      </c>
-      <c r="G4" s="1">
+        <v>606.10927757041395</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="L4" s="29">
+        <f>D4</f>
         <v>4.0459702825042299E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="M4" s="30">
+        <f>E4</f>
         <v>606.10927757041395</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="K4" s="39">
-        <v>-0.5</v>
-      </c>
-      <c r="L4" s="40">
-        <f t="shared" ref="L4:N4" si="0">C4</f>
-        <v>1.9540297174958102E-2</v>
-      </c>
-      <c r="M4" s="40">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000903E-2</v>
-      </c>
-      <c r="N4" s="41">
-        <f t="shared" si="0"/>
-        <v>613.075031249988</v>
-      </c>
-      <c r="O4" s="40">
-        <f t="shared" ref="O4:Q12" si="1">C16</f>
-        <v>2.0040080160321098E-2</v>
-      </c>
-      <c r="P4" s="40">
-        <f t="shared" si="1"/>
-        <v>4.0080160320641302E-2</v>
-      </c>
-      <c r="Q4" s="41">
-        <f t="shared" si="1"/>
-        <v>1759.5613249999999</v>
-      </c>
-      <c r="R4" s="40">
-        <f t="shared" ref="R4:T12" si="2">C28</f>
-        <v>2.0080321285140999E-2</v>
-      </c>
-      <c r="S4" s="40">
-        <f t="shared" si="2"/>
-        <v>6.0240963855421201E-2</v>
-      </c>
-      <c r="T4" s="41">
-        <f t="shared" si="2"/>
-        <v>1170.69009999999</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="N4" s="29">
+        <f>D16</f>
+        <v>4.0579943306004299E-2</v>
+      </c>
+      <c r="O4" s="30">
+        <f>E16</f>
+        <v>1737.8905502207799</v>
+      </c>
+      <c r="P4" s="29">
+        <f>D28</f>
+        <v>6.0780987965604202E-2</v>
+      </c>
+      <c r="Q4" s="30">
+        <f>E28</f>
+        <v>1160.28880675497</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
@@ -18400,9 +18375,9 @@
       <c r="AC4" s="25"/>
       <c r="AD4" s="25"/>
       <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
@@ -18439,84 +18414,69 @@
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1"/>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="1"/>
-    </row>
-    <row r="5" spans="2:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:70" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>-2.5</v>
       </c>
       <c r="C5" s="21">
-        <v>2.3999999999999799E-2</v>
+        <f>$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D5" s="21">
-        <v>8.0000000000001806E-3</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E5" s="8">
-        <v>802.93749999996601</v>
+        <v>515.54199086431697</v>
       </c>
       <c r="F5" s="21"/>
-      <c r="G5" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>515.54199086431697</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="K5" s="11">
-        <f t="shared" ref="K5:N12" si="3">B5</f>
+        <f t="shared" ref="K5:K12" si="0">B5</f>
         <v>-2.5</v>
       </c>
-      <c r="L5" s="40">
-        <f t="shared" si="3"/>
-        <v>2.3999999999999799E-2</v>
-      </c>
-      <c r="M5" s="40">
-        <f t="shared" si="3"/>
-        <v>8.0000000000001806E-3</v>
-      </c>
-      <c r="N5" s="41">
-        <f t="shared" si="3"/>
-        <v>802.93749999996601</v>
-      </c>
-      <c r="O5" s="40">
-        <f t="shared" si="1"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="P5" s="40">
-        <f t="shared" si="1"/>
-        <v>1.2000000000000101E-2</v>
-      </c>
-      <c r="Q5" s="41">
-        <f t="shared" si="1"/>
-        <v>1941.5416666665601</v>
-      </c>
-      <c r="R5" s="40">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000101E-2</v>
-      </c>
-      <c r="S5" s="40">
-        <f t="shared" si="2"/>
-        <v>1.19999999999999E-2</v>
-      </c>
-      <c r="T5" s="41">
-        <f t="shared" si="2"/>
-        <v>1735.2502083332899</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="3"/>
+      <c r="L5" s="29">
+        <f>D5</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="M5" s="30">
+        <f>E5</f>
+        <v>515.54199086431697</v>
+      </c>
+      <c r="N5" s="29">
+        <f>D17</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="O5" s="30">
+        <f>E17</f>
+        <v>1869.90816130645</v>
+      </c>
+      <c r="P5" s="29">
+        <f>D29</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="Q5" s="30">
+        <f>E29</f>
+        <v>1671.22786092045</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="27"/>
       <c r="Z5" s="26"/>
       <c r="AA5" s="26"/>
       <c r="AB5" s="27"/>
       <c r="AC5" s="26"/>
       <c r="AD5" s="26"/>
       <c r="AE5" s="27"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="27"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
@@ -18552,84 +18512,69 @@
       <c r="BP5" s="1"/>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1"/>
-      <c r="BS5" s="1"/>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="1"/>
-    </row>
-    <row r="6" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1.25</v>
       </c>
       <c r="C6" s="21">
-        <v>1.6000000000000299E-2</v>
+        <f t="shared" ref="C6:C12" si="1">$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D6" s="21">
-        <v>1.5999999999999601E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E6" s="8">
-        <v>560.81250000000898</v>
+        <v>720.16163836313297</v>
       </c>
       <c r="F6" s="21"/>
-      <c r="G6" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>720.16163836313297</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="K6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="L6" s="40">
-        <f t="shared" si="3"/>
-        <v>1.6000000000000299E-2</v>
-      </c>
-      <c r="M6" s="40">
-        <f t="shared" si="3"/>
-        <v>1.5999999999999601E-2</v>
-      </c>
-      <c r="N6" s="41">
-        <f t="shared" si="3"/>
-        <v>560.81250000000898</v>
-      </c>
-      <c r="O6" s="40">
-        <f t="shared" si="1"/>
-        <v>1.6000000000000299E-2</v>
-      </c>
-      <c r="P6" s="40">
-        <f t="shared" si="1"/>
-        <v>1.5999999999999601E-2</v>
-      </c>
-      <c r="Q6" s="41">
-        <f t="shared" si="1"/>
-        <v>471.75000000005201</v>
-      </c>
-      <c r="R6" s="40">
-        <f t="shared" si="2"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="S6" s="40">
-        <f t="shared" si="2"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="T6" s="41">
-        <f t="shared" si="2"/>
-        <v>763.93749999999602</v>
-      </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="3"/>
+      <c r="L6" s="29">
+        <f>D6</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="M6" s="30">
+        <f>E6</f>
+        <v>720.16163836313297</v>
+      </c>
+      <c r="N6" s="29">
+        <f>D18</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="O6" s="30">
+        <f>E18</f>
+        <v>605.79293952584896</v>
+      </c>
+      <c r="P6" s="29">
+        <f>D30</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="Q6" s="30">
+        <f>E30</f>
+        <v>981.00253044829901</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="27"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="27"/>
       <c r="AC6" s="26"/>
       <c r="AD6" s="26"/>
       <c r="AE6" s="27"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="27"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -18663,453 +18608,356 @@
       <c r="BN6" s="1"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="1"/>
-      <c r="BS6" s="1"/>
-    </row>
-    <row r="7" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>-5</v>
       </c>
       <c r="C7" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D7" s="21">
-        <v>1.0000000000000101E-2</v>
+        <v>1.0459702825041901E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>1429.8999999999701</v>
+        <v>1367.0560473062501</v>
       </c>
       <c r="F7" s="21"/>
-      <c r="G7" s="1">
-        <v>1.0459702825041901E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1367.0560473062501</v>
-      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="K7" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="L7" s="40">
-        <f t="shared" si="3"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="M7" s="40">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000101E-2</v>
-      </c>
-      <c r="N7" s="41">
-        <f t="shared" si="3"/>
-        <v>1429.8999999999701</v>
-      </c>
-      <c r="O7" s="40">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="P7" s="40">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999603E-3</v>
-      </c>
-      <c r="Q7" s="41">
-        <f t="shared" si="1"/>
-        <v>1067.3499999999001</v>
-      </c>
-      <c r="R7" s="40">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999901E-2</v>
-      </c>
-      <c r="S7" s="40">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="T7" s="41">
-        <f t="shared" si="2"/>
-        <v>1119.7999999998401</v>
-      </c>
-      <c r="Y7" s="3"/>
+      <c r="L7" s="29">
+        <f>D7</f>
+        <v>1.0459702825041901E-2</v>
+      </c>
+      <c r="M7" s="30">
+        <f>E7</f>
+        <v>1367.0560473062501</v>
+      </c>
+      <c r="N7" s="29">
+        <f>D19</f>
+        <v>1.04597028250418E-2</v>
+      </c>
+      <c r="O7" s="30">
+        <f>E19</f>
+        <v>1020.44008118904</v>
+      </c>
+      <c r="P7" s="29">
+        <f>D31</f>
+        <v>8.4597028250419093E-3</v>
+      </c>
+      <c r="Q7" s="30">
+        <f>E31</f>
+        <v>1323.6871591813799</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="27"/>
       <c r="AC7" s="26"/>
       <c r="AD7" s="26"/>
       <c r="AE7" s="27"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="27"/>
-    </row>
-    <row r="8" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2.5</v>
       </c>
       <c r="C8" s="21">
-        <v>2.0000000000000202E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D8" s="21">
-        <v>1.19999999999997E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E8" s="8">
-        <v>1493.62520833334</v>
+        <v>1438.5176558124999</v>
       </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1438.5176558124999</v>
-      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="K8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="L8" s="40">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000202E-2</v>
-      </c>
-      <c r="M8" s="40">
-        <f t="shared" si="3"/>
-        <v>1.19999999999997E-2</v>
-      </c>
-      <c r="N8" s="41">
-        <f t="shared" si="3"/>
-        <v>1493.62520833334</v>
-      </c>
-      <c r="O8" s="40">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000202E-2</v>
-      </c>
-      <c r="P8" s="40">
-        <f t="shared" si="1"/>
-        <v>1.19999999999997E-2</v>
-      </c>
-      <c r="Q8" s="41">
-        <f t="shared" si="1"/>
-        <v>1391.50000000005</v>
-      </c>
-      <c r="R8" s="40">
-        <f t="shared" si="2"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="S8" s="40">
-        <f t="shared" si="2"/>
-        <v>1.2000000000000101E-2</v>
-      </c>
-      <c r="T8" s="41">
-        <f t="shared" si="2"/>
-        <v>2385.2916666666201</v>
-      </c>
-      <c r="Y8" s="3"/>
+      <c r="L8" s="29">
+        <f>D8</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="M8" s="30">
+        <f>E8</f>
+        <v>1438.5176558124999</v>
+      </c>
+      <c r="N8" s="29">
+        <f>D20</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="O8" s="30">
+        <f>E20</f>
+        <v>1340.1603741655899</v>
+      </c>
+      <c r="P8" s="29">
+        <f>D32</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="Q8" s="30">
+        <f>E32</f>
+        <v>2297.28593064605</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="27"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
       <c r="AB8" s="27"/>
       <c r="AC8" s="26"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="27"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="27"/>
-    </row>
-    <row r="9" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>-10</v>
       </c>
       <c r="C9" s="21">
-        <v>0.02</v>
+        <f t="shared" si="1"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D9" s="21">
-        <v>9.0000000000000201E-3</v>
+        <v>9.4597028250419397E-3</v>
       </c>
       <c r="E9" s="8">
-        <v>4274.7777777777501</v>
+        <v>4067.0410806302798</v>
       </c>
       <c r="F9" s="21"/>
-      <c r="G9" s="1">
-        <v>9.4597028250419397E-3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4067.0410806302798</v>
-      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="K9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="L9" s="40">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="M9" s="40">
-        <f t="shared" si="3"/>
-        <v>9.0000000000000201E-3</v>
-      </c>
-      <c r="N9" s="41">
-        <f t="shared" si="3"/>
-        <v>4274.7777777777501</v>
-      </c>
-      <c r="O9" s="40">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="P9" s="40">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q9" s="41">
-        <f t="shared" si="1"/>
-        <v>1943.5624999998599</v>
-      </c>
-      <c r="R9" s="40">
-        <f t="shared" si="2"/>
-        <v>1.8999999999999899E-2</v>
-      </c>
-      <c r="S9" s="40">
-        <f t="shared" si="2"/>
-        <v>9.0000000000000201E-3</v>
-      </c>
-      <c r="T9" s="41">
-        <f t="shared" si="2"/>
-        <v>4769.3330555555403</v>
-      </c>
-      <c r="Y9" s="3"/>
+      <c r="L9" s="29">
+        <f>D9</f>
+        <v>9.4597028250419397E-3</v>
+      </c>
+      <c r="M9" s="30">
+        <f>E9</f>
+        <v>4067.0410806302798</v>
+      </c>
+      <c r="N9" s="29">
+        <f>D21</f>
+        <v>8.4597028250419093E-3</v>
+      </c>
+      <c r="O9" s="30">
+        <f>E21</f>
+        <v>1837.9487224980501</v>
+      </c>
+      <c r="P9" s="29">
+        <f>D33</f>
+        <v>8.4597028250419093E-3</v>
+      </c>
+      <c r="Q9" s="30">
+        <f>E33</f>
+        <v>5073.9368022407198</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="27"/>
       <c r="Z9" s="26"/>
       <c r="AA9" s="26"/>
       <c r="AB9" s="27"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
       <c r="AE9" s="27"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="27"/>
-    </row>
-    <row r="10" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" s="21">
-        <v>0.02</v>
+        <f t="shared" si="1"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D10" s="21">
-        <v>1.24999999999999E-2</v>
+        <v>1.2959702825041801E-2</v>
       </c>
       <c r="E10" s="8">
-        <v>2911.8000000000102</v>
+        <v>2808.51347375571</v>
       </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="1">
-        <v>1.2959702825041801E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2808.51347375571</v>
-      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="K10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L10" s="40">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="M10" s="40">
-        <f t="shared" si="3"/>
-        <v>1.24999999999999E-2</v>
-      </c>
-      <c r="N10" s="41">
-        <f t="shared" si="3"/>
-        <v>2911.8000000000102</v>
-      </c>
-      <c r="O10" s="40">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="P10" s="40">
-        <f t="shared" si="1"/>
-        <v>1.24999999999999E-2</v>
-      </c>
-      <c r="Q10" s="41">
-        <f t="shared" si="1"/>
-        <v>2459.8399999999701</v>
-      </c>
-      <c r="R10" s="40">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="40">
-        <f t="shared" si="2"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="T10" s="41">
-        <f t="shared" si="2"/>
-        <v>5529.7997999998597</v>
-      </c>
-      <c r="Y10" s="3"/>
+      <c r="L10" s="29">
+        <f>D10</f>
+        <v>1.2959702825041801E-2</v>
+      </c>
+      <c r="M10" s="30">
+        <f>E10</f>
+        <v>2808.51347375571</v>
+      </c>
+      <c r="N10" s="29">
+        <f>D22</f>
+        <v>1.2959702825041801E-2</v>
+      </c>
+      <c r="O10" s="30">
+        <f>E22</f>
+        <v>2372.58526797278</v>
+      </c>
+      <c r="P10" s="29">
+        <f>D34</f>
+        <v>1.2959702825041899E-2</v>
+      </c>
+      <c r="Q10" s="30">
+        <f>E34</f>
+        <v>5333.6483431111901</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="27"/>
       <c r="Z10" s="26"/>
       <c r="AA10" s="26"/>
       <c r="AB10" s="27"/>
       <c r="AC10" s="26"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="27"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="27"/>
-    </row>
-    <row r="11" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>-20</v>
       </c>
       <c r="C11" s="21">
-        <v>1.8999999999999899E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D11" s="21">
-        <v>7.9999999999999793E-3</v>
+        <v>7.4597028250418702E-3</v>
       </c>
       <c r="E11" s="8">
-        <v>3318.56249999999</v>
+        <v>3558.9219333078199</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="1">
-        <v>7.4597028250418702E-3</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3558.9219333078199</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="K11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="L11" s="40">
-        <f t="shared" si="3"/>
-        <v>1.8999999999999899E-2</v>
-      </c>
-      <c r="M11" s="40">
-        <f t="shared" si="3"/>
-        <v>7.9999999999999793E-3</v>
-      </c>
-      <c r="N11" s="41">
-        <f t="shared" si="3"/>
-        <v>3318.56249999999</v>
-      </c>
-      <c r="O11" s="40">
-        <f t="shared" si="1"/>
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="P11" s="40">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999902E-3</v>
-      </c>
-      <c r="Q11" s="41">
-        <f t="shared" si="1"/>
-        <v>4646.3333333333103</v>
-      </c>
-      <c r="R11" s="40">
-        <f t="shared" si="2"/>
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="S11" s="40">
-        <f t="shared" si="2"/>
-        <v>7.4999999999999902E-3</v>
-      </c>
-      <c r="T11" s="41">
-        <f t="shared" si="2"/>
-        <v>9463.0666666666602</v>
-      </c>
-      <c r="Y11" s="3"/>
+      <c r="L11" s="29">
+        <f>D11</f>
+        <v>7.4597028250418702E-3</v>
+      </c>
+      <c r="M11" s="30">
+        <f>E11</f>
+        <v>3558.9219333078199</v>
+      </c>
+      <c r="N11" s="29">
+        <f>D23</f>
+        <v>6.4597028250418902E-3</v>
+      </c>
+      <c r="O11" s="30">
+        <f>E23</f>
+        <v>5394.5980092008003</v>
+      </c>
+      <c r="P11" s="29">
+        <f>D35</f>
+        <v>6.4597028250418902E-3</v>
+      </c>
+      <c r="Q11" s="30">
+        <f>E35</f>
+        <v>10987.037936925401</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="27"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="27"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="27"/>
-    </row>
-    <row r="12" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" s="21">
-        <v>0.02</v>
+        <f t="shared" si="1"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D12" s="21">
-        <v>1.24999999999999E-2</v>
+        <v>1.2959702825041801E-2</v>
       </c>
       <c r="E12" s="8">
-        <v>795.83999999995501</v>
+        <v>767.61019402212003</v>
       </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="1">
-        <v>1.2959702825041801E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>767.61019402212003</v>
-      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="K12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L12" s="40">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="M12" s="40">
-        <f t="shared" si="3"/>
-        <v>1.24999999999999E-2</v>
-      </c>
-      <c r="N12" s="41">
-        <f t="shared" si="3"/>
-        <v>795.83999999995501</v>
-      </c>
-      <c r="O12" s="40">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="P12" s="40">
-        <f t="shared" si="1"/>
-        <v>1.4999999999999901E-2</v>
-      </c>
-      <c r="Q12" s="41">
-        <f t="shared" si="1"/>
-        <v>3998.23333333336</v>
-      </c>
-      <c r="R12" s="40">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-      <c r="S12" s="40">
-        <f t="shared" si="2"/>
-        <v>1.24999999999999E-2</v>
-      </c>
-      <c r="T12" s="41">
-        <f t="shared" si="2"/>
-        <v>865.840000000028</v>
-      </c>
-      <c r="Y12" s="3"/>
+      <c r="L12" s="29">
+        <f>D12</f>
+        <v>1.2959702825041801E-2</v>
+      </c>
+      <c r="M12" s="30">
+        <f>E12</f>
+        <v>767.61019402212003</v>
+      </c>
+      <c r="N12" s="29">
+        <f>D24</f>
+        <v>1.5459702825041799E-2</v>
+      </c>
+      <c r="O12" s="30">
+        <f>E24</f>
+        <v>3879.3436509564799</v>
+      </c>
+      <c r="P12" s="29">
+        <f>D36</f>
+        <v>1.2959702825041801E-2</v>
+      </c>
+      <c r="Q12" s="30">
+        <f>E36</f>
+        <v>835.12717429655595</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="27"/>
       <c r="Z12" s="26"/>
       <c r="AA12" s="26"/>
       <c r="AB12" s="27"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="27"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="27"/>
-    </row>
-    <row r="13" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:70" x14ac:dyDescent="0.3">
       <c r="F13" s="21"/>
-      <c r="G13" s="1">
-        <v>4.0579943306004299E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1737.8905502207799</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -19118,47 +18966,40 @@
         <v>0.8</v>
       </c>
       <c r="F14" s="21"/>
-      <c r="G14" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1869.90816130645</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="K14" s="16" t="str">
         <f>B38</f>
         <v>SOC</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="37">
         <f>C38</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="28">
+      <c r="M14" s="37"/>
+      <c r="N14" s="36">
         <f>C50</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28">
+      <c r="O14" s="36"/>
+      <c r="P14" s="36">
         <f>C62</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-    </row>
-    <row r="15" spans="2:73" x14ac:dyDescent="0.3">
+      <c r="Q14" s="36"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+    </row>
+    <row r="15" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -19172,27 +19013,23 @@
         <v>4</v>
       </c>
       <c r="F15" s="21"/>
-      <c r="G15" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>605.79293952584896</v>
-      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="K15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="O15" s="20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>18</v>
@@ -19200,15 +19037,9 @@
       <c r="Q15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
       <c r="AA15" s="25"/>
@@ -19216,70 +19047,55 @@
       <c r="AC15" s="25"/>
       <c r="AD15" s="25"/>
       <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-    </row>
-    <row r="16" spans="2:73" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>-0.5</v>
       </c>
       <c r="C16" s="21">
-        <v>2.0040080160321098E-2</v>
+        <f>$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D16" s="21">
-        <v>4.0080160320641302E-2</v>
+        <v>4.0579943306004299E-2</v>
       </c>
       <c r="E16" s="8">
-        <v>1759.5613249999999</v>
+        <v>1737.8905502207799</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="1">
-        <v>1.04597028250418E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1020.44008118904</v>
-      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="39">
+      <c r="K16" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L16" s="40">
-        <f t="shared" ref="L16:N16" si="4">C40</f>
-        <v>2.0040080160321098E-2</v>
-      </c>
-      <c r="M16" s="40">
-        <f t="shared" si="4"/>
-        <v>8.0160320641282604E-2</v>
-      </c>
-      <c r="N16" s="41">
-        <f t="shared" si="4"/>
-        <v>5249.1494124999799</v>
-      </c>
-      <c r="O16" s="40">
-        <f t="shared" ref="O16:Q24" si="5">C52</f>
-        <v>2.00400801603202E-2</v>
-      </c>
-      <c r="P16" s="40">
-        <f t="shared" si="5"/>
-        <v>2.0040080160321098E-2</v>
-      </c>
-      <c r="Q16" s="41">
-        <f t="shared" si="5"/>
-        <v>624.92265000013299</v>
-      </c>
-      <c r="R16" s="40">
-        <f t="shared" ref="R16:T24" si="6">C64</f>
-        <v>2.0040080160321098E-2</v>
-      </c>
-      <c r="S16" s="40">
-        <f t="shared" si="6"/>
-        <v>4.0080160320641302E-2</v>
-      </c>
-      <c r="T16" s="41">
-        <f t="shared" si="6"/>
-        <v>711.64884999993399</v>
-      </c>
+      <c r="L16" s="29">
+        <f>D40</f>
+        <v>8.0660103626645593E-2</v>
+      </c>
+      <c r="M16" s="30">
+        <f>E40</f>
+        <v>5216.6248378212904</v>
+      </c>
+      <c r="N16" s="29">
+        <f>D52</f>
+        <v>2.05398631456832E-2</v>
+      </c>
+      <c r="O16" s="30">
+        <f>E52</f>
+        <v>609.71681803220702</v>
+      </c>
+      <c r="P16" s="29">
+        <f>D64</f>
+        <v>4.0579943306004299E-2</v>
+      </c>
+      <c r="Q16" s="30">
+        <f>E64</f>
+        <v>702.88417568530804</v>
+      </c>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
@@ -19287,537 +19103,410 @@
       <c r="AC16" s="25"/>
       <c r="AD16" s="25"/>
       <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>-2.5</v>
       </c>
       <c r="C17" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" ref="C17:C24" si="2">$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D17" s="21">
-        <v>1.2000000000000101E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E17" s="8">
-        <v>1941.5416666665601</v>
+        <v>1869.90816130645</v>
       </c>
       <c r="F17" s="21"/>
-      <c r="G17" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1340.1603741655899</v>
-      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="K17" s="11">
-        <f t="shared" ref="K17:N24" si="7">B41</f>
+        <f t="shared" ref="K17:K24" si="3">B41</f>
         <v>-2.5</v>
       </c>
-      <c r="L17" s="40">
-        <f t="shared" si="7"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="M17" s="40">
-        <f t="shared" si="7"/>
-        <v>1.2000000000000101E-2</v>
-      </c>
-      <c r="N17" s="41">
-        <f t="shared" si="7"/>
-        <v>1320.7083333333201</v>
-      </c>
-      <c r="O17" s="40">
-        <f t="shared" si="5"/>
-        <v>2.0000000000000101E-2</v>
-      </c>
-      <c r="P17" s="40">
-        <f t="shared" si="5"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q17" s="41">
-        <f t="shared" si="5"/>
-        <v>671.68750000018804</v>
-      </c>
-      <c r="R17" s="40">
-        <f t="shared" si="6"/>
-        <v>2.0000000000000101E-2</v>
-      </c>
-      <c r="S17" s="40">
-        <f t="shared" si="6"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="T17" s="41">
-        <f t="shared" si="6"/>
-        <v>459.12499999985698</v>
-      </c>
-      <c r="Y17" s="3"/>
+      <c r="L17" s="29">
+        <f>D41</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="M17" s="30">
+        <f>E41</f>
+        <v>1271.9805779113101</v>
+      </c>
+      <c r="N17" s="29">
+        <f>D53</f>
+        <v>8.4597028250419995E-3</v>
+      </c>
+      <c r="O17" s="30">
+        <f>E53</f>
+        <v>635.18779691588304</v>
+      </c>
+      <c r="P17" s="29">
+        <f>D65</f>
+        <v>8.4597028250419995E-3</v>
+      </c>
+      <c r="Q17" s="30">
+        <f>E65</f>
+        <v>434.17600782928503</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
       <c r="Z17" s="26"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="27"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="8"/>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="8"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1.25</v>
       </c>
       <c r="C18" s="21">
-        <v>1.6000000000000299E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D18" s="21">
-        <v>1.5999999999999601E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E18" s="8">
-        <v>471.75000000005201</v>
+        <v>605.79293952584896</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="1">
-        <v>8.4597028250419093E-3</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1837.9487224980501</v>
-      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="K18" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
-      <c r="L18" s="40">
-        <f t="shared" si="7"/>
-        <v>2.3999999999999799E-2</v>
-      </c>
-      <c r="M18" s="40">
-        <f t="shared" si="7"/>
-        <v>8.0000000000001806E-3</v>
-      </c>
-      <c r="N18" s="41">
-        <f t="shared" si="7"/>
-        <v>205.93718749978001</v>
-      </c>
-      <c r="O18" s="40">
-        <f t="shared" si="5"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="P18" s="40">
-        <f t="shared" si="5"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="Q18" s="41">
-        <f t="shared" si="5"/>
-        <v>671.78124999986596</v>
-      </c>
-      <c r="R18" s="40">
-        <f t="shared" si="6"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="S18" s="40">
-        <f t="shared" si="6"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="T18" s="41">
-        <f t="shared" si="6"/>
-        <v>1835.78125000008</v>
-      </c>
-      <c r="Y18" s="3"/>
+      <c r="L18" s="29">
+        <f>D42</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="M18" s="30">
+        <f>E42</f>
+        <v>132.22606695619399</v>
+      </c>
+      <c r="N18" s="29">
+        <f>D54</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="O18" s="30">
+        <f>E54</f>
+        <v>862.661024177493</v>
+      </c>
+      <c r="P18" s="29">
+        <f>D66</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="Q18" s="30">
+        <f>E66</f>
+        <v>2357.3997239298101</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="27"/>
       <c r="Z18" s="26"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="27"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="8"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="8"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>-5</v>
       </c>
       <c r="C19" s="21">
-        <v>0.02</v>
+        <f t="shared" si="2"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D19" s="21">
-        <v>9.9999999999999603E-3</v>
+        <v>1.04597028250418E-2</v>
       </c>
       <c r="E19" s="8">
-        <v>1067.3499999999001</v>
+        <v>1020.44008118904</v>
       </c>
       <c r="F19" s="21"/>
-      <c r="G19" s="1">
-        <v>1.2959702825041801E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2372.58526797278</v>
-      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="K19" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
-      <c r="L19" s="40">
-        <f t="shared" si="7"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="M19" s="40">
-        <f t="shared" si="7"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N19" s="41">
-        <f t="shared" si="7"/>
-        <v>1496.7500000002401</v>
-      </c>
-      <c r="O19" s="40">
-        <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="P19" s="40">
-        <f t="shared" si="5"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q19" s="41">
-        <f t="shared" si="5"/>
-        <v>2459.18750000009</v>
-      </c>
-      <c r="R19" s="40">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="S19" s="40">
-        <f t="shared" si="6"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="T19" s="41">
-        <f t="shared" si="6"/>
-        <v>1696.5624999997899</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L19" s="29">
+        <f>D43</f>
+        <v>8.4597028250418208E-3</v>
+      </c>
+      <c r="M19" s="30">
+        <f>E43</f>
+        <v>1415.41614967341</v>
+      </c>
+      <c r="N19" s="29">
+        <f>D55</f>
+        <v>8.4597028250419093E-3</v>
+      </c>
+      <c r="O19" s="30">
+        <f>E55</f>
+        <v>2325.5545031398001</v>
+      </c>
+      <c r="P19" s="29">
+        <f>D67</f>
+        <v>8.4597028250419093E-3</v>
+      </c>
+      <c r="Q19" s="30">
+        <f>E67</f>
+        <v>1604.3707776379399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2.5</v>
       </c>
       <c r="C20" s="21">
-        <v>2.0000000000000202E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D20" s="21">
-        <v>1.19999999999997E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E20" s="8">
-        <v>1391.50000000005</v>
+        <v>1340.1603741655899</v>
       </c>
       <c r="F20" s="21"/>
-      <c r="G20" s="1">
-        <v>6.4597028250418902E-3</v>
-      </c>
-      <c r="H20" s="1">
-        <v>5394.5980092008003</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="K20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="L20" s="40">
-        <f t="shared" si="7"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="M20" s="40">
-        <f t="shared" si="7"/>
-        <v>1.2000000000000101E-2</v>
-      </c>
-      <c r="N20" s="41">
-        <f t="shared" si="7"/>
-        <v>539.41666666680999</v>
-      </c>
-      <c r="O20" s="40">
-        <f t="shared" si="5"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="P20" s="40">
-        <f t="shared" si="5"/>
-        <v>1.19999999999999E-2</v>
-      </c>
-      <c r="Q20" s="41">
-        <f t="shared" si="5"/>
-        <v>1929.0000000001</v>
-      </c>
-      <c r="R20" s="40">
-        <f t="shared" si="6"/>
-        <v>2.0000000000000101E-2</v>
-      </c>
-      <c r="S20" s="40">
-        <f t="shared" si="6"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="T20" s="41">
-        <f t="shared" si="6"/>
-        <v>415.37500000003899</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L20" s="29">
+        <f>D44</f>
+        <v>8.4597028250419995E-3</v>
+      </c>
+      <c r="M20" s="30">
+        <f>E44</f>
+        <v>765.156901356003</v>
+      </c>
+      <c r="N20" s="29">
+        <f>D56</f>
+        <v>1.2459702825041699E-2</v>
+      </c>
+      <c r="O20" s="30">
+        <f>E56</f>
+        <v>1857.8292215347001</v>
+      </c>
+      <c r="P20" s="29">
+        <f>D68</f>
+        <v>8.4597028250419995E-3</v>
+      </c>
+      <c r="Q20" s="30">
+        <f>E68</f>
+        <v>392.80339613865999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>-10</v>
       </c>
       <c r="C21" s="21">
-        <v>0.02</v>
+        <f t="shared" si="2"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D21" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4597028250419093E-3</v>
       </c>
       <c r="E21" s="8">
-        <v>1943.5624999998599</v>
+        <v>1837.9487224980501</v>
       </c>
       <c r="F21" s="21"/>
-      <c r="G21" s="1">
-        <v>1.5459702825041799E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3879.3436509564799</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="K21" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
-      <c r="L21" s="40">
-        <f t="shared" si="7"/>
-        <v>0.02</v>
-      </c>
-      <c r="M21" s="40">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999802E-3</v>
-      </c>
-      <c r="N21" s="41">
-        <f t="shared" si="7"/>
-        <v>3367.64285714266</v>
-      </c>
-      <c r="O21" s="40">
-        <f t="shared" si="5"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="P21" s="40">
-        <f t="shared" si="5"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Q21" s="41">
-        <f t="shared" si="5"/>
-        <v>1878.8333333334999</v>
-      </c>
-      <c r="R21" s="40">
-        <f t="shared" si="6"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="S21" s="40">
-        <f t="shared" si="6"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="T21" s="41">
-        <f t="shared" si="6"/>
-        <v>1653.75000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L21" s="29">
+        <f>D45</f>
+        <v>7.4597028250418902E-3</v>
+      </c>
+      <c r="M21" s="30">
+        <f>E45</f>
+        <v>3160.1124807362798</v>
+      </c>
+      <c r="N21" s="29">
+        <f>D57</f>
+        <v>6.4597028250418702E-3</v>
+      </c>
+      <c r="O21" s="30">
+        <f>E57</f>
+        <v>1745.1267194985801</v>
+      </c>
+      <c r="P21" s="29">
+        <f>D69</f>
+        <v>6.4597028250418702E-3</v>
+      </c>
+      <c r="Q21" s="30">
+        <f>E69</f>
+        <v>1536.06137445436</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" s="21">
-        <v>0.02</v>
+        <f t="shared" si="2"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D22" s="21">
-        <v>1.24999999999999E-2</v>
+        <v>1.2959702825041801E-2</v>
       </c>
       <c r="E22" s="8">
-        <v>2459.8399999999701</v>
+        <v>2372.58526797278</v>
       </c>
       <c r="F22" s="21"/>
-      <c r="G22" s="1">
-        <v>6.0780987965604202E-2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1160.28880675497</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="K22" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L22" s="40">
-        <f t="shared" si="7"/>
-        <v>0.02</v>
-      </c>
-      <c r="M22" s="40">
-        <f t="shared" si="7"/>
-        <v>0.01</v>
-      </c>
-      <c r="N22" s="41">
-        <f t="shared" si="7"/>
-        <v>1217.30024999996</v>
-      </c>
-      <c r="O22" s="40">
-        <f t="shared" si="5"/>
-        <v>1.7499999999999901E-2</v>
-      </c>
-      <c r="P22" s="40">
-        <f t="shared" si="5"/>
-        <v>1.24999999999999E-2</v>
-      </c>
-      <c r="Q22" s="41">
-        <f t="shared" si="5"/>
-        <v>4377.91999999988</v>
-      </c>
-      <c r="R22" s="40">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="S22" s="40">
-        <f t="shared" si="6"/>
-        <v>0.01</v>
-      </c>
-      <c r="T22" s="41">
-        <f t="shared" si="6"/>
-        <v>764.84999999993204</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L22" s="29">
+        <f>D46</f>
+        <v>1.0459702825041901E-2</v>
+      </c>
+      <c r="M22" s="30">
+        <f>E46</f>
+        <v>1163.8000336736</v>
+      </c>
+      <c r="N22" s="29">
+        <f>D58</f>
+        <v>1.04597028250418E-2</v>
+      </c>
+      <c r="O22" s="30">
+        <f>E58</f>
+        <v>5231.8886028943698</v>
+      </c>
+      <c r="P22" s="29">
+        <f>D70</f>
+        <v>1.0459702825041901E-2</v>
+      </c>
+      <c r="Q22" s="30">
+        <f>E70</f>
+        <v>731.23492396818403</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>-20</v>
       </c>
       <c r="C23" s="21">
-        <v>1.8499999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D23" s="21">
-        <v>7.4999999999999902E-3</v>
+        <v>6.4597028250418902E-3</v>
       </c>
       <c r="E23" s="8">
-        <v>4646.3333333333103</v>
+        <v>5394.5980092008003</v>
       </c>
       <c r="F23" s="21"/>
-      <c r="G23" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1671.22786092045</v>
-      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="K23" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>-20</v>
       </c>
-      <c r="L23" s="40">
-        <f t="shared" si="7"/>
-        <v>1.8999999999999899E-2</v>
-      </c>
-      <c r="M23" s="40">
-        <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N23" s="41">
-        <f t="shared" si="7"/>
-        <v>3166.4166666663</v>
-      </c>
-      <c r="O23" s="40">
-        <f t="shared" si="5"/>
-        <v>1.95E-2</v>
-      </c>
-      <c r="P23" s="40">
-        <f t="shared" si="5"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Q23" s="41">
-        <f t="shared" si="5"/>
-        <v>2383.1666666665001</v>
-      </c>
-      <c r="R23" s="40">
-        <f t="shared" si="6"/>
-        <v>1.95E-2</v>
-      </c>
-      <c r="S23" s="40">
-        <f t="shared" si="6"/>
-        <v>6.4999999999999902E-3</v>
-      </c>
-      <c r="T23" s="41">
-        <f t="shared" si="6"/>
-        <v>5257.3076923077797</v>
-      </c>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L23" s="29">
+        <f>D47</f>
+        <v>5.4597028250418901E-3</v>
+      </c>
+      <c r="M23" s="30">
+        <f>E47</f>
+        <v>3479.76815017438</v>
+      </c>
+      <c r="N23" s="29">
+        <f>D59</f>
+        <v>5.9597028250419001E-3</v>
+      </c>
+      <c r="O23" s="30">
+        <f>E59</f>
+        <v>2399.28070572856</v>
+      </c>
+      <c r="P23" s="29">
+        <f>D71</f>
+        <v>6.4597028250418902E-3</v>
+      </c>
+      <c r="Q23" s="30">
+        <f>E71</f>
+        <v>5290.1040381495995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" s="21">
-        <v>0.02</v>
+        <f t="shared" si="2"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D24" s="21">
-        <v>1.4999999999999901E-2</v>
+        <v>1.5459702825041799E-2</v>
       </c>
       <c r="E24" s="8">
-        <v>3998.23333333336</v>
+        <v>3879.3436509564799</v>
       </c>
       <c r="F24" s="21"/>
-      <c r="G24" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>981.00253044829901</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="K24" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L24" s="40">
-        <f t="shared" si="7"/>
-        <v>0.02</v>
-      </c>
-      <c r="M24" s="40">
-        <f t="shared" si="7"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="N24" s="41">
-        <f t="shared" si="7"/>
-        <v>1483.79979999997</v>
-      </c>
-      <c r="O24" s="40">
-        <f t="shared" si="5"/>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="P24" s="40">
-        <f t="shared" si="5"/>
-        <v>1.24999999999999E-2</v>
-      </c>
-      <c r="Q24" s="41">
-        <f t="shared" si="5"/>
-        <v>761.83999999979505</v>
-      </c>
-      <c r="R24" s="40">
-        <f t="shared" si="6"/>
-        <v>1.7499999999999901E-2</v>
-      </c>
-      <c r="S24" s="40">
-        <f t="shared" si="6"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="T24" s="41">
-        <f t="shared" si="6"/>
-        <v>1041.7999999999199</v>
-      </c>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L24" s="29">
+        <f>D48</f>
+        <v>1.2959702825041899E-2</v>
+      </c>
+      <c r="M24" s="30">
+        <f>E48</f>
+        <v>1431.1668832529399</v>
+      </c>
+      <c r="N24" s="29">
+        <f>D60</f>
+        <v>1.0459702825041901E-2</v>
+      </c>
+      <c r="O24" s="30">
+        <f>E60</f>
+        <v>910.44651643429802</v>
+      </c>
+      <c r="P24" s="29">
+        <f>D72</f>
+        <v>1.0459702825041901E-2</v>
+      </c>
+      <c r="Q24" s="30">
+        <f>E72</f>
+        <v>1245.0162512095001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
       <c r="F25" s="21"/>
-      <c r="G25" s="1">
-        <v>8.4597028250419093E-3</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1323.6871591813799</v>
-      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -19826,37 +19515,31 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="F26" s="21"/>
-      <c r="G26" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2297.28593064605</v>
-      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="K26" s="16" t="str">
         <f>B74</f>
         <v>SOC</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="37">
         <f>C74</f>
         <v>0.30000000000000016</v>
       </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="28">
+      <c r="M26" s="37"/>
+      <c r="N26" s="36">
         <f>C86</f>
         <v>0.20000000000000015</v>
       </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="O26" s="36"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -19870,495 +19553,382 @@
         <v>4</v>
       </c>
       <c r="F27" s="21"/>
-      <c r="G27" s="1">
-        <v>8.4597028250419093E-3</v>
-      </c>
-      <c r="H27" s="1">
-        <v>5073.9368022407198</v>
-      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="K27" s="20" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="O27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>-0.5</v>
       </c>
       <c r="C28" s="21">
-        <v>2.0080321285140999E-2</v>
+        <f>$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D28" s="21">
-        <v>6.0240963855421201E-2</v>
+        <v>6.0780987965604202E-2</v>
       </c>
       <c r="E28" s="8">
-        <v>1170.69009999999</v>
+        <v>1160.28880675497</v>
       </c>
       <c r="F28" s="21"/>
-      <c r="G28" s="1">
-        <v>1.2959702825041899E-2</v>
-      </c>
-      <c r="H28" s="1">
-        <v>5333.6483431111901</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="39">
+      <c r="K28" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L28" s="40">
-        <f t="shared" ref="L28:N28" si="8">C76</f>
-        <v>2.00400801603202E-2</v>
-      </c>
-      <c r="M28" s="40">
-        <f t="shared" si="8"/>
-        <v>4.0080160320641302E-2</v>
-      </c>
-      <c r="N28" s="41">
-        <f t="shared" si="8"/>
-        <v>1304.21135000002</v>
-      </c>
-      <c r="O28" s="40">
-        <f t="shared" ref="O28:Q36" si="9">C88</f>
-        <v>2.0040080160321098E-2</v>
-      </c>
-      <c r="P28" s="40">
-        <f t="shared" si="9"/>
-        <v>4.0080160320641302E-2</v>
-      </c>
-      <c r="Q28" s="41">
-        <f t="shared" si="9"/>
-        <v>1740.83635000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L28" s="29">
+        <f>D76</f>
+        <v>4.0579943306003403E-2</v>
+      </c>
+      <c r="M28" s="30">
+        <f>E76</f>
+        <v>1288.14867004182</v>
+      </c>
+      <c r="N28" s="29">
+        <f>D88</f>
+        <v>4.0579943306004299E-2</v>
+      </c>
+      <c r="O28" s="30">
+        <f>E88</f>
+        <v>1719.3961921991399</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>-2.5</v>
       </c>
       <c r="C29" s="21">
-        <v>2.0000000000000101E-2</v>
+        <f t="shared" ref="C29:C36" si="4">$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D29" s="21">
-        <v>1.19999999999999E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E29" s="8">
-        <v>1735.2502083332899</v>
+        <v>1671.22786092045</v>
       </c>
       <c r="F29" s="21"/>
-      <c r="G29" s="1">
-        <v>6.4597028250418902E-3</v>
-      </c>
-      <c r="H29" s="1">
-        <v>10987.037936925401</v>
-      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="K29" s="11">
-        <f t="shared" ref="K29:N36" si="10">B77</f>
+        <f t="shared" ref="K29:K36" si="5">B77</f>
         <v>-2.5</v>
       </c>
-      <c r="L29" s="40">
-        <f t="shared" si="10"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="M29" s="40">
-        <f t="shared" si="10"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N29" s="41">
-        <f t="shared" si="10"/>
-        <v>365.43749999964302</v>
-      </c>
-      <c r="O29" s="40">
-        <f t="shared" si="9"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="P29" s="40">
-        <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q29" s="41">
-        <f t="shared" si="9"/>
-        <v>1315.3750000001201</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L29" s="29">
+        <f>D77</f>
+        <v>8.4597028250418208E-3</v>
+      </c>
+      <c r="M29" s="30">
+        <f>E77</f>
+        <v>345.57951507979698</v>
+      </c>
+      <c r="N29" s="29">
+        <f>D89</f>
+        <v>1.2459702825041901E-2</v>
+      </c>
+      <c r="O29" s="30">
+        <f>E89</f>
+        <v>844.562679203838</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1.25</v>
       </c>
       <c r="C30" s="21">
-        <v>1.6E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D30" s="21">
-        <v>1.6E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E30" s="8">
-        <v>763.93749999999602</v>
+        <v>981.00253044829901</v>
       </c>
       <c r="F30" s="21"/>
-      <c r="G30" s="1">
-        <v>1.2959702825041801E-2</v>
-      </c>
-      <c r="H30" s="1">
-        <v>835.12717429655595</v>
-      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="K30" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="L30" s="40">
-        <f t="shared" si="10"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="M30" s="40">
-        <f t="shared" si="10"/>
-        <v>7.9999999999998302E-3</v>
-      </c>
-      <c r="N30" s="41">
-        <f t="shared" si="10"/>
-        <v>87.187499999346997</v>
-      </c>
-      <c r="O30" s="40">
-        <f t="shared" si="9"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="P30" s="40">
-        <f t="shared" si="9"/>
-        <v>1.5999999999999601E-2</v>
-      </c>
-      <c r="Q30" s="41">
-        <f t="shared" si="9"/>
-        <v>688.93750000008004</v>
-      </c>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L30" s="29">
+        <f>D78</f>
+        <v>4.4597028250417297E-3</v>
+      </c>
+      <c r="M30" s="30">
+        <f>E78</f>
+        <v>156.400555677884</v>
+      </c>
+      <c r="N30" s="29">
+        <f>D90</f>
+        <v>1.24597028250415E-2</v>
+      </c>
+      <c r="O30" s="30">
+        <f>E90</f>
+        <v>884.69204721696599</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>-5</v>
       </c>
       <c r="C31" s="21">
-        <v>1.7999999999999901E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D31" s="21">
-        <v>0.01</v>
+        <v>8.4597028250419093E-3</v>
       </c>
       <c r="E31" s="8">
-        <v>1119.7999999998401</v>
+        <v>1323.6871591813799</v>
       </c>
       <c r="F31" s="21"/>
-      <c r="G31" s="1">
-        <v>8.0660103626645593E-2</v>
-      </c>
-      <c r="H31" s="1">
-        <v>5216.6248378212904</v>
-      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="K31" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="L31" s="40">
-        <f t="shared" si="10"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="M31" s="40">
-        <f t="shared" si="10"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N31" s="41">
-        <f t="shared" si="10"/>
-        <v>1793.4999999997599</v>
-      </c>
-      <c r="O31" s="40">
-        <f t="shared" si="9"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P31" s="40">
-        <f t="shared" si="9"/>
-        <v>5.9999999999999602E-3</v>
-      </c>
-      <c r="Q31" s="41">
-        <f t="shared" si="9"/>
-        <v>807.99999999969396</v>
-      </c>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L31" s="29">
+        <f>D79</f>
+        <v>8.4597028250418208E-3</v>
+      </c>
+      <c r="M31" s="30">
+        <f>E79</f>
+        <v>1696.04066439853</v>
+      </c>
+      <c r="N31" s="29">
+        <f>D91</f>
+        <v>8.4597028250419093E-3</v>
+      </c>
+      <c r="O31" s="30">
+        <f>E91</f>
+        <v>573.069775648308</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>2.5</v>
       </c>
       <c r="C32" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D32" s="21">
-        <v>1.2000000000000101E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E32" s="8">
-        <v>2385.2916666666201</v>
+        <v>2297.28593064605</v>
       </c>
       <c r="F32" s="21"/>
-      <c r="G32" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1271.9805779113101</v>
-      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="K32" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="L32" s="40">
-        <f t="shared" si="10"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="M32" s="40">
-        <f t="shared" si="10"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N32" s="41">
-        <f t="shared" si="10"/>
-        <v>609.06249999970805</v>
-      </c>
-      <c r="O32" s="40">
-        <f t="shared" si="9"/>
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="P32" s="40">
-        <f t="shared" si="9"/>
-        <v>1.19999999999999E-2</v>
-      </c>
-      <c r="Q32" s="41">
-        <f t="shared" si="9"/>
-        <v>2776.9583333332298</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L32" s="29">
+        <f>D80</f>
+        <v>8.4597028250418208E-3</v>
+      </c>
+      <c r="M32" s="30">
+        <f>E80</f>
+        <v>575.96585846661503</v>
+      </c>
+      <c r="N32" s="29">
+        <f>D92</f>
+        <v>1.2459702825041699E-2</v>
+      </c>
+      <c r="O32" s="30">
+        <f>E92</f>
+        <v>2674.5019899691601</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>-10</v>
       </c>
       <c r="C33" s="21">
-        <v>1.8999999999999899E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D33" s="21">
-        <v>9.0000000000000201E-3</v>
+        <v>8.4597028250419093E-3</v>
       </c>
       <c r="E33" s="8">
-        <v>4769.3330555555403</v>
+        <v>5073.9368022407198</v>
       </c>
       <c r="F33" s="21"/>
-      <c r="G33" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H33" s="1">
-        <v>132.22606695619399</v>
-      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="K33" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>-10</v>
       </c>
-      <c r="L33" s="40">
-        <f t="shared" si="10"/>
-        <v>2.0999999999999901E-2</v>
-      </c>
-      <c r="M33" s="40">
-        <f t="shared" si="10"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N33" s="41">
-        <f t="shared" si="10"/>
-        <v>2041.33333333326</v>
-      </c>
-      <c r="O33" s="40">
-        <f t="shared" si="9"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P33" s="40">
-        <f t="shared" si="9"/>
-        <v>6.9999999999999802E-3</v>
-      </c>
-      <c r="Q33" s="41">
-        <f t="shared" si="9"/>
-        <v>1953.2857142850301</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L33" s="29">
+        <f>D81</f>
+        <v>7.4597028250418902E-3</v>
+      </c>
+      <c r="M33" s="30">
+        <f>E81</f>
+        <v>1641.8884622164201</v>
+      </c>
+      <c r="N33" s="29">
+        <f>D93</f>
+        <v>9.4597028250418894E-3</v>
+      </c>
+      <c r="O33" s="30">
+        <f>E93</f>
+        <v>1445.39424259711</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" s="21">
-        <v>0.02</v>
+        <f t="shared" si="4"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D34" s="21">
-        <v>1.2500000000000001E-2</v>
+        <v>1.2959702825041899E-2</v>
       </c>
       <c r="E34" s="8">
-        <v>5529.7997999998597</v>
+        <v>5333.6483431111901</v>
       </c>
       <c r="F34" s="21"/>
-      <c r="G34" s="1">
-        <v>8.4597028250418208E-3</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1415.41614967341</v>
-      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="K34" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L34" s="40">
-        <f t="shared" si="10"/>
-        <v>0.02</v>
-      </c>
-      <c r="M34" s="40">
-        <f t="shared" si="10"/>
-        <v>0.01</v>
-      </c>
-      <c r="N34" s="41">
-        <f t="shared" si="10"/>
-        <v>1194.79999999966</v>
-      </c>
-      <c r="O34" s="40">
-        <f t="shared" si="9"/>
-        <v>0.02</v>
-      </c>
-      <c r="P34" s="40">
-        <f t="shared" si="9"/>
-        <v>0.01</v>
-      </c>
-      <c r="Q34" s="41">
-        <f t="shared" si="9"/>
-        <v>839.79999999937604</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L34" s="29">
+        <f>D82</f>
+        <v>1.0459702825041901E-2</v>
+      </c>
+      <c r="M34" s="30">
+        <f>E82</f>
+        <v>1142.2886672641901</v>
+      </c>
+      <c r="N34" s="29">
+        <f>D94</f>
+        <v>1.0459702825041901E-2</v>
+      </c>
+      <c r="O34" s="30">
+        <f>E94</f>
+        <v>802.89087945097594</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>-20</v>
       </c>
       <c r="C35" s="21">
-        <v>1.8499999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D35" s="21">
-        <v>7.4999999999999902E-3</v>
+        <v>6.4597028250418902E-3</v>
       </c>
       <c r="E35" s="8">
-        <v>9463.0666666666602</v>
+        <v>10987.037936925401</v>
       </c>
       <c r="F35" s="21"/>
-      <c r="G35" s="1">
-        <v>8.4597028250419995E-3</v>
-      </c>
-      <c r="H35" s="1">
-        <v>765.156901356003</v>
-      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="K35" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
-      <c r="L35" s="40">
-        <f t="shared" si="10"/>
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="M35" s="40">
-        <f t="shared" si="10"/>
-        <v>6.4999999999999902E-3</v>
-      </c>
-      <c r="N35" s="41">
-        <f t="shared" si="10"/>
-        <v>2922.8461538452598</v>
-      </c>
-      <c r="O35" s="40">
-        <f t="shared" si="9"/>
-        <v>2.2499999999999899E-2</v>
-      </c>
-      <c r="P35" s="40">
-        <f t="shared" si="9"/>
-        <v>7.5000000000000197E-3</v>
-      </c>
-      <c r="Q35" s="41">
-        <f t="shared" si="9"/>
-        <v>1979.8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L35" s="29">
+        <f>D83</f>
+        <v>7.4597028250418902E-3</v>
+      </c>
+      <c r="M35" s="30">
+        <f>E83</f>
+        <v>2546.8172721595602</v>
+      </c>
+      <c r="N35" s="29">
+        <f>D95</f>
+        <v>1.0459702825041901E-2</v>
+      </c>
+      <c r="O35" s="30">
+        <f>E95</f>
+        <v>1419.5910006592901</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" s="21">
-        <v>0.02</v>
+        <f t="shared" si="4"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D36" s="21">
-        <v>1.24999999999999E-2</v>
+        <v>1.2959702825041801E-2</v>
       </c>
       <c r="E36" s="8">
-        <v>865.840000000028</v>
+        <v>835.12717429655595</v>
       </c>
       <c r="F36" s="21"/>
-      <c r="G36" s="1">
-        <v>7.4597028250418902E-3</v>
-      </c>
-      <c r="H36" s="1">
-        <v>3160.1124807362798</v>
-      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="K36" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L36" s="40">
-        <f t="shared" si="10"/>
-        <v>0.02</v>
-      </c>
-      <c r="M36" s="40">
-        <f t="shared" si="10"/>
-        <v>1.24999999999999E-2</v>
-      </c>
-      <c r="N36" s="41">
-        <f t="shared" si="10"/>
-        <v>2693.8400000001998</v>
-      </c>
-      <c r="O36" s="40">
-        <f t="shared" si="9"/>
-        <v>0.02</v>
-      </c>
-      <c r="P36" s="40">
-        <f t="shared" si="9"/>
-        <v>1.24999999999999E-2</v>
-      </c>
-      <c r="Q36" s="41">
-        <f t="shared" si="9"/>
-        <v>1691.7999999999299</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L36" s="29">
+        <f>D84</f>
+        <v>1.2959702825041801E-2</v>
+      </c>
+      <c r="M36" s="30">
+        <f>E84</f>
+        <v>2598.2848877473102</v>
+      </c>
+      <c r="N36" s="29">
+        <f>D96</f>
+        <v>1.2959702825041801E-2</v>
+      </c>
+      <c r="O36" s="30">
+        <f>E96</f>
+        <v>1631.7889604024001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F37" s="21"/>
-      <c r="G37" s="1">
-        <v>1.0459702825041901E-2</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1163.8000336736</v>
-      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -20367,15 +19937,11 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="F38" s="21"/>
-      <c r="G38" s="1">
-        <v>5.4597028250418901E-3</v>
-      </c>
-      <c r="H38" s="1">
-        <v>3479.76815017438</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -20389,220 +19955,185 @@
         <v>4</v>
       </c>
       <c r="F39" s="21"/>
-      <c r="G39" s="1">
-        <v>1.2959702825041899E-2</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1431.1668832529399</v>
-      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>-0.5</v>
       </c>
       <c r="C40" s="21">
-        <v>2.0040080160321098E-2</v>
+        <f>$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D40" s="21">
-        <v>8.0160320641282604E-2</v>
+        <v>8.0660103626645593E-2</v>
       </c>
       <c r="E40" s="8">
-        <v>5249.1494124999799</v>
+        <v>5216.6248378212904</v>
       </c>
       <c r="F40" s="21"/>
-      <c r="G40" s="1">
-        <v>2.05398631456832E-2</v>
-      </c>
-      <c r="H40" s="1">
-        <v>609.71681803220702</v>
-      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>-2.5</v>
       </c>
       <c r="C41" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" ref="C41:C48" si="6">$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D41" s="21">
-        <v>1.2000000000000101E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E41" s="8">
-        <v>1320.7083333333201</v>
+        <v>1271.9805779113101</v>
       </c>
       <c r="F41" s="21"/>
-      <c r="G41" s="1">
-        <v>8.4597028250419995E-3</v>
-      </c>
-      <c r="H41" s="1">
-        <v>635.18779691588304</v>
-      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1.25</v>
       </c>
       <c r="C42" s="21">
-        <v>2.3999999999999799E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D42" s="21">
-        <v>8.0000000000001806E-3</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E42" s="8">
-        <v>205.93718749978001</v>
+        <v>132.22606695619399</v>
       </c>
       <c r="F42" s="21"/>
-      <c r="G42" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H42" s="1">
-        <v>862.661024177493</v>
-      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>-5</v>
       </c>
       <c r="C43" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D43" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4597028250418208E-3</v>
       </c>
       <c r="E43" s="8">
-        <v>1496.7500000002401</v>
+        <v>1415.41614967341</v>
       </c>
       <c r="F43" s="21"/>
-      <c r="G43" s="1">
-        <v>8.4597028250419093E-3</v>
-      </c>
-      <c r="H43" s="1">
-        <v>2325.5545031398001</v>
-      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>2.5</v>
       </c>
       <c r="C44" s="21">
-        <v>1.6E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D44" s="21">
-        <v>1.2000000000000101E-2</v>
+        <v>8.4597028250419995E-3</v>
       </c>
       <c r="E44" s="8">
-        <v>539.41666666680999</v>
+        <v>765.156901356003</v>
       </c>
       <c r="F44" s="21"/>
-      <c r="G44" s="1">
-        <v>1.2459702825041699E-2</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1857.8292215347001</v>
-      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>-10</v>
       </c>
       <c r="C45" s="21">
-        <v>0.02</v>
+        <f t="shared" si="6"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D45" s="21">
-        <v>6.9999999999999802E-3</v>
+        <v>7.4597028250418902E-3</v>
       </c>
       <c r="E45" s="8">
-        <v>3367.64285714266</v>
+        <v>3160.1124807362798</v>
       </c>
       <c r="F45" s="21"/>
-      <c r="G45" s="1">
-        <v>6.4597028250418702E-3</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1745.1267194985801</v>
-      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4</v>
       </c>
       <c r="C46" s="21">
-        <v>0.02</v>
+        <f t="shared" si="6"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D46" s="21">
-        <v>0.01</v>
+        <v>1.0459702825041901E-2</v>
       </c>
       <c r="E46" s="8">
-        <v>1217.30024999996</v>
+        <v>1163.8000336736</v>
       </c>
       <c r="F46" s="21"/>
-      <c r="G46" s="1">
-        <v>1.04597028250418E-2</v>
-      </c>
-      <c r="H46" s="1">
-        <v>5231.8886028943698</v>
-      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>-20</v>
       </c>
       <c r="C47" s="21">
-        <v>1.8999999999999899E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D47" s="21">
-        <v>6.0000000000000001E-3</v>
+        <v>5.4597028250418901E-3</v>
       </c>
       <c r="E47" s="8">
-        <v>3166.4166666663</v>
+        <v>3479.76815017438</v>
       </c>
       <c r="F47" s="21"/>
-      <c r="G47" s="1">
-        <v>5.9597028250419001E-3</v>
-      </c>
-      <c r="H47" s="1">
-        <v>2399.28070572856</v>
-      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>4</v>
       </c>
       <c r="C48" s="21">
-        <v>0.02</v>
+        <f t="shared" si="6"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D48" s="21">
-        <v>1.2500000000000001E-2</v>
+        <v>1.2959702825041899E-2</v>
       </c>
       <c r="E48" s="8">
-        <v>1483.79979999997</v>
+        <v>1431.1668832529399</v>
       </c>
       <c r="F48" s="21"/>
-      <c r="G48" s="1">
-        <v>1.0459702825041901E-2</v>
-      </c>
-      <c r="H48" s="1">
-        <v>910.44651643429802</v>
-      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F49" s="21"/>
-      <c r="G49" s="1">
-        <v>4.0579943306004299E-2</v>
-      </c>
-      <c r="H49" s="1">
-        <v>702.88417568530804</v>
-      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
@@ -20614,12 +20145,8 @@
         <v>0.50000000000000011</v>
       </c>
       <c r="F50" s="21"/>
-      <c r="G50" s="1">
-        <v>8.4597028250419995E-3</v>
-      </c>
-      <c r="H50" s="1">
-        <v>434.17600782928503</v>
-      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
@@ -20636,12 +20163,8 @@
         <v>4</v>
       </c>
       <c r="F51" s="21"/>
-      <c r="G51" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H51" s="1">
-        <v>2357.3997239298101</v>
-      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
@@ -20649,21 +20172,18 @@
         <v>-0.5</v>
       </c>
       <c r="C52" s="21">
-        <v>2.00400801603202E-2</v>
+        <f>$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D52" s="21">
-        <v>2.0040080160321098E-2</v>
+        <v>2.05398631456832E-2</v>
       </c>
       <c r="E52" s="8">
-        <v>624.92265000013299</v>
+        <v>609.71681803220702</v>
       </c>
       <c r="F52" s="21"/>
-      <c r="G52" s="1">
-        <v>8.4597028250419093E-3</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1604.3707776379399</v>
-      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
@@ -20671,21 +20191,18 @@
         <v>-2.5</v>
       </c>
       <c r="C53" s="21">
-        <v>2.0000000000000101E-2</v>
+        <f t="shared" ref="C53:C60" si="7">$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D53" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4597028250419995E-3</v>
       </c>
       <c r="E53" s="8">
-        <v>671.68750000018804</v>
+        <v>635.18779691588304</v>
       </c>
       <c r="F53" s="21"/>
-      <c r="G53" s="1">
-        <v>8.4597028250419995E-3</v>
-      </c>
-      <c r="H53" s="1">
-        <v>392.80339613865999</v>
-      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
@@ -20693,21 +20210,18 @@
         <v>1.25</v>
       </c>
       <c r="C54" s="21">
-        <v>1.6E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D54" s="21">
-        <v>1.6E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E54" s="8">
-        <v>671.78124999986596</v>
+        <v>862.661024177493</v>
       </c>
       <c r="F54" s="21"/>
-      <c r="G54" s="1">
-        <v>6.4597028250418702E-3</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1536.06137445436</v>
-      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
@@ -20715,21 +20229,18 @@
         <v>-5</v>
       </c>
       <c r="C55" s="21">
-        <v>0.02</v>
+        <f t="shared" si="7"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D55" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4597028250419093E-3</v>
       </c>
       <c r="E55" s="8">
-        <v>2459.18750000009</v>
+        <v>2325.5545031398001</v>
       </c>
       <c r="F55" s="21"/>
-      <c r="G55" s="1">
-        <v>1.0459702825041901E-2</v>
-      </c>
-      <c r="H55" s="1">
-        <v>731.23492396818403</v>
-      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
@@ -20737,21 +20248,18 @@
         <v>2.5</v>
       </c>
       <c r="C56" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D56" s="21">
-        <v>1.19999999999999E-2</v>
+        <v>1.2459702825041699E-2</v>
       </c>
       <c r="E56" s="8">
-        <v>1929.0000000001</v>
+        <v>1857.8292215347001</v>
       </c>
       <c r="F56" s="21"/>
-      <c r="G56" s="1">
-        <v>6.4597028250418902E-3</v>
-      </c>
-      <c r="H56" s="1">
-        <v>5290.1040381495995</v>
-      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
@@ -20759,21 +20267,18 @@
         <v>-10</v>
       </c>
       <c r="C57" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D57" s="21">
-        <v>6.0000000000000001E-3</v>
+        <v>6.4597028250418702E-3</v>
       </c>
       <c r="E57" s="8">
-        <v>1878.8333333334999</v>
+        <v>1745.1267194985801</v>
       </c>
       <c r="F57" s="21"/>
-      <c r="G57" s="1">
-        <v>1.0459702825041901E-2</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1245.0162512095001</v>
-      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
@@ -20781,21 +20286,18 @@
         <v>4</v>
       </c>
       <c r="C58" s="21">
-        <v>1.7499999999999901E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D58" s="21">
-        <v>1.24999999999999E-2</v>
+        <v>1.04597028250418E-2</v>
       </c>
       <c r="E58" s="8">
-        <v>4377.91999999988</v>
+        <v>5231.8886028943698</v>
       </c>
       <c r="F58" s="21"/>
-      <c r="G58" s="1">
-        <v>4.0579943306003403E-2</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1288.14867004182</v>
-      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
@@ -20803,21 +20305,18 @@
         <v>-20</v>
       </c>
       <c r="C59" s="21">
-        <v>1.95E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D59" s="21">
-        <v>6.0000000000000001E-3</v>
+        <v>5.9597028250419001E-3</v>
       </c>
       <c r="E59" s="8">
-        <v>2383.1666666665001</v>
+        <v>2399.28070572856</v>
       </c>
       <c r="F59" s="21"/>
-      <c r="G59" s="1">
-        <v>8.4597028250418208E-3</v>
-      </c>
-      <c r="H59" s="1">
-        <v>345.57951507979698</v>
-      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
@@ -20825,31 +20324,24 @@
         <v>4</v>
       </c>
       <c r="C60" s="21">
-        <v>1.7500000000000002E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D60" s="21">
-        <v>1.24999999999999E-2</v>
+        <v>1.0459702825041901E-2</v>
       </c>
       <c r="E60" s="8">
-        <v>761.83999999979505</v>
+        <v>910.44651643429802</v>
       </c>
       <c r="F60" s="21"/>
-      <c r="G60" s="1">
-        <v>4.4597028250417297E-3</v>
-      </c>
-      <c r="H60" s="1">
-        <v>156.400555677884</v>
-      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F61" s="21"/>
-      <c r="G61" s="1">
-        <v>8.4597028250418208E-3</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1696.04066439853</v>
-      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
@@ -20861,12 +20353,8 @@
         <v>0.40000000000000013</v>
       </c>
       <c r="F62" s="21"/>
-      <c r="G62" s="1">
-        <v>8.4597028250418208E-3</v>
-      </c>
-      <c r="H62" s="1">
-        <v>575.96585846661503</v>
-      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
@@ -20883,12 +20371,8 @@
         <v>4</v>
       </c>
       <c r="F63" s="21"/>
-      <c r="G63" s="1">
-        <v>7.4597028250418902E-3</v>
-      </c>
-      <c r="H63" s="1">
-        <v>1641.8884622164201</v>
-      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
@@ -20896,21 +20380,18 @@
         <v>-0.5</v>
       </c>
       <c r="C64" s="21">
-        <v>2.0040080160321098E-2</v>
+        <f>$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D64" s="21">
-        <v>4.0080160320641302E-2</v>
+        <v>4.0579943306004299E-2</v>
       </c>
       <c r="E64" s="8">
-        <v>711.64884999993399</v>
+        <v>702.88417568530804</v>
       </c>
       <c r="F64" s="21"/>
-      <c r="G64" s="1">
-        <v>1.0459702825041901E-2</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1142.2886672641901</v>
-      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
@@ -20918,21 +20399,18 @@
         <v>-2.5</v>
       </c>
       <c r="C65" s="21">
-        <v>2.0000000000000101E-2</v>
+        <f t="shared" ref="C65:C72" si="8">$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D65" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4597028250419995E-3</v>
       </c>
       <c r="E65" s="8">
-        <v>459.12499999985698</v>
+        <v>434.17600782928503</v>
       </c>
       <c r="F65" s="21"/>
-      <c r="G65" s="1">
-        <v>7.4597028250418902E-3</v>
-      </c>
-      <c r="H65" s="1">
-        <v>2546.8172721595602</v>
-      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
@@ -20940,21 +20418,18 @@
         <v>1.25</v>
       </c>
       <c r="C66" s="21">
-        <v>1.6E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D66" s="21">
-        <v>1.6E-2</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E66" s="8">
-        <v>1835.78125000008</v>
+        <v>2357.3997239298101</v>
       </c>
       <c r="F66" s="21"/>
-      <c r="G66" s="1">
-        <v>1.2959702825041801E-2</v>
-      </c>
-      <c r="H66" s="1">
-        <v>2598.2848877473102</v>
-      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
@@ -20962,21 +20437,18 @@
         <v>-5</v>
       </c>
       <c r="C67" s="21">
-        <v>0.02</v>
+        <f t="shared" si="8"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D67" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4597028250419093E-3</v>
       </c>
       <c r="E67" s="8">
-        <v>1696.5624999997899</v>
+        <v>1604.3707776379399</v>
       </c>
       <c r="F67" s="21"/>
-      <c r="G67" s="1">
-        <v>4.0579943306004299E-2</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1719.3961921991399</v>
-      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
@@ -20984,21 +20456,18 @@
         <v>2.5</v>
       </c>
       <c r="C68" s="21">
-        <v>2.0000000000000101E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D68" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4597028250419995E-3</v>
       </c>
       <c r="E68" s="8">
-        <v>415.37500000003899</v>
+        <v>392.80339613865999</v>
       </c>
       <c r="F68" s="21"/>
-      <c r="G68" s="1">
-        <v>1.2459702825041901E-2</v>
-      </c>
-      <c r="H68" s="1">
-        <v>844.562679203838</v>
-      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -21006,21 +20475,18 @@
         <v>-10</v>
       </c>
       <c r="C69" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D69" s="21">
-        <v>6.0000000000000001E-3</v>
+        <v>6.4597028250418702E-3</v>
       </c>
       <c r="E69" s="8">
-        <v>1653.75000000009</v>
+        <v>1536.06137445436</v>
       </c>
       <c r="F69" s="21"/>
-      <c r="G69" s="1">
-        <v>1.24597028250415E-2</v>
-      </c>
-      <c r="H69" s="1">
-        <v>884.69204721696599</v>
-      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
@@ -21028,21 +20494,18 @@
         <v>4</v>
       </c>
       <c r="C70" s="21">
-        <v>0.02</v>
+        <f t="shared" si="8"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D70" s="21">
-        <v>0.01</v>
+        <v>1.0459702825041901E-2</v>
       </c>
       <c r="E70" s="8">
-        <v>764.84999999993204</v>
+        <v>731.23492396818403</v>
       </c>
       <c r="F70" s="21"/>
-      <c r="G70" s="1">
-        <v>8.4597028250419093E-3</v>
-      </c>
-      <c r="H70" s="1">
-        <v>573.069775648308</v>
-      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
@@ -21050,21 +20513,18 @@
         <v>-20</v>
       </c>
       <c r="C71" s="21">
-        <v>1.95E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D71" s="21">
-        <v>6.4999999999999902E-3</v>
+        <v>6.4597028250418902E-3</v>
       </c>
       <c r="E71" s="8">
-        <v>5257.3076923077797</v>
+        <v>5290.1040381495995</v>
       </c>
       <c r="F71" s="21"/>
-      <c r="G71" s="1">
-        <v>1.2459702825041699E-2</v>
-      </c>
-      <c r="H71" s="1">
-        <v>2674.5019899691601</v>
-      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
@@ -21072,31 +20532,24 @@
         <v>4</v>
       </c>
       <c r="C72" s="21">
-        <v>1.7499999999999901E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D72" s="21">
-        <v>1.2500000000000001E-2</v>
+        <v>1.0459702825041901E-2</v>
       </c>
       <c r="E72" s="8">
-        <v>1041.7999999999199</v>
+        <v>1245.0162512095001</v>
       </c>
       <c r="F72" s="21"/>
-      <c r="G72" s="1">
-        <v>9.4597028250418894E-3</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1445.39424259711</v>
-      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F73" s="21"/>
-      <c r="G73" s="1">
-        <v>1.0459702825041901E-2</v>
-      </c>
-      <c r="H73" s="1">
-        <v>802.89087945097594</v>
-      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
@@ -21108,12 +20561,8 @@
         <v>0.30000000000000016</v>
       </c>
       <c r="F74" s="21"/>
-      <c r="G74" s="1">
-        <v>1.0459702825041901E-2</v>
-      </c>
-      <c r="H74" s="1">
-        <v>1419.5910006592901</v>
-      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
@@ -21130,12 +20579,8 @@
         <v>4</v>
       </c>
       <c r="F75" s="21"/>
-      <c r="G75" s="1">
-        <v>1.2959702825041801E-2</v>
-      </c>
-      <c r="H75" s="1">
-        <v>1631.7889604024001</v>
-      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
@@ -21143,13 +20588,14 @@
         <v>-0.5</v>
       </c>
       <c r="C76" s="21">
-        <v>2.00400801603202E-2</v>
+        <f>$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D76" s="21">
-        <v>4.0080160320641302E-2</v>
+        <v>4.0579943306003403E-2</v>
       </c>
       <c r="E76" s="8">
-        <v>1304.21135000002</v>
+        <v>1288.14867004182</v>
       </c>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
@@ -21161,13 +20607,14 @@
         <v>-2.5</v>
       </c>
       <c r="C77" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" ref="C77:C84" si="9">$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D77" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4597028250418208E-3</v>
       </c>
       <c r="E77" s="8">
-        <v>365.43749999964302</v>
+        <v>345.57951507979698</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="8"/>
@@ -21179,13 +20626,14 @@
         <v>1.25</v>
       </c>
       <c r="C78" s="21">
-        <v>1.6E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D78" s="21">
-        <v>7.9999999999998302E-3</v>
+        <v>4.4597028250417297E-3</v>
       </c>
       <c r="E78" s="8">
-        <v>87.187499999346997</v>
+        <v>156.400555677884</v>
       </c>
       <c r="F78" s="21"/>
       <c r="G78" s="8"/>
@@ -21197,13 +20645,14 @@
         <v>-5</v>
       </c>
       <c r="C79" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D79" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4597028250418208E-3</v>
       </c>
       <c r="E79" s="8">
-        <v>1793.4999999997599</v>
+        <v>1696.04066439853</v>
       </c>
       <c r="F79" s="21"/>
       <c r="G79" s="8"/>
@@ -21215,13 +20664,14 @@
         <v>2.5</v>
       </c>
       <c r="C80" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D80" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4597028250418208E-3</v>
       </c>
       <c r="E80" s="8">
-        <v>609.06249999970805</v>
+        <v>575.96585846661503</v>
       </c>
       <c r="F80" s="21"/>
       <c r="G80" s="8"/>
@@ -21233,13 +20683,14 @@
         <v>-10</v>
       </c>
       <c r="C81" s="21">
-        <v>2.0999999999999901E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D81" s="21">
-        <v>6.0000000000000001E-3</v>
+        <v>7.4597028250418902E-3</v>
       </c>
       <c r="E81" s="8">
-        <v>2041.33333333326</v>
+        <v>1641.8884622164201</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
@@ -21251,13 +20702,14 @@
         <v>4</v>
       </c>
       <c r="C82" s="21">
-        <v>0.02</v>
+        <f t="shared" si="9"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D82" s="21">
-        <v>0.01</v>
+        <v>1.0459702825041901E-2</v>
       </c>
       <c r="E82" s="8">
-        <v>1194.79999999966</v>
+        <v>1142.2886672641901</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -21268,13 +20720,14 @@
         <v>-20</v>
       </c>
       <c r="C83" s="21">
-        <v>2.0500000000000001E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D83" s="21">
-        <v>6.4999999999999902E-3</v>
+        <v>7.4597028250418902E-3</v>
       </c>
       <c r="E83" s="8">
-        <v>2922.8461538452598</v>
+        <v>2546.8172721595602</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -21285,13 +20738,14 @@
         <v>4</v>
       </c>
       <c r="C84" s="21">
-        <v>0.02</v>
+        <f t="shared" si="9"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D84" s="21">
-        <v>1.24999999999999E-2</v>
+        <v>1.2959702825041801E-2</v>
       </c>
       <c r="E84" s="8">
-        <v>2693.8400000001998</v>
+        <v>2598.2848877473102</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -21325,13 +20779,14 @@
         <v>-0.5</v>
       </c>
       <c r="C88" s="21">
-        <v>2.0040080160321098E-2</v>
+        <f>$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D88" s="21">
-        <v>4.0080160320641302E-2</v>
+        <v>4.0579943306004299E-2</v>
       </c>
       <c r="E88" s="8">
-        <v>1740.83635000002</v>
+        <v>1719.3961921991399</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
@@ -21342,13 +20797,14 @@
         <v>-2.5</v>
       </c>
       <c r="C89" s="21">
-        <v>2.4E-2</v>
+        <f t="shared" ref="C89:C96" si="10">$C$4</f>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D89" s="21">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2459702825041901E-2</v>
       </c>
       <c r="E89" s="8">
-        <v>1315.3750000001201</v>
+        <v>844.562679203838</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -21359,13 +20815,14 @@
         <v>1.25</v>
       </c>
       <c r="C90" s="21">
-        <v>1.6E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D90" s="21">
-        <v>1.5999999999999601E-2</v>
+        <v>1.24597028250415E-2</v>
       </c>
       <c r="E90" s="8">
-        <v>688.93750000008004</v>
+        <v>884.69204721696599</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -21376,13 +20833,14 @@
         <v>-5</v>
       </c>
       <c r="C91" s="21">
-        <v>2.1999999999999999E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D91" s="21">
-        <v>5.9999999999999602E-3</v>
+        <v>8.4597028250419093E-3</v>
       </c>
       <c r="E91" s="8">
-        <v>807.99999999969396</v>
+        <v>573.069775648308</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -21393,13 +20851,14 @@
         <v>2.5</v>
       </c>
       <c r="C92" s="21">
-        <v>1.99999999999999E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D92" s="21">
-        <v>1.19999999999999E-2</v>
+        <v>1.2459702825041699E-2</v>
       </c>
       <c r="E92" s="8">
-        <v>2776.9583333332298</v>
+        <v>2674.5019899691601</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -21410,13 +20869,14 @@
         <v>-10</v>
       </c>
       <c r="C93" s="21">
-        <v>2.1999999999999999E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D93" s="21">
-        <v>6.9999999999999802E-3</v>
+        <v>9.4597028250418894E-3</v>
       </c>
       <c r="E93" s="8">
-        <v>1953.2857142850301</v>
+        <v>1445.39424259711</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -21427,13 +20887,14 @@
         <v>4</v>
       </c>
       <c r="C94" s="21">
-        <v>0.02</v>
+        <f t="shared" si="10"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D94" s="21">
-        <v>0.01</v>
+        <v>1.0459702825041901E-2</v>
       </c>
       <c r="E94" s="8">
-        <v>839.79999999937604</v>
+        <v>802.89087945097594</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -21444,13 +20905,14 @@
         <v>-20</v>
       </c>
       <c r="C95" s="21">
-        <v>2.2499999999999899E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D95" s="21">
-        <v>7.5000000000000197E-3</v>
+        <v>1.0459702825041901E-2</v>
       </c>
       <c r="E95" s="8">
-        <v>1979.8</v>
+        <v>1419.5910006592901</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -21461,13 +20923,14 @@
         <v>4</v>
       </c>
       <c r="C96" s="21">
-        <v>0.02</v>
+        <f t="shared" si="10"/>
+        <v>1.9540297174958102E-2</v>
       </c>
       <c r="D96" s="21">
-        <v>1.24999999999999E-2</v>
+        <v>1.2959702825041801E-2</v>
       </c>
       <c r="E96" s="8">
-        <v>1691.7999999999299</v>
+        <v>1631.7889604024001</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -21525,22 +20988,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="Z14:AB14"/>
     <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21568,24 +21031,24 @@
         <f>B2</f>
         <v>SOC</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="37">
         <f t="shared" ref="J2:L11" si="0">C2</f>
         <v>0.9</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37">
         <f>C13</f>
         <v>0.8</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37">
         <f>C24</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -22319,24 +21782,24 @@
         <f>B35</f>
         <v>SOC</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="37">
         <f>C35</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="28">
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="36">
         <f>C46</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28">
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36">
         <f>C57</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:73" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -22861,18 +22324,18 @@
         <f>B68</f>
         <v>SOC</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="37">
         <f>C68</f>
         <v>0.30000000000000016</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="28">
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="36">
         <f>C79</f>
         <v>0.20000000000000015</v>
       </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -24200,24 +23663,24 @@
         <f>B2</f>
         <v>SOC</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="41">
         <f>C2</f>
         <v>0.9</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="33">
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="41">
         <f>C14</f>
         <v>0.8</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="33">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="41">
         <f>C26</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="43"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -24279,42 +23742,42 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="39">
+      <c r="K4" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="29">
         <f t="shared" ref="K4:N12" si="0">C4</f>
         <v>1.4056224899597699E-2</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="29">
         <f t="shared" ref="M4" si="1">D4</f>
         <v>2.0080321285140101E-2</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="30">
         <f t="shared" ref="N4" si="2">E4</f>
         <v>9537.8453004001894</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="29">
         <f t="shared" ref="O4" si="3">C16</f>
         <v>1.6032064128256501E-2</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="29">
         <f t="shared" ref="P4" si="4">D16</f>
         <v>2.40480961923847E-2</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="30">
         <f t="shared" ref="Q4" si="5">E16</f>
         <v>17912.956458333301</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="29">
         <f t="shared" ref="R4" si="6">C28</f>
         <v>1.40562248995986E-2</v>
       </c>
-      <c r="S4" s="40">
+      <c r="S4" s="29">
         <f t="shared" ref="S4" si="7">D28</f>
         <v>3.0120481927710101E-2</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="30">
         <f t="shared" ref="T4" si="8">E28</f>
         <v>18293.9635170004</v>
       </c>
@@ -24339,39 +23802,39 @@
         <f t="shared" si="0"/>
         <v>-2.5</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="29">
         <f t="shared" si="0"/>
         <v>1.56062424969986E-2</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="29">
         <f t="shared" si="0"/>
         <v>6.8027210884355101E-3</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="30">
         <f t="shared" si="0"/>
         <v>2237.7806324999501</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="29">
         <f t="shared" ref="O5:Q12" si="9">C17</f>
         <v>1.5612489991993401E-2</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="29">
         <f t="shared" si="9"/>
         <v>8.0064051240992806E-3</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="30">
         <f t="shared" si="9"/>
         <v>5467.2476999998898</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="29">
         <f t="shared" ref="R5:T12" si="10">C29</f>
         <v>1.5212169735788501E-2</v>
       </c>
-      <c r="S5" s="40">
+      <c r="S5" s="29">
         <f t="shared" si="10"/>
         <v>8.4067253803043803E-3</v>
       </c>
-      <c r="T5" s="41">
+      <c r="T5" s="30">
         <f t="shared" si="10"/>
         <v>3205.52905928579</v>
       </c>
@@ -24396,39 +23859,39 @@
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="29">
         <f t="shared" si="0"/>
         <v>1.5187849720223899E-2</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="29">
         <f t="shared" si="0"/>
         <v>8.7929656274981002E-3</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="30">
         <f t="shared" si="0"/>
         <v>2328.2813065908699</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="29">
         <f t="shared" si="9"/>
         <v>1.5187849720223899E-2</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="29">
         <f t="shared" si="9"/>
         <v>8.7929656274973803E-3</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="30">
         <f t="shared" si="9"/>
         <v>1620.3858975001699</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="29">
         <f t="shared" si="10"/>
         <v>1.5187849720223899E-2</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="29">
         <f t="shared" si="10"/>
         <v>9.5923261390887405E-3</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="30">
         <f t="shared" si="10"/>
         <v>5055.9162393750503</v>
       </c>
@@ -24453,39 +23916,39 @@
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="29">
         <f t="shared" si="0"/>
         <v>1.5406162464985799E-2</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="29">
         <f t="shared" si="0"/>
         <v>7.0028011204482004E-3</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="30">
         <f t="shared" si="0"/>
         <v>4276.5740430000296</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="29">
         <f t="shared" si="9"/>
         <v>1.52E-2</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="29">
         <f t="shared" si="9"/>
         <v>7.8000000000000196E-3</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="30">
         <f t="shared" si="9"/>
         <v>5112.0509615385399</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="29">
         <f t="shared" si="10"/>
         <v>1.52E-2</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="29">
         <f t="shared" si="10"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="30">
         <f t="shared" si="10"/>
         <v>6527.8746874998797</v>
       </c>
@@ -24510,39 +23973,39 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="29">
         <f t="shared" si="0"/>
         <v>1.5193922431027599E-2</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="29">
         <f t="shared" si="0"/>
         <v>8.3966413434625707E-3</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="30">
         <f t="shared" si="0"/>
         <v>5924.6903571429302</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="29">
         <f t="shared" si="9"/>
         <v>1.4788169464428401E-2</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="29">
         <f t="shared" si="9"/>
         <v>8.3932853717025996E-3</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="30">
         <f t="shared" si="9"/>
         <v>4163.80457142862</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="29">
         <f t="shared" si="10"/>
         <v>1.4788169464428401E-2</v>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="29">
         <f t="shared" si="10"/>
         <v>8.3932853717025996E-3</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="30">
         <f t="shared" si="10"/>
         <v>5379.1212857144401</v>
       </c>
@@ -24567,39 +24030,39 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="29">
         <f t="shared" si="0"/>
         <v>1.52015201520151E-2</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="29">
         <f t="shared" si="0"/>
         <v>6.7006700670067098E-3</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="30">
         <f t="shared" si="0"/>
         <v>5547.7287537313096</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="29">
         <f t="shared" si="9"/>
         <v>1.5001500150014901E-2</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="29">
         <f t="shared" si="9"/>
         <v>7.1007100710071096E-3</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="30">
         <f t="shared" si="9"/>
         <v>8879.18241549304</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="29">
         <f t="shared" si="10"/>
         <v>1.5001500150015E-2</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="29">
         <f t="shared" si="10"/>
         <v>7.0007000700069797E-3</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="30">
         <f t="shared" si="10"/>
         <v>7695.4446642856801</v>
       </c>
@@ -24624,39 +24087,39 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="29">
         <f t="shared" si="0"/>
         <v>1.5246188452886699E-2</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="29">
         <f t="shared" si="0"/>
         <v>8.2479380154959897E-3</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="30">
         <f t="shared" si="0"/>
         <v>5810.3006969697599</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="29">
         <f t="shared" si="9"/>
         <v>1.4996250937265801E-2</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="29">
         <f t="shared" si="9"/>
         <v>7.9980004998750302E-3</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="30">
         <f t="shared" si="9"/>
         <v>5454.2379061719403</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="29">
         <f t="shared" si="10"/>
         <v>1.4992503748125901E-2</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="29">
         <f t="shared" si="10"/>
         <v>7.74612693653176E-3</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="30">
         <f t="shared" si="10"/>
         <v>7519.6285804839099</v>
       </c>
@@ -24681,39 +24144,39 @@
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="29">
         <f t="shared" si="0"/>
         <v>1.4900745037251801E-2</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="29">
         <f t="shared" si="0"/>
         <v>6.4003200160007998E-3</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="30">
         <f t="shared" si="0"/>
         <v>7393.9275507617704</v>
       </c>
-      <c r="O11" s="40">
+      <c r="O11" s="29">
         <f t="shared" si="9"/>
         <v>1.48507425371268E-2</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="29">
         <f t="shared" si="9"/>
         <v>6.0503025151257498E-3</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="30">
         <f t="shared" si="9"/>
         <v>8334.1287272728696</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="29">
         <f t="shared" si="10"/>
         <v>1.48507425371268E-2</v>
       </c>
-      <c r="S11" s="40">
+      <c r="S11" s="29">
         <f t="shared" si="10"/>
         <v>5.9502975148757499E-3</v>
       </c>
-      <c r="T11" s="41">
+      <c r="T11" s="30">
         <f t="shared" si="10"/>
         <v>10578.9672436766</v>
       </c>
@@ -24738,39 +24201,39 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="29">
         <f t="shared" si="0"/>
         <v>1.52385710716962E-2</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="29">
         <f t="shared" si="0"/>
         <v>9.4928803397452497E-3</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="30">
         <f t="shared" si="0"/>
         <v>6051.6405921052401</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="29">
         <f t="shared" si="9"/>
         <v>1.47463134216446E-2</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="29">
         <f t="shared" si="9"/>
         <v>8.9977505623593003E-3</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="30">
         <f t="shared" si="9"/>
         <v>6154.0939722917801</v>
       </c>
-      <c r="R12" s="40">
+      <c r="R12" s="29">
         <f t="shared" si="10"/>
         <v>1.47426286856572E-2</v>
       </c>
-      <c r="S12" s="40">
+      <c r="S12" s="29">
         <f t="shared" si="10"/>
         <v>8.9955022488755702E-3</v>
       </c>
-      <c r="T12" s="41">
+      <c r="T12" s="30">
         <f t="shared" si="10"/>
         <v>7181.14433333332</v>
       </c>
@@ -24798,24 +24261,24 @@
         <f>B38</f>
         <v>SOC</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="41">
         <f>C38</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36">
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44">
         <f>C50</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="36">
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="44">
         <f>C62</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="46"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
@@ -24877,42 +24340,42 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="8"/>
-      <c r="K16" s="39">
+      <c r="K16" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="29">
         <f t="shared" ref="L16" si="11">C40</f>
         <v>1.40280561122246E-2</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="29">
         <f t="shared" ref="M16" si="12">D40</f>
         <v>5.8116232464929599E-2</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="30">
         <f t="shared" ref="N16" si="13">E40</f>
         <v>11253.714706896601</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="29">
         <f t="shared" ref="O16" si="14">C52</f>
         <v>1.60642570281124E-2</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="29">
         <f t="shared" ref="P16" si="15">D52</f>
         <v>1.80722891566262E-2</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="30">
         <f t="shared" ref="Q16" si="16">E52</f>
         <v>12368.2725283334</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="34">
         <f t="shared" ref="R16" si="17">C64</f>
         <v>1.6032064128256501E-2</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="34">
         <f t="shared" ref="S16" si="18">D64</f>
         <v>2.6052104208416599E-2</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="35">
         <f t="shared" ref="T16" si="19">E64</f>
         <v>19394.748153846202</v>
       </c>
@@ -24937,39 +24400,39 @@
         <f t="shared" ref="K17:N24" si="20">B41</f>
         <v>-2.5</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="29">
         <f t="shared" si="20"/>
         <v>1.5212169735788501E-2</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="29">
         <f t="shared" si="20"/>
         <v>7.6060848678943596E-3</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="30">
         <f t="shared" si="20"/>
         <v>4318.6475789470896</v>
       </c>
-      <c r="O17" s="40">
+      <c r="O17" s="29">
         <f t="shared" ref="O17:Q24" si="21">C53</f>
         <v>1.48059223689475E-2</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="29">
         <f t="shared" si="21"/>
         <v>6.0024009603841999E-3</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="30">
         <f t="shared" si="21"/>
         <v>6605.6066999998602</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="34">
         <f t="shared" ref="R17:T24" si="22">C65</f>
         <v>1.5199999999999899E-2</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="34">
         <f t="shared" si="22"/>
         <v>5.6000000000000901E-3</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="35">
         <f t="shared" si="22"/>
         <v>6361.1607142858402</v>
       </c>
@@ -24994,39 +24457,39 @@
         <f t="shared" si="20"/>
         <v>1.25</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="29">
         <f t="shared" si="20"/>
         <v>1.5187849720223899E-2</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="29">
         <f t="shared" si="20"/>
         <v>8.7929656274981002E-3</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="30">
         <f t="shared" si="20"/>
         <v>3570.8089090909798</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="29">
         <f t="shared" si="21"/>
         <v>1.51999999999997E-2</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="29">
         <f t="shared" si="21"/>
         <v>7.1999999999999096E-3</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="30">
         <f t="shared" si="21"/>
         <v>2524.02777777764</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="34">
         <f t="shared" si="22"/>
         <v>1.51757188498403E-2</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="34">
         <f t="shared" si="22"/>
         <v>7.18849840255582E-3</v>
       </c>
-      <c r="T18" s="46">
+      <c r="T18" s="35">
         <f t="shared" si="22"/>
         <v>2437.7135555554901</v>
       </c>
@@ -25051,39 +24514,39 @@
         <f t="shared" si="20"/>
         <v>-5</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="29">
         <f t="shared" si="20"/>
         <v>1.52E-2</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M19" s="29">
         <f t="shared" si="20"/>
         <v>7.0000000000000201E-3</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="30">
         <f t="shared" si="20"/>
         <v>7999.7853571429096</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="29">
         <f t="shared" si="21"/>
         <v>1.5003000600119901E-2</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="29">
         <f t="shared" si="21"/>
         <v>5.4010802160432301E-3</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="30">
         <f t="shared" si="21"/>
         <v>5563.5167037034998</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="34">
         <f t="shared" si="22"/>
         <v>1.5006002400960301E-2</v>
       </c>
-      <c r="S19" s="45">
+      <c r="S19" s="34">
         <f t="shared" si="22"/>
         <v>5.60224089635854E-3</v>
       </c>
-      <c r="T19" s="46">
+      <c r="T19" s="35">
         <f t="shared" si="22"/>
         <v>9138.8430000000408</v>
       </c>
@@ -25108,39 +24571,39 @@
         <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="29">
         <f t="shared" si="20"/>
         <v>1.4788169464428401E-2</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="29">
         <f t="shared" si="20"/>
         <v>7.9936051159072794E-3</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="30">
         <f t="shared" si="20"/>
         <v>4837.9922999998498</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="29">
         <f t="shared" si="21"/>
         <v>1.4788169464428401E-2</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="29">
         <f t="shared" si="21"/>
         <v>6.7945643485211402E-3</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="30">
         <f t="shared" si="21"/>
         <v>2406.0409411761998</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="34">
         <f t="shared" si="22"/>
         <v>1.47940823670531E-2</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="34">
         <f t="shared" si="22"/>
         <v>7.1971211515393001E-3</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T20" s="35">
         <f t="shared" si="22"/>
         <v>6168.9249166666395</v>
       </c>
@@ -25165,39 +24628,39 @@
         <f t="shared" si="20"/>
         <v>-10</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="29">
         <f t="shared" si="20"/>
         <v>1.500300060012E-2</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="29">
         <f t="shared" si="20"/>
         <v>5.8011602320464303E-3</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="30">
         <f t="shared" si="20"/>
         <v>8980.6173103450892</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="29">
         <f t="shared" si="21"/>
         <v>1.5001500150014901E-2</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="29">
         <f t="shared" si="21"/>
         <v>5.2005200520051998E-3</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="30">
         <f t="shared" si="21"/>
         <v>5556.84810576979</v>
       </c>
-      <c r="R21" s="45">
+      <c r="R21" s="34">
         <f t="shared" si="22"/>
         <v>1.50999999999999E-2</v>
       </c>
-      <c r="S21" s="45">
+      <c r="S21" s="34">
         <f t="shared" si="22"/>
         <v>5.3999999999999803E-3</v>
       </c>
-      <c r="T21" s="46">
+      <c r="T21" s="35">
         <f t="shared" si="22"/>
         <v>9499.5370370371693</v>
       </c>
@@ -25222,39 +24685,39 @@
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="29">
         <f t="shared" si="20"/>
         <v>1.4746313421644499E-2</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="29">
         <f t="shared" si="20"/>
         <v>7.74806298425397E-3</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="30">
         <f t="shared" si="20"/>
         <v>6723.9386290322</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="29">
         <f t="shared" si="21"/>
         <v>1.4996250937265599E-2</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="29">
         <f t="shared" si="21"/>
         <v>6.9982504373906499E-3</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="30">
         <f t="shared" si="21"/>
         <v>6219.0543749998697</v>
       </c>
-      <c r="R22" s="45">
+      <c r="R22" s="34">
         <f t="shared" si="22"/>
         <v>1.47463134216446E-2</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="34">
         <f t="shared" si="22"/>
         <v>7.2481879530117196E-3</v>
       </c>
-      <c r="T22" s="46">
+      <c r="T22" s="35">
         <f t="shared" si="22"/>
         <v>5656.4482413792903</v>
       </c>
@@ -25276,39 +24739,39 @@
         <f t="shared" si="20"/>
         <v>-20</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="29">
         <f t="shared" si="20"/>
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="29">
         <f t="shared" si="20"/>
         <v>4.9999999999999802E-3</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="30">
         <f t="shared" si="20"/>
         <v>13919.600500000501</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="29">
         <f t="shared" si="21"/>
         <v>1.4900745037251801E-2</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="29">
         <f t="shared" si="21"/>
         <v>5.0002500125006198E-3</v>
       </c>
-      <c r="Q23" s="41">
+      <c r="Q23" s="30">
         <f t="shared" si="21"/>
         <v>12833.858275000101</v>
       </c>
-      <c r="R23" s="45">
+      <c r="R23" s="34">
         <f t="shared" si="22"/>
         <v>1.51007550377518E-2</v>
       </c>
-      <c r="S23" s="45">
+      <c r="S23" s="34">
         <f t="shared" si="22"/>
         <v>5.0002500125006198E-3</v>
       </c>
-      <c r="T23" s="46">
+      <c r="T23" s="35">
         <f t="shared" si="22"/>
         <v>10689.06552</v>
       </c>
@@ -25333,39 +24796,39 @@
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="29">
         <f t="shared" si="20"/>
         <v>1.49962509372655E-2</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="29">
         <f t="shared" si="20"/>
         <v>8.4978755311172806E-3</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="30">
         <f t="shared" si="20"/>
         <v>6875.0124411762799</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="29">
         <f t="shared" si="21"/>
         <v>1.4992503748125901E-2</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="29">
         <f t="shared" si="21"/>
         <v>7.9960019990004995E-3</v>
       </c>
-      <c r="Q24" s="41">
+      <c r="Q24" s="30">
         <f t="shared" si="21"/>
         <v>3182.5905000000298</v>
       </c>
-      <c r="R24" s="45">
+      <c r="R24" s="34">
         <f t="shared" si="22"/>
         <v>1.4746313421644499E-2</v>
       </c>
-      <c r="S24" s="45">
+      <c r="S24" s="34">
         <f t="shared" si="22"/>
         <v>8.4978755311172806E-3</v>
       </c>
-      <c r="T24" s="46">
+      <c r="T24" s="35">
         <f t="shared" si="22"/>
         <v>5271.6705294120202</v>
       </c>
@@ -25396,18 +24859,18 @@
         <f>B74</f>
         <v>SOC</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="41">
         <f>C74</f>
         <v>0.30000000000000016</v>
       </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="36">
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="44">
         <f>C86</f>
         <v>0.20000000000000015</v>
       </c>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="38"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="46"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
@@ -25460,30 +24923,30 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="8"/>
-      <c r="K28" s="39">
+      <c r="K28" s="28">
         <v>-0.5</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="29">
         <f t="shared" ref="L28" si="23">C76</f>
         <v>1.6E-2</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="29">
         <f t="shared" ref="M28" si="24">D76</f>
         <v>2.4E-2</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="30">
         <f t="shared" ref="N28" si="25">E76</f>
         <v>25073.854166666901</v>
       </c>
-      <c r="O28" s="40">
+      <c r="O28" s="29">
         <f t="shared" ref="O28" si="26">C88</f>
         <v>1.6032064128256501E-2</v>
       </c>
-      <c r="P28" s="40">
+      <c r="P28" s="29">
         <f t="shared" ref="P28" si="27">D88</f>
         <v>2.40480961923847E-2</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="30">
         <f t="shared" ref="Q28" si="28">E88</f>
         <v>19358.008479166499</v>
       </c>
@@ -25508,27 +24971,27 @@
         <f t="shared" ref="K29:N36" si="29">B77</f>
         <v>-2.5</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="29">
         <f t="shared" si="29"/>
         <v>1.5199999999999899E-2</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="29">
         <f t="shared" si="29"/>
         <v>5.2000000000001299E-3</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="30">
         <f t="shared" si="29"/>
         <v>2893.8461538465499</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O29" s="29">
         <f t="shared" ref="O29:Q36" si="30">C89</f>
         <v>1.60064025610244E-2</v>
       </c>
-      <c r="P29" s="40">
+      <c r="P29" s="29">
         <f t="shared" si="30"/>
         <v>5.2020808323328897E-3</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="30">
         <f t="shared" si="30"/>
         <v>2133.5693076927</v>
       </c>
@@ -25553,27 +25016,27 @@
         <f t="shared" si="29"/>
         <v>1.25</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="29">
         <f t="shared" si="29"/>
         <v>1.51878497202235E-2</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="29">
         <f t="shared" si="29"/>
         <v>7.1942446043164604E-3</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="30">
         <f t="shared" si="29"/>
         <v>2668.5219999995602</v>
       </c>
-      <c r="O30" s="40">
+      <c r="O30" s="29">
         <f t="shared" si="30"/>
         <v>1.59872102318145E-2</v>
       </c>
-      <c r="P30" s="40">
+      <c r="P30" s="29">
         <f t="shared" si="30"/>
         <v>7.1942446043164604E-3</v>
       </c>
-      <c r="Q30" s="41">
+      <c r="Q30" s="30">
         <f t="shared" si="30"/>
         <v>2505.1969999991602</v>
       </c>
@@ -25598,27 +25061,27 @@
         <f t="shared" si="29"/>
         <v>-5</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="29">
         <f t="shared" si="29"/>
         <v>1.5203040608121599E-2</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="29">
         <f t="shared" si="29"/>
         <v>5.2010402080415602E-3</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="30">
         <f t="shared" si="29"/>
         <v>5162.1404423077402</v>
       </c>
-      <c r="O31" s="40">
+      <c r="O31" s="29">
         <f t="shared" si="30"/>
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="P31" s="40">
+      <c r="P31" s="29">
         <f t="shared" si="30"/>
         <v>5.4000000000000202E-3</v>
       </c>
-      <c r="Q31" s="41">
+      <c r="Q31" s="30">
         <f t="shared" si="30"/>
         <v>4601.5740740740603</v>
       </c>
@@ -25643,27 +25106,27 @@
         <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="29">
         <f t="shared" si="29"/>
         <v>1.5187849720223899E-2</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="29">
         <f t="shared" si="29"/>
         <v>6.7945643485211402E-3</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="30">
         <f t="shared" si="29"/>
         <v>2534.7467647064</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O32" s="29">
         <f t="shared" si="30"/>
         <v>1.55875299760192E-2</v>
       </c>
-      <c r="P32" s="40">
+      <c r="P32" s="29">
         <f t="shared" si="30"/>
         <v>7.1942446043166399E-3</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="30">
         <f t="shared" si="30"/>
         <v>2227.12749999984</v>
       </c>
@@ -25685,27 +25148,27 @@
         <f t="shared" si="29"/>
         <v>-10</v>
       </c>
-      <c r="L33" s="40">
+      <c r="L33" s="29">
         <f t="shared" si="29"/>
         <v>1.5403080616123201E-2</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="29">
         <f t="shared" si="29"/>
         <v>5.1010202040407803E-3</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="30">
         <f t="shared" si="29"/>
         <v>8125.4334117655198</v>
       </c>
-      <c r="O33" s="40">
+      <c r="O33" s="29">
         <f t="shared" si="30"/>
         <v>1.5901590159015901E-2</v>
       </c>
-      <c r="P33" s="40">
+      <c r="P33" s="29">
         <f t="shared" si="30"/>
         <v>5.0005000500049799E-3</v>
       </c>
-      <c r="Q33" s="41">
+      <c r="Q33" s="30">
         <f t="shared" si="30"/>
         <v>5844.11553000003</v>
       </c>
@@ -25730,27 +25193,27 @@
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="29">
         <f t="shared" si="29"/>
         <v>1.5242378810594599E-2</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="29">
         <f t="shared" si="29"/>
         <v>7.4962518740629199E-3</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="30">
         <f t="shared" si="29"/>
         <v>4325.2282000003597</v>
       </c>
-      <c r="O34" s="40">
+      <c r="O34" s="29">
         <f t="shared" si="30"/>
         <v>1.5492253873063499E-2</v>
       </c>
-      <c r="P34" s="40">
+      <c r="P34" s="29">
         <f t="shared" si="30"/>
         <v>7.4962518740629104E-3</v>
       </c>
-      <c r="Q34" s="41">
+      <c r="Q34" s="30">
         <f t="shared" si="30"/>
         <v>2914.52319999977</v>
       </c>
@@ -25775,27 +25238,27 @@
         <f t="shared" si="29"/>
         <v>-20</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="29">
         <f t="shared" si="29"/>
         <v>1.54E-2</v>
       </c>
-      <c r="M35" s="40">
+      <c r="M35" s="29">
         <f t="shared" si="29"/>
         <v>5.0499999999999903E-3</v>
       </c>
-      <c r="N35" s="41">
+      <c r="N35" s="30">
         <f t="shared" si="29"/>
         <v>12519.504950495</v>
       </c>
-      <c r="O35" s="40">
+      <c r="O35" s="29">
         <f t="shared" si="30"/>
         <v>1.6149999999999901E-2</v>
       </c>
-      <c r="P35" s="40">
+      <c r="P35" s="29">
         <f t="shared" si="30"/>
         <v>4.9499999999999796E-3</v>
       </c>
-      <c r="Q35" s="41">
+      <c r="Q35" s="30">
         <f t="shared" si="30"/>
         <v>7656.2626262632402</v>
       </c>
@@ -25820,27 +25283,27 @@
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="29">
         <f t="shared" si="29"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="29">
         <f t="shared" si="29"/>
         <v>9.5000000000000605E-3</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N36" s="30">
         <f t="shared" si="29"/>
         <v>5544.5789473680798</v>
       </c>
-      <c r="O36" s="40">
+      <c r="O36" s="29">
         <f t="shared" si="30"/>
         <v>1.5246188452886699E-2</v>
       </c>
-      <c r="P36" s="40">
+      <c r="P36" s="29">
         <f t="shared" si="30"/>
         <v>9.2476880779805894E-3</v>
       </c>
-      <c r="Q36" s="41">
+      <c r="Q36" s="30">
         <f t="shared" si="30"/>
         <v>3706.1154864865598</v>
       </c>
@@ -26780,24 +26243,24 @@
         <f>B2</f>
         <v>SOC</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="41">
         <f t="shared" ref="J2:L11" si="0">C2</f>
         <v>0.9</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="33">
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="41">
         <f>C13</f>
         <v>0.8</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="33">
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="41">
         <f>C24</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -27295,24 +26758,24 @@
         <f>B35</f>
         <v>SOC</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="41">
         <f>C35</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36">
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44">
         <f>C46</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="36">
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="44">
         <f>C57</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="38"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -27810,18 +27273,18 @@
         <f>B68</f>
         <v>SOC</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="41">
         <f>C68</f>
         <v>0.30000000000000016</v>
       </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36">
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44">
         <f>C79</f>
         <v>0.20000000000000015</v>
       </c>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="46"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yourf\Documents\Uni\Year 4\FCTT\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0397008B-6826-4E2C-8CB2-F61A719BA4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F8A74A-9C82-4ACA-AA22-7C572E1FBB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{79AA0B8A-E75B-4FBB-B34A-8889349EC4E4}"/>
   </bookViews>
@@ -1943,7 +1943,7 @@
                   <c:v>1.8007202881152401E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2000000000000101E-2</c:v>
+                  <c:v>1.50000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.48059223689475E-2</c:v>
@@ -2389,7 +2389,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2000000000000101E-2</c:v>
+                  <c:v>1.50000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2000000000000101E-2</c:v>
@@ -10094,8 +10094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5411A1-68EA-4A54-833A-164AC2F8C88F}">
   <dimension ref="B2:BV96"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:T12"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="M17" s="29">
         <f t="shared" si="21"/>
-        <v>1.2000000000000101E-2</v>
+        <v>1.50000000000001E-2</v>
       </c>
       <c r="N17" s="30">
         <f t="shared" si="21"/>
@@ -11974,7 +11974,7 @@
         <v>4.3599999999999903E-2</v>
       </c>
       <c r="D41" s="21">
-        <v>1.2000000000000101E-2</v>
+        <v>1.50000000000001E-2</v>
       </c>
       <c r="E41" s="8">
         <v>678.20833333340499</v>
@@ -15070,7 +15070,7 @@
   <dimension ref="B2:BU106"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L28:Q29"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18148,7 +18148,7 @@
   <dimension ref="B2:BR106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18245,6 +18245,8 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="K3" s="20" t="s">
         <v>16</v>
       </c>
@@ -18324,13 +18326,13 @@
         <v>-0.5</v>
       </c>
       <c r="C4" s="21">
-        <v>1.9540297174958102E-2</v>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D4" s="21">
-        <v>4.0459702825042299E-2</v>
+        <v>4.0445312500000399E-2</v>
       </c>
       <c r="E4" s="8">
-        <v>606.10927757041395</v>
+        <v>606.32492949584196</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -18339,28 +18341,28 @@
         <v>-0.5</v>
       </c>
       <c r="L4" s="29">
-        <f>D4</f>
-        <v>4.0459702825042299E-2</v>
+        <f t="shared" ref="L4:L12" si="0">D4</f>
+        <v>4.0445312500000399E-2</v>
       </c>
       <c r="M4" s="30">
-        <f>E4</f>
-        <v>606.10927757041395</v>
+        <f t="shared" ref="M4:M12" si="1">E4</f>
+        <v>606.32492949584196</v>
       </c>
       <c r="N4" s="29">
-        <f>D16</f>
-        <v>4.0579943306004299E-2</v>
+        <f t="shared" ref="N4:N12" si="2">D16</f>
+        <v>4.0565552980962302E-2</v>
       </c>
       <c r="O4" s="30">
-        <f>E16</f>
-        <v>1737.8905502207799</v>
+        <f t="shared" ref="O4:O12" si="3">E16</f>
+        <v>1738.5070538320299</v>
       </c>
       <c r="P4" s="29">
-        <f>D28</f>
-        <v>6.0780987965604202E-2</v>
+        <f t="shared" ref="P4:P12" si="4">D28</f>
+        <v>6.0766597640562303E-2</v>
       </c>
       <c r="Q4" s="30">
-        <f>E28</f>
-        <v>1160.28880675497</v>
+        <f t="shared" ref="Q4:Q12" si="5">E28</f>
+        <v>1160.56357831895</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -18421,45 +18423,45 @@
       </c>
       <c r="C5" s="21">
         <f>$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D5" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E5" s="8">
-        <v>515.54199086431697</v>
+        <v>516.13810420589004</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="K5" s="11">
-        <f t="shared" ref="K5:K12" si="0">B5</f>
+        <f t="shared" ref="K5:K12" si="6">B5</f>
         <v>-2.5</v>
       </c>
       <c r="L5" s="29">
-        <f>D5</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="M5" s="30">
-        <f>E5</f>
-        <v>515.54199086431697</v>
+        <f t="shared" si="1"/>
+        <v>516.13810420589004</v>
       </c>
       <c r="N5" s="29">
-        <f>D17</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="O5" s="30">
-        <f>E17</f>
-        <v>1869.90816130645</v>
+        <f t="shared" si="3"/>
+        <v>1872.0703075956401</v>
       </c>
       <c r="P5" s="29">
-        <f>D29</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="Q5" s="30">
-        <f>E29</f>
-        <v>1671.22786092045</v>
+        <f t="shared" si="5"/>
+        <v>1673.1602762083501</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -18518,46 +18520,46 @@
         <v>1.25</v>
       </c>
       <c r="C6" s="21">
-        <f t="shared" ref="C6:C12" si="1">$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" ref="C6:C12" si="7">$C$4</f>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D6" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E6" s="8">
-        <v>720.16163836313297</v>
+        <v>720.99435028248104</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="K6" s="11">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="L6" s="29">
         <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="L6" s="29">
-        <f>D6</f>
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="M6" s="30">
-        <f>E6</f>
-        <v>720.16163836313297</v>
+        <f t="shared" si="1"/>
+        <v>720.99435028248104</v>
       </c>
       <c r="N6" s="29">
-        <f>D18</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="O6" s="30">
-        <f>E18</f>
-        <v>605.79293952584896</v>
+        <f t="shared" si="3"/>
+        <v>606.49340866295404</v>
       </c>
       <c r="P6" s="29">
-        <f>D30</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="Q6" s="30">
-        <f>E30</f>
-        <v>981.00253044829901</v>
+        <f t="shared" si="5"/>
+        <v>982.136848713115</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -18614,46 +18616,46 @@
         <v>-5</v>
       </c>
       <c r="C7" s="21">
-        <f t="shared" si="1"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D7" s="21">
-        <v>1.0459702825041901E-2</v>
+        <v>1.04453125E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>1367.0560473062501</v>
+        <v>1368.9394166043201</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="K7" s="11">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="L7" s="29">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="L7" s="29">
-        <f>D7</f>
-        <v>1.0459702825041901E-2</v>
+        <v>1.04453125E-2</v>
       </c>
       <c r="M7" s="30">
-        <f>E7</f>
-        <v>1367.0560473062501</v>
+        <f t="shared" si="1"/>
+        <v>1368.9394166043201</v>
       </c>
       <c r="N7" s="29">
-        <f>D19</f>
-        <v>1.04597028250418E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0445312499999901E-2</v>
       </c>
       <c r="O7" s="30">
-        <f>E19</f>
-        <v>1020.44008118904</v>
+        <f t="shared" si="3"/>
+        <v>1021.8459237096999</v>
       </c>
       <c r="P7" s="29">
-        <f>D31</f>
-        <v>8.4597028250419093E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="Q7" s="30">
-        <f>E31</f>
-        <v>1323.6871591813799</v>
+        <f t="shared" si="5"/>
+        <v>1325.9426456982401</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="26"/>
@@ -18671,46 +18673,46 @@
         <v>2.5</v>
       </c>
       <c r="C8" s="21">
-        <f t="shared" si="1"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D8" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E8" s="8">
-        <v>1438.5176558124999</v>
+        <v>1440.1809918392801</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="K8" s="11">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="L8" s="29">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="L8" s="29">
-        <f>D8</f>
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="M8" s="30">
-        <f>E8</f>
-        <v>1438.5176558124999</v>
+        <f t="shared" si="1"/>
+        <v>1440.1809918392801</v>
       </c>
       <c r="N8" s="29">
-        <f>D20</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="O8" s="30">
-        <f>E20</f>
-        <v>1340.1603741655899</v>
+        <f t="shared" si="3"/>
+        <v>1341.7099811676301</v>
       </c>
       <c r="P8" s="29">
-        <f>D32</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="Q8" s="30">
-        <f>E32</f>
-        <v>2297.28593064605</v>
+        <f t="shared" si="5"/>
+        <v>2299.9422473320501</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="26"/>
@@ -18728,46 +18730,46 @@
         <v>-10</v>
       </c>
       <c r="C9" s="21">
-        <f t="shared" si="1"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D9" s="21">
-        <v>9.4597028250419397E-3</v>
+        <v>9.4453125000000197E-3</v>
       </c>
       <c r="E9" s="8">
-        <v>4067.0410806302798</v>
+        <v>4073.2373862696199</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="K9" s="11">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="L9" s="29">
         <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="L9" s="29">
-        <f>D9</f>
-        <v>9.4597028250419397E-3</v>
+        <v>9.4453125000000197E-3</v>
       </c>
       <c r="M9" s="30">
-        <f>E9</f>
-        <v>4067.0410806302798</v>
+        <f t="shared" si="1"/>
+        <v>4073.2373862696199</v>
       </c>
       <c r="N9" s="29">
-        <f>D21</f>
-        <v>8.4597028250419093E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="O9" s="30">
-        <f>E21</f>
-        <v>1837.9487224980501</v>
+        <f t="shared" si="3"/>
+        <v>1841.08048103595</v>
       </c>
       <c r="P9" s="29">
-        <f>D33</f>
-        <v>8.4597028250419093E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="Q9" s="30">
-        <f>E33</f>
-        <v>5073.9368022407198</v>
+        <f t="shared" si="5"/>
+        <v>5082.58249768732</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="26"/>
@@ -18785,46 +18787,46 @@
         <v>4</v>
       </c>
       <c r="C10" s="21">
-        <f t="shared" si="1"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D10" s="21">
-        <v>1.2959702825041801E-2</v>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="E10" s="8">
-        <v>2808.51347375571</v>
+        <v>2811.6354858177501</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="K10" s="11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="29">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L10" s="29">
-        <f>D10</f>
-        <v>1.2959702825041801E-2</v>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="M10" s="30">
-        <f>E10</f>
-        <v>2808.51347375571</v>
+        <f t="shared" si="1"/>
+        <v>2811.6354858177501</v>
       </c>
       <c r="N10" s="29">
-        <f>D22</f>
-        <v>1.2959702825041801E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="O10" s="30">
-        <f>E22</f>
-        <v>2372.58526797278</v>
+        <f t="shared" si="3"/>
+        <v>2375.22269161132</v>
       </c>
       <c r="P10" s="29">
-        <f>D34</f>
-        <v>1.2959702825041899E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.29453125E-2</v>
       </c>
       <c r="Q10" s="30">
-        <f>E34</f>
-        <v>5333.6483431111901</v>
+        <f t="shared" si="5"/>
+        <v>5339.5773566685402</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="26"/>
@@ -18842,46 +18844,46 @@
         <v>-20</v>
       </c>
       <c r="C11" s="21">
-        <f t="shared" si="1"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D11" s="21">
-        <v>7.4597028250418702E-3</v>
+        <v>7.4453124999999598E-3</v>
       </c>
       <c r="E11" s="8">
-        <v>3558.9219333078199</v>
+        <v>3565.8006295907599</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="K11" s="11">
+        <f t="shared" si="6"/>
+        <v>-20</v>
+      </c>
+      <c r="L11" s="29">
         <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="L11" s="29">
-        <f>D11</f>
-        <v>7.4597028250418702E-3</v>
+        <v>7.4453124999999598E-3</v>
       </c>
       <c r="M11" s="30">
-        <f>E11</f>
-        <v>3558.9219333078199</v>
+        <f t="shared" si="1"/>
+        <v>3565.8006295907599</v>
       </c>
       <c r="N11" s="29">
-        <f>D23</f>
-        <v>6.4597028250418902E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.4453124999999797E-3</v>
       </c>
       <c r="O11" s="30">
-        <f>E23</f>
-        <v>5394.5980092008003</v>
+        <f t="shared" si="3"/>
+        <v>5406.64242424241</v>
       </c>
       <c r="P11" s="29">
-        <f>D35</f>
-        <v>6.4597028250418902E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.4453124999999797E-3</v>
       </c>
       <c r="Q11" s="30">
-        <f>E35</f>
-        <v>10987.037936925401</v>
+        <f t="shared" si="5"/>
+        <v>11011.5684848485</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="26"/>
@@ -18899,46 +18901,46 @@
         <v>4</v>
       </c>
       <c r="C12" s="21">
-        <f t="shared" si="1"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D12" s="21">
-        <v>1.2959702825041801E-2</v>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="E12" s="8">
-        <v>767.61019402212003</v>
+        <v>768.46348823170104</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="K12" s="11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="29">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="29">
-        <f>D12</f>
-        <v>1.2959702825041801E-2</v>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="M12" s="30">
-        <f>E12</f>
-        <v>767.61019402212003</v>
+        <f t="shared" si="1"/>
+        <v>768.46348823170104</v>
       </c>
       <c r="N12" s="29">
-        <f>D24</f>
-        <v>1.5459702825041799E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.54453124999999E-2</v>
       </c>
       <c r="O12" s="30">
-        <f>E24</f>
-        <v>3879.3436509564799</v>
+        <f t="shared" si="3"/>
+        <v>3882.9580171978</v>
       </c>
       <c r="P12" s="29">
-        <f>D36</f>
-        <v>1.2959702825041801E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="Q12" s="30">
-        <f>E36</f>
-        <v>835.12717429655595</v>
+        <f t="shared" si="5"/>
+        <v>836.05552202778802</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="26"/>
@@ -19054,13 +19056,13 @@
       </c>
       <c r="C16" s="21">
         <f>$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D16" s="21">
-        <v>4.0579943306004299E-2</v>
+        <v>4.0565552980962302E-2</v>
       </c>
       <c r="E16" s="8">
-        <v>1737.8905502207799</v>
+        <v>1738.5070538320299</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="1"/>
@@ -19070,28 +19072,28 @@
         <v>-0.5</v>
       </c>
       <c r="L16" s="29">
-        <f>D40</f>
-        <v>8.0660103626645593E-2</v>
+        <f t="shared" ref="L16:L24" si="8">D40</f>
+        <v>8.0645713301603694E-2</v>
       </c>
       <c r="M16" s="30">
-        <f>E40</f>
-        <v>5216.6248378212904</v>
+        <f t="shared" ref="M16:M24" si="9">E40</f>
+        <v>5217.5556861449604</v>
       </c>
       <c r="N16" s="29">
-        <f>D52</f>
-        <v>2.05398631456832E-2</v>
+        <f t="shared" ref="N16:N24" si="10">D52</f>
+        <v>2.05254728206412E-2</v>
       </c>
       <c r="O16" s="30">
-        <f>E52</f>
-        <v>609.71681803220702</v>
+        <f t="shared" ref="O16:O24" si="11">E52</f>
+        <v>610.14428799948496</v>
       </c>
       <c r="P16" s="29">
-        <f>D64</f>
-        <v>4.0579943306004299E-2</v>
+        <f t="shared" ref="P16:P24" si="12">D64</f>
+        <v>4.0565552980962302E-2</v>
       </c>
       <c r="Q16" s="30">
-        <f>E64</f>
-        <v>702.88417568530804</v>
+        <f t="shared" ref="Q16:Q24" si="13">E64</f>
+        <v>703.13351856397401</v>
       </c>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
@@ -19109,46 +19111,46 @@
         <v>-2.5</v>
       </c>
       <c r="C17" s="21">
-        <f t="shared" ref="C17:C24" si="2">$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" ref="C17:C24" si="14">$C$4</f>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D17" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E17" s="8">
-        <v>1869.90816130645</v>
+        <v>1872.0703075956401</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="K17" s="11">
-        <f t="shared" ref="K17:K24" si="3">B41</f>
+        <f t="shared" ref="K17:K24" si="15">B41</f>
         <v>-2.5</v>
       </c>
       <c r="L17" s="29">
-        <f>D41</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="M17" s="30">
-        <f>E41</f>
-        <v>1271.9805779113101</v>
+        <f t="shared" si="9"/>
+        <v>1273.4513496547399</v>
       </c>
       <c r="N17" s="29">
-        <f>D53</f>
-        <v>8.4597028250419995E-3</v>
+        <f t="shared" si="10"/>
+        <v>8.4453125000000899E-3</v>
       </c>
       <c r="O17" s="30">
-        <f>E53</f>
-        <v>635.18779691588304</v>
+        <f t="shared" si="11"/>
+        <v>636.270120259191</v>
       </c>
       <c r="P17" s="29">
-        <f>D65</f>
-        <v>8.4597028250419995E-3</v>
+        <f t="shared" si="12"/>
+        <v>8.4453125000000899E-3</v>
       </c>
       <c r="Q17" s="30">
-        <f>E65</f>
-        <v>434.17600782928503</v>
+        <f t="shared" si="13"/>
+        <v>434.91581868626201</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="26"/>
@@ -19166,46 +19168,46 @@
         <v>1.25</v>
       </c>
       <c r="C18" s="21">
-        <f t="shared" si="2"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D18" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E18" s="8">
-        <v>605.79293952584896</v>
+        <v>606.49340866295404</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="K18" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.25</v>
       </c>
       <c r="L18" s="29">
-        <f>D42</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="M18" s="30">
-        <f>E42</f>
-        <v>132.22606695619399</v>
+        <f t="shared" si="9"/>
+        <v>132.37895794085301</v>
       </c>
       <c r="N18" s="29">
-        <f>D54</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="O18" s="30">
-        <f>E54</f>
-        <v>862.661024177493</v>
+        <f t="shared" si="11"/>
+        <v>863.65850596341897</v>
       </c>
       <c r="P18" s="29">
-        <f>D66</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="Q18" s="30">
-        <f>E66</f>
-        <v>2357.3997239298101</v>
+        <f t="shared" si="13"/>
+        <v>2360.1255492781902</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="26"/>
@@ -19223,46 +19225,46 @@
         <v>-5</v>
       </c>
       <c r="C19" s="21">
-        <f t="shared" si="2"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D19" s="21">
-        <v>1.04597028250418E-2</v>
+        <v>1.0445312499999901E-2</v>
       </c>
       <c r="E19" s="8">
-        <v>1020.44008118904</v>
+        <v>1021.8459237096999</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="K19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="L19" s="29">
-        <f>D43</f>
-        <v>8.4597028250418208E-3</v>
+        <f t="shared" si="8"/>
+        <v>8.4453124999999095E-3</v>
       </c>
       <c r="M19" s="30">
-        <f>E43</f>
-        <v>1415.41614967341</v>
+        <f t="shared" si="9"/>
+        <v>1417.8279370955299</v>
       </c>
       <c r="N19" s="29">
-        <f>D55</f>
-        <v>8.4597028250419093E-3</v>
+        <f t="shared" si="10"/>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="O19" s="30">
-        <f>E55</f>
-        <v>2325.5545031398001</v>
+        <f t="shared" si="11"/>
+        <v>2329.5171137836201</v>
       </c>
       <c r="P19" s="29">
-        <f>D67</f>
-        <v>8.4597028250419093E-3</v>
+        <f t="shared" si="12"/>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="Q19" s="30">
-        <f>E67</f>
-        <v>1604.3707776379399</v>
+        <f t="shared" si="13"/>
+        <v>1607.1045328397699</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.3">
@@ -19270,46 +19272,46 @@
         <v>2.5</v>
       </c>
       <c r="C20" s="21">
-        <f t="shared" si="2"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D20" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E20" s="8">
-        <v>1340.1603741655899</v>
+        <v>1341.7099811676301</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="K20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="L20" s="29">
-        <f>D44</f>
-        <v>8.4597028250419995E-3</v>
+        <f t="shared" si="8"/>
+        <v>8.4453125000000899E-3</v>
       </c>
       <c r="M20" s="30">
-        <f>E44</f>
-        <v>765.156901356003</v>
+        <f t="shared" si="9"/>
+        <v>766.46068455154204</v>
       </c>
       <c r="N20" s="29">
-        <f>D56</f>
-        <v>1.2459702825041699E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.24453124999998E-2</v>
       </c>
       <c r="O20" s="30">
-        <f>E56</f>
-        <v>1857.8292215347001</v>
+        <f t="shared" si="11"/>
+        <v>1859.9774011300501</v>
       </c>
       <c r="P20" s="29">
-        <f>D68</f>
-        <v>8.4597028250419995E-3</v>
+        <f t="shared" si="12"/>
+        <v>8.4453125000000899E-3</v>
       </c>
       <c r="Q20" s="30">
-        <f>E68</f>
-        <v>392.80339613865999</v>
+        <f t="shared" si="13"/>
+        <v>393.47271045331701</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.3">
@@ -19317,46 +19319,46 @@
         <v>-10</v>
       </c>
       <c r="C21" s="21">
-        <f t="shared" si="2"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D21" s="21">
-        <v>8.4597028250419093E-3</v>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="E21" s="8">
-        <v>1837.9487224980501</v>
+        <v>1841.08048103595</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="K21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-10</v>
       </c>
       <c r="L21" s="29">
-        <f>D45</f>
-        <v>7.4597028250418902E-3</v>
+        <f t="shared" si="8"/>
+        <v>7.4453124999999797E-3</v>
       </c>
       <c r="M21" s="30">
-        <f>E45</f>
-        <v>3160.1124807362798</v>
+        <f t="shared" si="9"/>
+        <v>3166.2203567679098</v>
       </c>
       <c r="N21" s="29">
-        <f>D57</f>
-        <v>6.4597028250418702E-3</v>
+        <f t="shared" si="10"/>
+        <v>6.4453124999999502E-3</v>
       </c>
       <c r="O21" s="30">
-        <f>E57</f>
-        <v>1745.1267194985801</v>
+        <f t="shared" si="11"/>
+        <v>1749.0230303031999</v>
       </c>
       <c r="P21" s="29">
-        <f>D69</f>
-        <v>6.4597028250418702E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.4453124999999502E-3</v>
       </c>
       <c r="Q21" s="30">
-        <f>E69</f>
-        <v>1536.06137445436</v>
+        <f t="shared" si="13"/>
+        <v>1539.490909091</v>
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.3">
@@ -19364,46 +19366,46 @@
         <v>4</v>
       </c>
       <c r="C22" s="21">
-        <f t="shared" si="2"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D22" s="21">
-        <v>1.2959702825041801E-2</v>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="E22" s="8">
-        <v>2372.58526797278</v>
+        <v>2375.22269161132</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="K22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="L22" s="29">
-        <f>D46</f>
-        <v>1.0459702825041901E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.04453125E-2</v>
       </c>
       <c r="M22" s="30">
-        <f>E46</f>
-        <v>1163.8000336736</v>
+        <f t="shared" si="9"/>
+        <v>1165.4033807030301</v>
       </c>
       <c r="N22" s="29">
-        <f>D58</f>
-        <v>1.04597028250418E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.04453124999998E-2</v>
       </c>
       <c r="O22" s="30">
-        <f>E58</f>
-        <v>5231.8886028943698</v>
+        <f t="shared" si="11"/>
+        <v>5239.0964846670504</v>
       </c>
       <c r="P22" s="29">
-        <f>D70</f>
-        <v>1.0459702825041901E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.04453125E-2</v>
       </c>
       <c r="Q22" s="30">
-        <f>E70</f>
-        <v>731.23492396818403</v>
+        <f t="shared" si="13"/>
+        <v>732.242333582583</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.3">
@@ -19411,46 +19413,46 @@
         <v>-20</v>
       </c>
       <c r="C23" s="21">
-        <f t="shared" si="2"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D23" s="21">
-        <v>6.4597028250418902E-3</v>
+        <v>6.4453124999999797E-3</v>
       </c>
       <c r="E23" s="8">
-        <v>5394.5980092008003</v>
+        <v>5406.64242424241</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="K23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-20</v>
       </c>
       <c r="L23" s="29">
-        <f>D47</f>
-        <v>5.4597028250418901E-3</v>
+        <f t="shared" si="8"/>
+        <v>5.4453124999999797E-3</v>
       </c>
       <c r="M23" s="30">
-        <f>E47</f>
-        <v>3479.76815017438</v>
+        <f t="shared" si="9"/>
+        <v>3488.9641319938801</v>
       </c>
       <c r="N23" s="29">
-        <f>D59</f>
-        <v>5.9597028250419001E-3</v>
+        <f t="shared" si="10"/>
+        <v>5.9453124999999897E-3</v>
       </c>
       <c r="O23" s="30">
-        <f>E59</f>
-        <v>2399.28070572856</v>
+        <f t="shared" si="11"/>
+        <v>2405.0880420497801</v>
       </c>
       <c r="P23" s="29">
-        <f>D71</f>
-        <v>6.4597028250418902E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.4453124999999797E-3</v>
       </c>
       <c r="Q23" s="30">
-        <f>E71</f>
-        <v>5290.1040381495995</v>
+        <f t="shared" si="13"/>
+        <v>5301.9151515152498</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.3">
@@ -19458,46 +19460,46 @@
         <v>4</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" si="2"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D24" s="21">
-        <v>1.5459702825041799E-2</v>
+        <v>1.54453124999999E-2</v>
       </c>
       <c r="E24" s="8">
-        <v>3879.3436509564799</v>
+        <v>3882.9580171978</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="K24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="L24" s="29">
-        <f>D48</f>
-        <v>1.2959702825041899E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.29453125E-2</v>
       </c>
       <c r="M24" s="30">
-        <f>E48</f>
-        <v>1431.1668832529399</v>
+        <f t="shared" si="9"/>
+        <v>1432.7578032588699</v>
       </c>
       <c r="N24" s="29">
-        <f>D60</f>
-        <v>1.0459702825041901E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.04453125E-2</v>
       </c>
       <c r="O24" s="30">
-        <f>E60</f>
-        <v>910.44651643429802</v>
+        <f t="shared" si="11"/>
+        <v>911.70082273722301</v>
       </c>
       <c r="P24" s="29">
-        <f>D72</f>
-        <v>1.0459702825041901E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.04453125E-2</v>
       </c>
       <c r="Q24" s="30">
-        <f>E72</f>
-        <v>1245.0162512095001</v>
+        <f t="shared" si="13"/>
+        <v>1246.73148840679</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.3">
@@ -19578,13 +19580,13 @@
       </c>
       <c r="C28" s="21">
         <f>$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D28" s="21">
-        <v>6.0780987965604202E-2</v>
+        <v>6.0766597640562303E-2</v>
       </c>
       <c r="E28" s="8">
-        <v>1160.28880675497</v>
+        <v>1160.56357831895</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="1"/>
@@ -19594,20 +19596,20 @@
         <v>-0.5</v>
       </c>
       <c r="L28" s="29">
-        <f>D76</f>
-        <v>4.0579943306003403E-2</v>
+        <f t="shared" ref="L28:L36" si="16">D76</f>
+        <v>4.0565552980961497E-2</v>
       </c>
       <c r="M28" s="30">
-        <f>E76</f>
-        <v>1288.14867004182</v>
+        <f t="shared" ref="M28:M36" si="17">E76</f>
+        <v>1288.6056311011901</v>
       </c>
       <c r="N28" s="29">
-        <f>D88</f>
-        <v>4.0579943306004299E-2</v>
+        <f t="shared" ref="N28:N36" si="18">D88</f>
+        <v>4.0565552980962302E-2</v>
       </c>
       <c r="O28" s="30">
-        <f>E88</f>
-        <v>1719.3961921991399</v>
+        <f t="shared" ref="O28:O36" si="19">E88</f>
+        <v>1720.0061350758799</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.3">
@@ -19615,38 +19617,38 @@
         <v>-2.5</v>
       </c>
       <c r="C29" s="21">
-        <f t="shared" ref="C29:C36" si="4">$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" ref="C29:C36" si="20">$C$4</f>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D29" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E29" s="8">
-        <v>1671.22786092045</v>
+        <v>1673.1602762083501</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="K29" s="11">
-        <f t="shared" ref="K29:K36" si="5">B77</f>
+        <f t="shared" ref="K29:K36" si="21">B77</f>
         <v>-2.5</v>
       </c>
       <c r="L29" s="29">
-        <f>D77</f>
-        <v>8.4597028250418208E-3</v>
+        <f t="shared" si="16"/>
+        <v>8.4453124999999095E-3</v>
       </c>
       <c r="M29" s="30">
-        <f>E77</f>
-        <v>345.57951507979698</v>
+        <f t="shared" si="17"/>
+        <v>346.16836262686201</v>
       </c>
       <c r="N29" s="29">
-        <f>D89</f>
-        <v>1.2459702825041901E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.24453125E-2</v>
       </c>
       <c r="O29" s="30">
-        <f>E89</f>
-        <v>844.562679203838</v>
+        <f t="shared" si="19"/>
+        <v>845.53923414948702</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.3">
@@ -19654,38 +19656,38 @@
         <v>1.25</v>
       </c>
       <c r="C30" s="21">
-        <f t="shared" si="4"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D30" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E30" s="8">
-        <v>981.00253044829901</v>
+        <v>982.136848713115</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="K30" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>1.25</v>
       </c>
       <c r="L30" s="29">
-        <f>D78</f>
-        <v>4.4597028250417297E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.4453124999998201E-3</v>
       </c>
       <c r="M30" s="30">
-        <f>E78</f>
-        <v>156.400555677884</v>
+        <f t="shared" si="17"/>
+        <v>156.90685412888001</v>
       </c>
       <c r="N30" s="29">
-        <f>D90</f>
-        <v>1.24597028250415E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.2445312499999601E-2</v>
       </c>
       <c r="O30" s="30">
-        <f>E90</f>
-        <v>884.69204721696599</v>
+        <f t="shared" si="19"/>
+        <v>885.71500313883996</v>
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.3">
@@ -19693,38 +19695,38 @@
         <v>-5</v>
       </c>
       <c r="C31" s="21">
-        <f t="shared" si="4"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D31" s="21">
-        <v>8.4597028250419093E-3</v>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="E31" s="8">
-        <v>1323.6871591813799</v>
+        <v>1325.9426456982401</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="K31" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-5</v>
       </c>
       <c r="L31" s="29">
-        <f>D79</f>
-        <v>8.4597028250418208E-3</v>
+        <f t="shared" si="16"/>
+        <v>8.4453124999999095E-3</v>
       </c>
       <c r="M31" s="30">
-        <f>E79</f>
-        <v>1696.04066439853</v>
+        <f t="shared" si="17"/>
+        <v>1698.9306197962801</v>
       </c>
       <c r="N31" s="29">
-        <f>D91</f>
-        <v>8.4597028250419093E-3</v>
+        <f t="shared" si="18"/>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="O31" s="30">
-        <f>E91</f>
-        <v>573.069775648308</v>
+        <f t="shared" si="19"/>
+        <v>574.04625346878902</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.3">
@@ -19732,38 +19734,38 @@
         <v>2.5</v>
       </c>
       <c r="C32" s="21">
-        <f t="shared" si="4"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D32" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E32" s="8">
-        <v>2297.28593064605</v>
+        <v>2299.9422473320501</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="K32" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="L32" s="29">
-        <f>D80</f>
-        <v>8.4597028250418208E-3</v>
+        <f t="shared" si="16"/>
+        <v>8.4453124999999095E-3</v>
       </c>
       <c r="M32" s="30">
-        <f>E80</f>
-        <v>575.96585846661503</v>
+        <f t="shared" si="17"/>
+        <v>576.94727104505796</v>
       </c>
       <c r="N32" s="29">
-        <f>D92</f>
-        <v>1.2459702825041699E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.24453124999998E-2</v>
       </c>
       <c r="O32" s="30">
-        <f>E92</f>
-        <v>2674.5019899691601</v>
+        <f t="shared" si="19"/>
+        <v>2677.59447583168</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
@@ -19771,38 +19773,38 @@
         <v>-10</v>
       </c>
       <c r="C33" s="21">
-        <f t="shared" si="4"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D33" s="21">
-        <v>8.4597028250419093E-3</v>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="E33" s="8">
-        <v>5073.9368022407198</v>
+        <v>5082.58249768732</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="K33" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-10</v>
       </c>
       <c r="L33" s="29">
-        <f>D81</f>
-        <v>7.4597028250418902E-3</v>
+        <f t="shared" si="16"/>
+        <v>7.4453124999999797E-3</v>
       </c>
       <c r="M33" s="30">
-        <f>E81</f>
-        <v>1641.8884622164201</v>
+        <f t="shared" si="17"/>
+        <v>1645.0619097586</v>
       </c>
       <c r="N33" s="29">
-        <f>D93</f>
-        <v>9.4597028250418894E-3</v>
+        <f t="shared" si="18"/>
+        <v>9.4453124999999798E-3</v>
       </c>
       <c r="O33" s="30">
-        <f>E93</f>
-        <v>1445.39424259711</v>
+        <f t="shared" si="19"/>
+        <v>1447.59636062811</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
@@ -19810,38 +19812,38 @@
         <v>4</v>
       </c>
       <c r="C34" s="21">
-        <f t="shared" si="4"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D34" s="21">
-        <v>1.2959702825041899E-2</v>
+        <v>1.29453125E-2</v>
       </c>
       <c r="E34" s="8">
-        <v>5333.6483431111901</v>
+        <v>5339.5773566685402</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="K34" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="L34" s="29">
-        <f>D82</f>
-        <v>1.0459702825041901E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.04453125E-2</v>
       </c>
       <c r="M34" s="30">
-        <f>E82</f>
-        <v>1142.2886672641901</v>
+        <f t="shared" si="17"/>
+        <v>1143.8623784589099</v>
       </c>
       <c r="N34" s="29">
-        <f>D94</f>
-        <v>1.0459702825041901E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.04453125E-2</v>
       </c>
       <c r="O34" s="30">
-        <f>E94</f>
-        <v>802.89087945097594</v>
+        <f t="shared" si="19"/>
+        <v>803.99700822677698</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
@@ -19849,38 +19851,38 @@
         <v>-20</v>
       </c>
       <c r="C35" s="21">
-        <f t="shared" si="4"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D35" s="21">
-        <v>6.4597028250418902E-3</v>
+        <v>6.4453124999999797E-3</v>
       </c>
       <c r="E35" s="8">
-        <v>10987.037936925401</v>
+        <v>11011.5684848485</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="K35" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>-20</v>
       </c>
       <c r="L35" s="29">
-        <f>D83</f>
-        <v>7.4597028250418902E-3</v>
+        <f t="shared" si="16"/>
+        <v>7.4453124999999797E-3</v>
       </c>
       <c r="M35" s="30">
-        <f>E83</f>
-        <v>2546.8172721595602</v>
+        <f t="shared" si="17"/>
+        <v>2551.7397691492802</v>
       </c>
       <c r="N35" s="29">
-        <f>D95</f>
-        <v>1.0459702825041901E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.0445312499999901E-2</v>
       </c>
       <c r="O35" s="30">
-        <f>E95</f>
-        <v>1419.5910006592901</v>
+        <f t="shared" si="19"/>
+        <v>1421.5467464472699</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
@@ -19888,38 +19890,38 @@
         <v>4</v>
       </c>
       <c r="C36" s="21">
-        <f t="shared" si="4"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D36" s="21">
-        <v>1.2959702825041801E-2</v>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="E36" s="8">
-        <v>835.12717429655595</v>
+        <v>836.05552202778802</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="K36" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="L36" s="29">
-        <f>D84</f>
-        <v>1.2959702825041801E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="M36" s="30">
-        <f>E84</f>
-        <v>2598.2848877473102</v>
+        <f t="shared" si="17"/>
+        <v>2601.1732045867998</v>
       </c>
       <c r="N36" s="29">
-        <f>D96</f>
-        <v>1.2959702825041801E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="O36" s="30">
-        <f>E96</f>
-        <v>1631.7889604024001</v>
+        <f t="shared" si="19"/>
+        <v>1633.60289680138</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
@@ -19965,13 +19967,13 @@
       </c>
       <c r="C40" s="21">
         <f>$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D40" s="21">
-        <v>8.0660103626645593E-2</v>
+        <v>8.0645713301603694E-2</v>
       </c>
       <c r="E40" s="8">
-        <v>5216.6248378212904</v>
+        <v>5217.5556861449604</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="1"/>
@@ -19983,14 +19985,14 @@
         <v>-2.5</v>
       </c>
       <c r="C41" s="21">
-        <f t="shared" ref="C41:C48" si="6">$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" ref="C41:C48" si="22">$C$4</f>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D41" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E41" s="8">
-        <v>1271.9805779113101</v>
+        <v>1273.4513496547399</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="1"/>
@@ -20002,14 +20004,14 @@
         <v>1.25</v>
       </c>
       <c r="C42" s="21">
-        <f t="shared" si="6"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D42" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E42" s="8">
-        <v>132.22606695619399</v>
+        <v>132.37895794085301</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="1"/>
@@ -20021,14 +20023,14 @@
         <v>-5</v>
       </c>
       <c r="C43" s="21">
-        <f t="shared" si="6"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D43" s="21">
-        <v>8.4597028250418208E-3</v>
+        <v>8.4453124999999095E-3</v>
       </c>
       <c r="E43" s="8">
-        <v>1415.41614967341</v>
+        <v>1417.8279370955299</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="1"/>
@@ -20040,14 +20042,14 @@
         <v>2.5</v>
       </c>
       <c r="C44" s="21">
-        <f t="shared" si="6"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D44" s="21">
-        <v>8.4597028250419995E-3</v>
+        <v>8.4453125000000899E-3</v>
       </c>
       <c r="E44" s="8">
-        <v>765.156901356003</v>
+        <v>766.46068455154204</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="1"/>
@@ -20059,14 +20061,14 @@
         <v>-10</v>
       </c>
       <c r="C45" s="21">
-        <f t="shared" si="6"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D45" s="21">
-        <v>7.4597028250418902E-3</v>
+        <v>7.4453124999999797E-3</v>
       </c>
       <c r="E45" s="8">
-        <v>3160.1124807362798</v>
+        <v>3166.2203567679098</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="1"/>
@@ -20078,14 +20080,14 @@
         <v>4</v>
       </c>
       <c r="C46" s="21">
-        <f t="shared" si="6"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D46" s="21">
-        <v>1.0459702825041901E-2</v>
+        <v>1.04453125E-2</v>
       </c>
       <c r="E46" s="8">
-        <v>1163.8000336736</v>
+        <v>1165.4033807030301</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="1"/>
@@ -20097,14 +20099,14 @@
         <v>-20</v>
       </c>
       <c r="C47" s="21">
-        <f t="shared" si="6"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D47" s="21">
-        <v>5.4597028250418901E-3</v>
+        <v>5.4453124999999797E-3</v>
       </c>
       <c r="E47" s="8">
-        <v>3479.76815017438</v>
+        <v>3488.9641319938801</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="1"/>
@@ -20116,14 +20118,14 @@
         <v>4</v>
       </c>
       <c r="C48" s="21">
-        <f t="shared" si="6"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D48" s="21">
-        <v>1.2959702825041899E-2</v>
+        <v>1.29453125E-2</v>
       </c>
       <c r="E48" s="8">
-        <v>1431.1668832529399</v>
+        <v>1432.7578032588699</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="1"/>
@@ -20173,13 +20175,13 @@
       </c>
       <c r="C52" s="21">
         <f>$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D52" s="21">
-        <v>2.05398631456832E-2</v>
+        <v>2.05254728206412E-2</v>
       </c>
       <c r="E52" s="8">
-        <v>609.71681803220702</v>
+        <v>610.14428799948496</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="1"/>
@@ -20191,14 +20193,14 @@
         <v>-2.5</v>
       </c>
       <c r="C53" s="21">
-        <f t="shared" ref="C53:C60" si="7">$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" ref="C53:C60" si="23">$C$4</f>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D53" s="21">
-        <v>8.4597028250419995E-3</v>
+        <v>8.4453125000000899E-3</v>
       </c>
       <c r="E53" s="8">
-        <v>635.18779691588304</v>
+        <v>636.270120259191</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="1"/>
@@ -20210,14 +20212,14 @@
         <v>1.25</v>
       </c>
       <c r="C54" s="21">
-        <f t="shared" si="7"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D54" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E54" s="8">
-        <v>862.661024177493</v>
+        <v>863.65850596341897</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="1"/>
@@ -20229,14 +20231,14 @@
         <v>-5</v>
       </c>
       <c r="C55" s="21">
-        <f t="shared" si="7"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D55" s="21">
-        <v>8.4597028250419093E-3</v>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="E55" s="8">
-        <v>2325.5545031398001</v>
+        <v>2329.5171137836201</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="1"/>
@@ -20248,14 +20250,14 @@
         <v>2.5</v>
       </c>
       <c r="C56" s="21">
-        <f t="shared" si="7"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D56" s="21">
-        <v>1.2459702825041699E-2</v>
+        <v>1.24453124999998E-2</v>
       </c>
       <c r="E56" s="8">
-        <v>1857.8292215347001</v>
+        <v>1859.9774011300501</v>
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="1"/>
@@ -20267,14 +20269,14 @@
         <v>-10</v>
       </c>
       <c r="C57" s="21">
-        <f t="shared" si="7"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D57" s="21">
-        <v>6.4597028250418702E-3</v>
+        <v>6.4453124999999502E-3</v>
       </c>
       <c r="E57" s="8">
-        <v>1745.1267194985801</v>
+        <v>1749.0230303031999</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="1"/>
@@ -20286,14 +20288,14 @@
         <v>4</v>
       </c>
       <c r="C58" s="21">
-        <f t="shared" si="7"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D58" s="21">
-        <v>1.04597028250418E-2</v>
+        <v>1.04453124999998E-2</v>
       </c>
       <c r="E58" s="8">
-        <v>5231.8886028943698</v>
+        <v>5239.0964846670504</v>
       </c>
       <c r="F58" s="21"/>
       <c r="G58" s="1"/>
@@ -20305,14 +20307,14 @@
         <v>-20</v>
       </c>
       <c r="C59" s="21">
-        <f t="shared" si="7"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D59" s="21">
-        <v>5.9597028250419001E-3</v>
+        <v>5.9453124999999897E-3</v>
       </c>
       <c r="E59" s="8">
-        <v>2399.28070572856</v>
+        <v>2405.0880420497801</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="1"/>
@@ -20324,14 +20326,14 @@
         <v>4</v>
       </c>
       <c r="C60" s="21">
-        <f t="shared" si="7"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D60" s="21">
-        <v>1.0459702825041901E-2</v>
+        <v>1.04453125E-2</v>
       </c>
       <c r="E60" s="8">
-        <v>910.44651643429802</v>
+        <v>911.70082273722301</v>
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="1"/>
@@ -20381,13 +20383,13 @@
       </c>
       <c r="C64" s="21">
         <f>$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D64" s="21">
-        <v>4.0579943306004299E-2</v>
+        <v>4.0565552980962302E-2</v>
       </c>
       <c r="E64" s="8">
-        <v>702.88417568530804</v>
+        <v>703.13351856397401</v>
       </c>
       <c r="F64" s="21"/>
       <c r="G64" s="1"/>
@@ -20399,14 +20401,14 @@
         <v>-2.5</v>
       </c>
       <c r="C65" s="21">
-        <f t="shared" ref="C65:C72" si="8">$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" ref="C65:C72" si="24">$C$4</f>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D65" s="21">
-        <v>8.4597028250419995E-3</v>
+        <v>8.4453125000000899E-3</v>
       </c>
       <c r="E65" s="8">
-        <v>434.17600782928503</v>
+        <v>434.91581868626201</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="1"/>
@@ -20418,14 +20420,14 @@
         <v>1.25</v>
       </c>
       <c r="C66" s="21">
-        <f t="shared" si="8"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D66" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E66" s="8">
-        <v>2357.3997239298101</v>
+        <v>2360.1255492781902</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="1"/>
@@ -20437,14 +20439,14 @@
         <v>-5</v>
       </c>
       <c r="C67" s="21">
-        <f t="shared" si="8"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D67" s="21">
-        <v>8.4597028250419093E-3</v>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="E67" s="8">
-        <v>1604.3707776379399</v>
+        <v>1607.1045328397699</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="1"/>
@@ -20456,14 +20458,14 @@
         <v>2.5</v>
       </c>
       <c r="C68" s="21">
-        <f t="shared" si="8"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D68" s="21">
-        <v>8.4597028250419995E-3</v>
+        <v>8.4453125000000899E-3</v>
       </c>
       <c r="E68" s="8">
-        <v>392.80339613865999</v>
+        <v>393.47271045331701</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="1"/>
@@ -20475,14 +20477,14 @@
         <v>-10</v>
       </c>
       <c r="C69" s="21">
-        <f t="shared" si="8"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D69" s="21">
-        <v>6.4597028250418702E-3</v>
+        <v>6.4453124999999502E-3</v>
       </c>
       <c r="E69" s="8">
-        <v>1536.06137445436</v>
+        <v>1539.490909091</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="1"/>
@@ -20494,14 +20496,14 @@
         <v>4</v>
       </c>
       <c r="C70" s="21">
-        <f t="shared" si="8"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D70" s="21">
-        <v>1.0459702825041901E-2</v>
+        <v>1.04453125E-2</v>
       </c>
       <c r="E70" s="8">
-        <v>731.23492396818403</v>
+        <v>732.242333582583</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="1"/>
@@ -20513,14 +20515,14 @@
         <v>-20</v>
       </c>
       <c r="C71" s="21">
-        <f t="shared" si="8"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D71" s="21">
-        <v>6.4597028250418902E-3</v>
+        <v>6.4453124999999797E-3</v>
       </c>
       <c r="E71" s="8">
-        <v>5290.1040381495995</v>
+        <v>5301.9151515152498</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="1"/>
@@ -20532,14 +20534,14 @@
         <v>4</v>
       </c>
       <c r="C72" s="21">
-        <f t="shared" si="8"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D72" s="21">
-        <v>1.0459702825041901E-2</v>
+        <v>1.04453125E-2</v>
       </c>
       <c r="E72" s="8">
-        <v>1245.0162512095001</v>
+        <v>1246.73148840679</v>
       </c>
       <c r="F72" s="21"/>
       <c r="G72" s="1"/>
@@ -20589,13 +20591,13 @@
       </c>
       <c r="C76" s="21">
         <f>$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D76" s="21">
-        <v>4.0579943306003403E-2</v>
+        <v>4.0565552980961497E-2</v>
       </c>
       <c r="E76" s="8">
-        <v>1288.14867004182</v>
+        <v>1288.6056311011901</v>
       </c>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
@@ -20607,14 +20609,14 @@
         <v>-2.5</v>
       </c>
       <c r="C77" s="21">
-        <f t="shared" ref="C77:C84" si="9">$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" ref="C77:C84" si="25">$C$4</f>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D77" s="21">
-        <v>8.4597028250418208E-3</v>
+        <v>8.4453124999999095E-3</v>
       </c>
       <c r="E77" s="8">
-        <v>345.57951507979698</v>
+        <v>346.16836262686201</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="8"/>
@@ -20626,14 +20628,14 @@
         <v>1.25</v>
       </c>
       <c r="C78" s="21">
-        <f t="shared" si="9"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D78" s="21">
-        <v>4.4597028250417297E-3</v>
+        <v>4.4453124999998201E-3</v>
       </c>
       <c r="E78" s="8">
-        <v>156.400555677884</v>
+        <v>156.90685412888001</v>
       </c>
       <c r="F78" s="21"/>
       <c r="G78" s="8"/>
@@ -20645,14 +20647,14 @@
         <v>-5</v>
       </c>
       <c r="C79" s="21">
-        <f t="shared" si="9"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D79" s="21">
-        <v>8.4597028250418208E-3</v>
+        <v>8.4453124999999095E-3</v>
       </c>
       <c r="E79" s="8">
-        <v>1696.04066439853</v>
+        <v>1698.9306197962801</v>
       </c>
       <c r="F79" s="21"/>
       <c r="G79" s="8"/>
@@ -20664,14 +20666,14 @@
         <v>2.5</v>
       </c>
       <c r="C80" s="21">
-        <f t="shared" si="9"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D80" s="21">
-        <v>8.4597028250418208E-3</v>
+        <v>8.4453124999999095E-3</v>
       </c>
       <c r="E80" s="8">
-        <v>575.96585846661503</v>
+        <v>576.94727104505796</v>
       </c>
       <c r="F80" s="21"/>
       <c r="G80" s="8"/>
@@ -20683,14 +20685,14 @@
         <v>-10</v>
       </c>
       <c r="C81" s="21">
-        <f t="shared" si="9"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D81" s="21">
-        <v>7.4597028250418902E-3</v>
+        <v>7.4453124999999797E-3</v>
       </c>
       <c r="E81" s="8">
-        <v>1641.8884622164201</v>
+        <v>1645.0619097586</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
@@ -20702,14 +20704,14 @@
         <v>4</v>
       </c>
       <c r="C82" s="21">
-        <f t="shared" si="9"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D82" s="21">
-        <v>1.0459702825041901E-2</v>
+        <v>1.04453125E-2</v>
       </c>
       <c r="E82" s="8">
-        <v>1142.2886672641901</v>
+        <v>1143.8623784589099</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -20720,14 +20722,14 @@
         <v>-20</v>
       </c>
       <c r="C83" s="21">
-        <f t="shared" si="9"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D83" s="21">
-        <v>7.4597028250418902E-3</v>
+        <v>7.4453124999999797E-3</v>
       </c>
       <c r="E83" s="8">
-        <v>2546.8172721595602</v>
+        <v>2551.7397691492802</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -20738,14 +20740,14 @@
         <v>4</v>
       </c>
       <c r="C84" s="21">
-        <f t="shared" si="9"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D84" s="21">
-        <v>1.2959702825041801E-2</v>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="E84" s="8">
-        <v>2598.2848877473102</v>
+        <v>2601.1732045867998</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -20780,13 +20782,13 @@
       </c>
       <c r="C88" s="21">
         <f>$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D88" s="21">
-        <v>4.0579943306004299E-2</v>
+        <v>4.0565552980962302E-2</v>
       </c>
       <c r="E88" s="8">
-        <v>1719.3961921991399</v>
+        <v>1720.0061350758799</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
@@ -20797,14 +20799,14 @@
         <v>-2.5</v>
       </c>
       <c r="C89" s="21">
-        <f t="shared" ref="C89:C96" si="10">$C$4</f>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" ref="C89:C96" si="26">$C$4</f>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D89" s="21">
-        <v>1.2459702825041901E-2</v>
+        <v>1.24453125E-2</v>
       </c>
       <c r="E89" s="8">
-        <v>844.562679203838</v>
+        <v>845.53923414948702</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -20815,14 +20817,14 @@
         <v>1.25</v>
       </c>
       <c r="C90" s="21">
-        <f t="shared" si="10"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D90" s="21">
-        <v>1.24597028250415E-2</v>
+        <v>1.2445312499999601E-2</v>
       </c>
       <c r="E90" s="8">
-        <v>884.69204721696599</v>
+        <v>885.71500313883996</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -20833,14 +20835,14 @@
         <v>-5</v>
       </c>
       <c r="C91" s="21">
-        <f t="shared" si="10"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D91" s="21">
-        <v>8.4597028250419093E-3</v>
+        <v>8.4453124999999997E-3</v>
       </c>
       <c r="E91" s="8">
-        <v>573.069775648308</v>
+        <v>574.04625346878902</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -20851,14 +20853,14 @@
         <v>2.5</v>
       </c>
       <c r="C92" s="21">
-        <f t="shared" si="10"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D92" s="21">
-        <v>1.2459702825041699E-2</v>
+        <v>1.24453124999998E-2</v>
       </c>
       <c r="E92" s="8">
-        <v>2674.5019899691601</v>
+        <v>2677.59447583168</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -20869,14 +20871,14 @@
         <v>-10</v>
       </c>
       <c r="C93" s="21">
-        <f t="shared" si="10"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D93" s="21">
-        <v>9.4597028250418894E-3</v>
+        <v>9.4453124999999798E-3</v>
       </c>
       <c r="E93" s="8">
-        <v>1445.39424259711</v>
+        <v>1447.59636062811</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -20887,14 +20889,14 @@
         <v>4</v>
       </c>
       <c r="C94" s="21">
-        <f t="shared" si="10"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D94" s="21">
-        <v>1.0459702825041901E-2</v>
+        <v>1.04453125E-2</v>
       </c>
       <c r="E94" s="8">
-        <v>802.89087945097594</v>
+        <v>803.99700822677698</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -20905,14 +20907,14 @@
         <v>-20</v>
       </c>
       <c r="C95" s="21">
-        <f t="shared" si="10"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D95" s="21">
-        <v>1.0459702825041901E-2</v>
+        <v>1.0445312499999901E-2</v>
       </c>
       <c r="E95" s="8">
-        <v>1419.5910006592901</v>
+        <v>1421.5467464472699</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -20923,14 +20925,14 @@
         <v>4</v>
       </c>
       <c r="C96" s="21">
-        <f t="shared" si="10"/>
-        <v>1.9540297174958102E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.9554687500000001E-2</v>
       </c>
       <c r="D96" s="21">
-        <v>1.2959702825041801E-2</v>
+        <v>1.29453124999999E-2</v>
       </c>
       <c r="E96" s="8">
-        <v>1631.7889604024001</v>
+        <v>1633.60289680138</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -20988,13 +20990,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="W26:Y26"/>
@@ -21004,6 +20999,13 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="W14:Y14"/>
     <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23644,8 +23646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C868E4-259C-4966-A996-53DE554FD6D4}">
   <dimension ref="B2:T96"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28392,7 +28394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3E9983-F331-43B8-AFD7-F870051FBDBB}">
   <dimension ref="B2:AM208"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
@@ -28577,7 +28579,7 @@
       </c>
       <c r="S7" s="10">
         <f>'0C'!D41</f>
-        <v>1.2000000000000101E-2</v>
+        <v>1.50000000000001E-2</v>
       </c>
       <c r="AF7" s="6">
         <v>293.14999999999998</v>
@@ -28899,7 +28901,7 @@
       </c>
       <c r="S21" s="10">
         <f>'0C'!D41</f>
-        <v>1.2000000000000101E-2</v>
+        <v>1.50000000000001E-2</v>
       </c>
       <c r="U21" s="6">
         <v>273.14999999999998</v>
